--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1338.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1338.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3706796089501626</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.02157800139620686</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.02157800139620686</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.03452480223393098</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08540028175922064</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02718828175922065</v>
+        <v>0.1176981716919089</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0008035460085152686</v>
+        <v>0.0034785536250559</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,10 +9250,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.01294680083772412</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0002678486695050895</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02718828175922065</v>
+        <v>0.0349272</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008035460085152686</v>
+        <v>0.0007225880869565218</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
+        <v>0.09492720000000002</v>
+      </c>
+      <c r="K66" s="171" t="n">
+        <v>0.0006690630434782609</v>
+      </c>
+      <c r="L66" s="172" t="n">
+        <v>0.1549272</v>
+      </c>
+      <c r="M66" s="170" t="n">
+        <v>0.0006629248504188274</v>
+      </c>
+      <c r="N66" s="171" t="n">
         <v>0.0349272</v>
       </c>
-      <c r="K66" s="171" t="n">
+      <c r="O66" s="172" t="n">
         <v>0.0007225880869565218</v>
-      </c>
-      <c r="L66" s="172" t="n">
-        <v>0.09492720000000002</v>
-      </c>
-      <c r="M66" s="170" t="n">
-        <v>0.0006568982608695653</v>
-      </c>
-      <c r="N66" s="171" t="n">
-        <v>0.1549272</v>
-      </c>
-      <c r="O66" s="172" t="n">
-        <v>0.0007225880869565219</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.02888553339965655</v>
+        <v>0.0659260595947227</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001396748712493146</v>
+        <v>0.001521172403068515</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.06431840441360101</v>
+        <v>0.1865936727500665</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001526915454735473</v>
+        <v>0.001518069503502845</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1724857226210015</v>
+        <v>0.3036170763606876</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001375151922069153</v>
+        <v>0.001517468480572808</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.2927297810692304</v>
+        <v>0.0659260595947227</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001583256644271191</v>
+        <v>0.001521172403068515</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.02678840879550291</v>
+        <v>0.09124064484881333</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002095123068739719</v>
+        <v>0.002281758604602773</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.08975729776213545</v>
+        <v>0.2537826973178892</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002290373182103209</v>
+        <v>0.002277104255254268</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.24294160142122</v>
+        <v>0.4171423800062999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002062727883103729</v>
+        <v>0.002276202720859212</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.4021716134198513</v>
+        <v>0.09124064484881333</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002374884966406787</v>
+        <v>0.002281758604602773</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02859078813659429</v>
+        <v>0.1109112750266509</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002793497424986292</v>
+        <v>0.003042344806137031</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1109656672962221</v>
+        <v>0.2874729248357886</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003053830909470946</v>
+        <v>0.002894511493442645</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2874729248357886</v>
+        <v>0.4572476779796683</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002841884011743687</v>
+        <v>0.002795053312864988</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.4572476779796683</v>
+        <v>0.1109112750266509</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003046608111022837</v>
+        <v>0.003042344806137031</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0002678486695050895</v>
+        <v>0.0007225880869565218</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01294680083772412</v>
+        <v>0.0349272</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.03129535948958501</v>
+        <v>0.1176981716919089</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003491871781232865</v>
+        <v>0.0034785536250559</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
+        <v>0.3003166448347372</v>
+      </c>
+      <c r="K70" s="171" t="n">
+        <v>0.003795173758757113</v>
+      </c>
+      <c r="L70" s="172" t="n">
+        <v>0.4820978981550729</v>
+      </c>
+      <c r="M70" s="170" t="n">
+        <v>0.00379367120143202</v>
+      </c>
+      <c r="N70" s="171" t="n">
         <v>0.1176981716919089</v>
       </c>
-      <c r="K70" s="171" t="n">
+      <c r="O70" s="172" t="n">
         <v>0.0034785536250559</v>
-      </c>
-      <c r="L70" s="172" t="n">
-        <v>0.3000586897833489</v>
-      </c>
-      <c r="M70" s="170" t="n">
-        <v>0.003437879805172882</v>
-      </c>
-      <c r="N70" s="171" t="n">
-        <v>0.4915562883718205</v>
-      </c>
-      <c r="O70" s="172" t="n">
-        <v>0.003958141610677978</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.03490481092112932</v>
+        <v>0.1240911099054721</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004190246137479438</v>
+        <v>0.004563517209205546</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1276936993184236</v>
+        <v>0.3134923501695666</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004580746364206419</v>
+        <v>0.004554208510508535</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.3199189977661574</v>
+        <v>0.5029345820557695</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004125455766207459</v>
+        <v>0.004552405441718424</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.5254764995649018</v>
+        <v>0.1240911099054721</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004749769932813574</v>
+        <v>0.004563517209205546</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.03342183049788154</v>
+        <v>0.1293621288999895</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004888620493726011</v>
+        <v>0.005324103410739803</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1347334119932063</v>
+        <v>0.3237861550537324</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005344204091574154</v>
+        <v>0.005313243262259958</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.333058512069932</v>
+        <v>0.5154596149362165</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004813031727242035</v>
+        <v>0.005311139682004828</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.5539529788126372</v>
+        <v>0.1293621288999895</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005541398254949169</v>
+        <v>0.005324103410739803</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.03584910628649596</v>
+        <v>0.1343855523087581</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005586994849972584</v>
+        <v>0.006084689612274061</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1442550085297198</v>
+        <v>0.3367034527219345</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006107661818941891</v>
+        <v>0.006072278014011381</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.3535873492011909</v>
+        <v>0.5364817630971127</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005500607688276611</v>
+        <v>0.006069873922291232</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.5834055801437124</v>
+        <v>0.1343855523087581</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006333026577084765</v>
+        <v>0.006084689612274061</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03918932635362686</v>
+        <v>0.1393632897343246</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006285369206219158</v>
+        <v>0.006845275813808319</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.149660979667279</v>
+        <v>0.3457496364088727</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006871119546309628</v>
+        <v>0.006831312765762803</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.3651156256664531</v>
+        <v>0.5536097928391561</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006188183649311188</v>
+        <v>0.006828608162577636</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.6067541575868132</v>
+        <v>0.1393632897343246</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007124654899220362</v>
+        <v>0.006845275813808319</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03744517876592854</v>
+        <v>0.1425972507792357</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00698374356246573</v>
+        <v>0.007605862015342577</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1575538161451992</v>
+        <v>0.3611300993492473</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007634577273677364</v>
+        <v>0.007590347517514226</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.3838534579722371</v>
+        <v>0.5790524704630451</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006875759610345764</v>
+        <v>0.00758734240286404</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.6328185651706253</v>
+        <v>0.1425972507792357</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007916283221355956</v>
+        <v>0.007605862015342577</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03861935159005531</v>
+        <v>0.1485893450460381</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007682117918712304</v>
+        <v>0.008366448216876834</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1642360087027958</v>
+        <v>0.3706502347777579</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008398035001045101</v>
+        <v>0.008349382269265649</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.3966109626250616</v>
+        <v>0.594418562269478</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007563335571380341</v>
+        <v>0.008346076643150444</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.6557186569238345</v>
+        <v>0.1485893450460381</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008707911543491551</v>
+        <v>0.008366448216876834</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.04171453289266142</v>
+        <v>0.1516414821372785</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008380492274958877</v>
+        <v>0.009127034418411091</v>
       </c>
       <c r="J77" t="n">
-        <v>0.169410048079384</v>
+        <v>0.3839154359291048</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009161492728412837</v>
+        <v>0.009108417021017071</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4099982561314452</v>
+        <v>0.6106168345591532</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008250911532414917</v>
+        <v>0.009104810883436848</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6812742868751264</v>
+        <v>0.1516414821372785</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009499539865627148</v>
+        <v>0.009127034418411091</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0397334107404012</v>
+        <v>0.1556555716555037</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00907886663120545</v>
+        <v>0.009887620619945348</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1742784250142789</v>
+        <v>0.3889310960379879</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009924950455780573</v>
+        <v>0.009867451772768493</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4215254549979067</v>
+        <v>0.6240560536327691</v>
       </c>
       <c r="M78" t="n">
-        <v>0.008938487493449493</v>
+        <v>0.009863545123723252</v>
       </c>
       <c r="N78" t="n">
-        <v>0.7064053090531867</v>
+        <v>0.1556555716555037</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01029116818776274</v>
+        <v>0.009887620619945348</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.04267867319992893</v>
+        <v>0.1611335232032603</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009777240987452022</v>
+        <v>0.01064820682147961</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1796436302467959</v>
+        <v>0.4024026083391071</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01068840818314831</v>
+        <v>0.01062648652451992</v>
       </c>
       <c r="L79" t="n">
-        <v>0.4344026757309645</v>
+        <v>0.643844985791024</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009626063454484069</v>
+        <v>0.01062227936400966</v>
       </c>
       <c r="N79" t="n">
-        <v>0.7276315774867014</v>
+        <v>0.1611335232032603</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01108279650989834</v>
+        <v>0.01064820682147961</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04455300833789891</v>
+        <v>0.163377246383095</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0104756153436986</v>
+        <v>0.01140879302301386</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1845081545162502</v>
+        <v>0.4082353660671624</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01145186591051605</v>
+        <v>0.01138552127627134</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4494400348371375</v>
+        <v>0.6573923973346162</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01031363941551865</v>
+        <v>0.01138101360429606</v>
       </c>
       <c r="N80" t="n">
-        <v>0.7470729462043558</v>
+        <v>0.163377246383095</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01187442483203393</v>
+        <v>0.01140879302301386</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0453591042209654</v>
+        <v>0.1674886507975545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01117398969994517</v>
+        <v>0.01216937922454812</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1901744885619571</v>
+        <v>0.4201347624568537</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01221532363788378</v>
+        <v>0.01214455602802276</v>
       </c>
       <c r="L81" t="n">
-        <v>0.4557476488229439</v>
+        <v>0.6726070545642441</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01100121537655322</v>
+        <v>0.01213974784458246</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7575492692348361</v>
+        <v>0.1674886507975545</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01266605315416953</v>
+        <v>0.01216937922454812</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04509964891578273</v>
+        <v>0.1729696460491855</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01187236405619174</v>
+        <v>0.01292996542608238</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1950451231232317</v>
+        <v>0.4285061907428809</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01297878136525152</v>
+        <v>0.01290359077977418</v>
       </c>
       <c r="L82" t="n">
-        <v>0.470235634194903</v>
+        <v>0.6861977237806058</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0116887913375878</v>
+        <v>0.01289848208486887</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7779804006068279</v>
+        <v>0.1729696460491855</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01345768147630513</v>
+        <v>0.01292996542608238</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.04777733048900518</v>
+        <v>0.1761221417405348</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01257073841243832</v>
+        <v>0.01369055162761664</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2002225489393894</v>
+        <v>0.4370550441599445</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01374223909261926</v>
+        <v>0.01366262553152561</v>
       </c>
       <c r="L83" t="n">
-        <v>0.477314107459533</v>
+        <v>0.6963731712844001</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01237636729862238</v>
+        <v>0.01365721632515527</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7893861943490167</v>
+        <v>0.1761221417405348</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01424930979844072</v>
+        <v>0.01369055162761664</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.04939483700728704</v>
+        <v>0.1782480474741489</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01326911276868489</v>
+        <v>0.01445113782915089</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2040092567497453</v>
+        <v>0.4426867159427439</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01450569681998699</v>
+        <v>0.01442166028327703</v>
       </c>
       <c r="L84" t="n">
-        <v>0.4863931851233526</v>
+        <v>0.7060421633763251</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01306394325965695</v>
+        <v>0.01441595056544168</v>
       </c>
       <c r="N84" t="n">
-        <v>0.8110865044900878</v>
+        <v>0.1782480474741489</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01504093812057632</v>
+        <v>0.01445113782915089</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.04895485653728257</v>
+        <v>0.1811492728525748</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01396748712493146</v>
+        <v>0.01521172403068515</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2067077372936149</v>
+        <v>0.4519065993259792</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01526915454735473</v>
+        <v>0.01518069503502845</v>
       </c>
       <c r="L85" t="n">
-        <v>0.4987829836928807</v>
+        <v>0.720913466357079</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01375151922069153</v>
+        <v>0.01517468480572808</v>
       </c>
       <c r="N85" t="n">
-        <v>0.8225011850587279</v>
+        <v>0.1811492728525748</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01583256644271191</v>
+        <v>0.01521172403068515</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.04746007714564615</v>
+        <v>0.1848277274783589</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01466586148117804</v>
+        <v>0.01597231023221941</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2094204813103132</v>
+        <v>0.4608200875443507</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01603261227472247</v>
+        <v>0.01593972978677987</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5036936196746357</v>
+        <v>0.7372958465273605</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01443909518172611</v>
+        <v>0.01593341904601448</v>
       </c>
       <c r="N86" t="n">
-        <v>0.8337500900836227</v>
+        <v>0.1848277274783589</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01662419476484751</v>
+        <v>0.01597231023221941</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.04591318689903198</v>
+        <v>0.1883853209540482</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01536423583742461</v>
+        <v>0.01673289643375367</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2139499795391554</v>
+        <v>0.4678325738325579</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0167960700020902</v>
+        <v>0.0166987645385313</v>
       </c>
       <c r="L87" t="n">
-        <v>0.5096352095751361</v>
+        <v>0.7455980701878676</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01512667114276068</v>
+        <v>0.01669215328630089</v>
       </c>
       <c r="N87" t="n">
-        <v>0.8393530735934572</v>
+        <v>0.1883853209540482</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0174158230869831</v>
+        <v>0.01673289643375367</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.05031687386409442</v>
+        <v>0.1919239628821891</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01606261019367118</v>
+        <v>0.01749348263528793</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2164987227194571</v>
+        <v>0.4732494514253012</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01755952772945794</v>
+        <v>0.01745779929028272</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5173178699009009</v>
+        <v>0.7563289036392987</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01581424710379526</v>
+        <v>0.01745088752658729</v>
       </c>
       <c r="N88" t="n">
-        <v>0.8549299896169168</v>
+        <v>0.1919239628821891</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0182074514091187</v>
+        <v>0.01749348263528793</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04767382610748773</v>
+        <v>0.1948455628653285</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01676098454991775</v>
+        <v>0.01825406883682218</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2184692015905332</v>
+        <v>0.48047611355728</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01832298545682567</v>
+        <v>0.01821683404203414</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5239517171584487</v>
+        <v>0.7660971131823519</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01650182306482983</v>
+        <v>0.0182096217668737</v>
       </c>
       <c r="N89" t="n">
-        <v>0.8611006921826884</v>
+        <v>0.1948455628653285</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0189990797312543</v>
+        <v>0.01825406883682218</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04998673169586619</v>
+        <v>0.196752030506013</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01745935890616433</v>
+        <v>0.01901465503835644</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2211639068916989</v>
+        <v>0.4872179534631951</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01908644318419341</v>
+        <v>0.01897586879378556</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5300468678542979</v>
+        <v>0.7755114651177265</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01718939902586441</v>
+        <v>0.0189683560071601</v>
       </c>
       <c r="N90" t="n">
-        <v>0.8678850353194573</v>
+        <v>0.196752030506013</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01979070805338989</v>
+        <v>0.01901465503835644</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05225827869588412</v>
+        <v>0.1985452754067893</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0181577332624109</v>
+        <v>0.0197752412398907</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2242853293622699</v>
+        <v>0.4948803643777457</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01984990091156115</v>
+        <v>0.01973490354553699</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5361134384949674</v>
+        <v>0.7858807257461199</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01787697498689899</v>
+        <v>0.0197270902474465</v>
       </c>
       <c r="N91" t="n">
-        <v>0.8721028730559089</v>
+        <v>0.1985452754067893</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02058233637552549</v>
+        <v>0.0197752412398907</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04949115517419576</v>
+        <v>0.2029272071702042</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01885610761865747</v>
+        <v>0.02053582744142496</v>
       </c>
       <c r="J92" t="n">
-        <v>0.226235959741561</v>
+        <v>0.4994687395356323</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02061335863892888</v>
+        <v>0.02049393829728841</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5386615455869758</v>
+        <v>0.7912136613682307</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01856455094793356</v>
+        <v>0.02048582448773291</v>
       </c>
       <c r="N92" t="n">
-        <v>0.8804740594207289</v>
+        <v>0.2029272071702042</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02137396469766108</v>
+        <v>0.02053582744142496</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04868804919745551</v>
+        <v>0.2036997353988044</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01955448197490404</v>
+        <v>0.02129641364295921</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2274182887688876</v>
+        <v>0.5060884721715547</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02137681636629662</v>
+        <v>0.02125297304903983</v>
       </c>
       <c r="L93" t="n">
-        <v>0.5423013056368415</v>
+        <v>0.802819038284757</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01925212690896814</v>
+        <v>0.02124455872801931</v>
       </c>
       <c r="N93" t="n">
-        <v>0.8837184484426036</v>
+        <v>0.2036997353988044</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02216559301979668</v>
+        <v>0.02129641364295921</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05085164883231753</v>
+        <v>0.2058647696951365</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02025285633115062</v>
+        <v>0.02205699984449347</v>
       </c>
       <c r="J94" t="n">
-        <v>0.227634807183565</v>
+        <v>0.5089449555202126</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02214027409366436</v>
+        <v>0.02201200780079126</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5472428351510835</v>
+        <v>0.8147056227963979</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01993970287000272</v>
+        <v>0.02200329296830571</v>
       </c>
       <c r="N94" t="n">
-        <v>0.8914558941502185</v>
+        <v>0.2058647696951365</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02295722134193227</v>
+        <v>0.02205699984449347</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05098464214543623</v>
+        <v>0.2082242196617472</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02095123068739719</v>
+        <v>0.02281758604602773</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2291880057249084</v>
+        <v>0.5155435828163064</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02290373182103209</v>
+        <v>0.02277104255254268</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5514962506362202</v>
+        <v>0.821482181203851</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02062727883103729</v>
+        <v>0.02276202720859212</v>
       </c>
       <c r="N95" t="n">
-        <v>0.8884062505722586</v>
+        <v>0.2082242196617472</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02374884966406787</v>
+        <v>0.02281758604602773</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05308971720346582</v>
+        <v>0.2097799949011833</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02164960504364376</v>
+        <v>0.02357817224756199</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2289803751322331</v>
+        <v>0.521289747294536</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02366718954839983</v>
+        <v>0.0235300773042941</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5523716685987705</v>
+        <v>0.8273574798078153</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02131485479207187</v>
+        <v>0.02352076144887853</v>
       </c>
       <c r="N96" t="n">
-        <v>0.888989371737411</v>
+        <v>0.2097799949011833</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02454047798620346</v>
+        <v>0.02357817224756199</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05316956207306063</v>
+        <v>0.2135340050159915</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02234797939989034</v>
+        <v>0.02433875844909624</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2294144061448542</v>
+        <v>0.5225888421896012</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02443064727576756</v>
+        <v>0.02428911205604552</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5558792055452527</v>
+        <v>0.8326402849089881</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02200243075310645</v>
+        <v>0.02427949568916493</v>
       </c>
       <c r="N97" t="n">
-        <v>0.8948251206810433</v>
+        <v>0.2135340050159915</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02533210630833906</v>
+        <v>0.02433875844909624</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04822686482087493</v>
+        <v>0.2157881596087184</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02304635375613691</v>
+        <v>0.0250993446506305</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2305925895020871</v>
+        <v>0.5300462607362021</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0251941050031353</v>
+        <v>0.02504814680779694</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5610289779821857</v>
+        <v>0.8428393628080685</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02269000671414102</v>
+        <v>0.02503822992945133</v>
       </c>
       <c r="N98" t="n">
-        <v>0.890153860831956</v>
+        <v>0.2157881596087184</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02612373463047465</v>
+        <v>0.0250993446506305</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05326431351356306</v>
+        <v>0.2176443682819108</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02374472811238348</v>
+        <v>0.02585993085216476</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2294121546590978</v>
+        <v>0.5307673961690386</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02595756273050304</v>
+        <v>0.02580718155954837</v>
       </c>
       <c r="L99" t="n">
-        <v>0.559131102416088</v>
+        <v>0.850363479805755</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0233775826751756</v>
+        <v>0.02579696416973774</v>
       </c>
       <c r="N99" t="n">
-        <v>0.8877601631487771</v>
+        <v>0.2176443682819108</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02691536295261025</v>
+        <v>0.02585993085216476</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.05128459621777925</v>
+        <v>0.2178045406381153</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02444310246863006</v>
+        <v>0.02662051705369901</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2303790773304476</v>
+        <v>0.5367576417228106</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02672102045787077</v>
+        <v>0.02656621631129979</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5581956953534786</v>
+        <v>0.8546214022027457</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02406515863621017</v>
+        <v>0.02655569841002414</v>
       </c>
       <c r="N100" t="n">
-        <v>0.8926317914478611</v>
+        <v>0.2178045406381153</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02770699127474584</v>
+        <v>0.02662051705369901</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04829036733606382</v>
+        <v>0.2207705862798787</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02514147682487663</v>
+        <v>0.02738110325523328</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2290220612666529</v>
+        <v>0.5378223906322184</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02748447818523851</v>
+        <v>0.02732525106305121</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5636328733008757</v>
+        <v>0.863221896299739</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02475273459724475</v>
+        <v>0.02731443265031054</v>
       </c>
       <c r="N101" t="n">
-        <v>0.8907565095455631</v>
+        <v>0.2207705862798787</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02849861959688145</v>
+        <v>0.02738110325523328</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05126676251707676</v>
+        <v>0.2205444148097477</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0258398511811232</v>
+        <v>0.02814168945676753</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2276703282434641</v>
+        <v>0.5455670361319616</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02824793591260625</v>
+        <v>0.02808428581480264</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5629499843940543</v>
+        <v>0.8616737283974326</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02544031055827933</v>
+        <v>0.02807316689059695</v>
       </c>
       <c r="N102" t="n">
-        <v>0.8816220812582375</v>
+        <v>0.2205444148097477</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02929024791901704</v>
+        <v>0.02814168945676753</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05220246862408291</v>
+        <v>0.2231279358302689</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02653822553736978</v>
+        <v>0.02890227565830179</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2264531000366325</v>
+        <v>0.5447969714567401</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02901139363997398</v>
+        <v>0.02884332056655406</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5585827367260712</v>
+        <v>0.8705856647965259</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0261278865193139</v>
+        <v>0.02883190113088336</v>
       </c>
       <c r="N103" t="n">
-        <v>0.8839162704022397</v>
+        <v>0.2231279358302689</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03008187624115263</v>
+        <v>0.02890227565830179</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05310120513701254</v>
+        <v>0.2248230589439892</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02723659989361635</v>
+        <v>0.02966286185983605</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2273995984219088</v>
+        <v>0.5494175898412544</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02977485136734172</v>
+        <v>0.02960235531830548</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5605376615186302</v>
+        <v>0.8781664717977166</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02681546248034848</v>
+        <v>0.02959063537116976</v>
       </c>
       <c r="N104" t="n">
-        <v>0.8758268407939239</v>
+        <v>0.2248230589439892</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03087350456328823</v>
+        <v>0.02966286185983605</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05296669153579589</v>
+        <v>0.224231693753455</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02793497424986292</v>
+        <v>0.03042344806137031</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2255390451750437</v>
+        <v>0.5532342845202043</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03053830909470946</v>
+        <v>0.0303613900700569</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5574650418913873</v>
+        <v>0.8767249157017029</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02750303844138306</v>
+        <v>0.03034936961145616</v>
       </c>
       <c r="N105" t="n">
-        <v>0.8681415562496452</v>
+        <v>0.224231693753455</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03166513288542382</v>
+        <v>0.03042344806137031</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05180264730036323</v>
+        <v>0.2263557498612132</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0286333486061095</v>
+        <v>0.03118403426290456</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2249006620717884</v>
+        <v>0.5517524487282895</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03130176682207719</v>
+        <v>0.03112042482180833</v>
       </c>
       <c r="L106" t="n">
-        <v>0.5598151609639985</v>
+        <v>0.8826697628091836</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02819061440241763</v>
+        <v>0.03110810385174256</v>
       </c>
       <c r="N106" t="n">
-        <v>0.8657481805857586</v>
+        <v>0.2263557498612132</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03245676120755941</v>
+        <v>0.03118403426290456</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05161279191064481</v>
+        <v>0.2261971368698106</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02933172296235607</v>
+        <v>0.03194462046443882</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2234136708878934</v>
+        <v>0.5590774757002103</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03206522454944493</v>
+        <v>0.03187945957355975</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5538383018561195</v>
+        <v>0.8857097794208569</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02887819036345221</v>
+        <v>0.03186683809202897</v>
       </c>
       <c r="N107" t="n">
-        <v>0.8587344776186187</v>
+        <v>0.2261971368698106</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03324838952969502</v>
+        <v>0.03194462046443882</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0524008448465709</v>
+        <v>0.2283577643817937</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03003009731860264</v>
+        <v>0.03270520666597308</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2207072933991099</v>
+        <v>0.5580147586706661</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03282868227681266</v>
+        <v>0.03263849432531117</v>
       </c>
       <c r="L108" t="n">
-        <v>0.5517847476874065</v>
+        <v>0.8895537318374213</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02956576632448678</v>
+        <v>0.03262557233231538</v>
       </c>
       <c r="N108" t="n">
-        <v>0.8612882111645804</v>
+        <v>0.2283577643817937</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03404001785183061</v>
+        <v>0.03270520666597308</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05217052558807174</v>
+        <v>0.2292395419997093</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03072847167484921</v>
+        <v>0.03346579286750734</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2205107513811886</v>
+        <v>0.5584696908743576</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03359214000418041</v>
+        <v>0.03339752907706259</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5520047815775151</v>
+        <v>0.8949103863595745</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03025334228552136</v>
+        <v>0.03338430657260177</v>
       </c>
       <c r="N109" t="n">
-        <v>0.8569971450399986</v>
+        <v>0.2292395419997093</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0348316461739662</v>
+        <v>0.03346579286750734</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0519255536150776</v>
+        <v>0.229944379326104</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03142684603109579</v>
+        <v>0.03422637906904159</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2185532666098804</v>
+        <v>0.5605476655459843</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03435559773154814</v>
+        <v>0.03415656382881402</v>
       </c>
       <c r="L110" t="n">
-        <v>0.5470486866461016</v>
+        <v>0.8976885092880155</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03094091824655594</v>
+        <v>0.03414304081288818</v>
       </c>
       <c r="N110" t="n">
-        <v>0.8522490430612276</v>
+        <v>0.229944379326104</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0356232744961018</v>
+        <v>0.03422637906904159</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04966964840751874</v>
+        <v>0.2317741859635247</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03212522038734236</v>
+        <v>0.03498696527057586</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2185640608609363</v>
+        <v>0.5663540759202464</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03511905545891587</v>
+        <v>0.03491559858056544</v>
       </c>
       <c r="L111" t="n">
-        <v>0.5478667460128217</v>
+        <v>0.8992968669234426</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03162849420759051</v>
+        <v>0.03490177505317459</v>
       </c>
       <c r="N111" t="n">
-        <v>0.8425316690446228</v>
+        <v>0.2317741859635247</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03641490281823739</v>
+        <v>0.03498696527057586</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04840652944532541</v>
+        <v>0.2304308715145179</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03282359474358893</v>
+        <v>0.03574755147211011</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2176723559101069</v>
+        <v>0.563194315231844</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03588251318628361</v>
+        <v>0.03567463333231686</v>
       </c>
       <c r="L112" t="n">
-        <v>0.5399092427973314</v>
+        <v>0.8996442255665541</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03231607016862509</v>
+        <v>0.03566050929346099</v>
       </c>
       <c r="N112" t="n">
-        <v>0.8393327868065391</v>
+        <v>0.2304308715145179</v>
       </c>
       <c r="O112" t="n">
-        <v>0.037206531140373</v>
+        <v>0.03574755147211011</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05013991620842788</v>
+        <v>0.2309163455816304</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03352196909983551</v>
+        <v>0.03650813767364437</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2153073735331432</v>
+        <v>0.5685737767154767</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03664597091365135</v>
+        <v>0.03643366808406828</v>
       </c>
       <c r="L113" t="n">
-        <v>0.5422264601192865</v>
+        <v>0.9064393515180474</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03300364612965967</v>
+        <v>0.03641924353374739</v>
       </c>
       <c r="N113" t="n">
-        <v>0.8316401601633309</v>
+        <v>0.2309163455816304</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03799815946250859</v>
+        <v>0.03650813767364437</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04587352817675638</v>
+        <v>0.2323325177674089</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03422034345608208</v>
+        <v>0.03726872387517863</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2155983355057962</v>
+        <v>0.5708978536058447</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03740942864101909</v>
+        <v>0.03719270283581971</v>
       </c>
       <c r="L114" t="n">
-        <v>0.5346686810983431</v>
+        <v>0.9021910110786225</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03369122209069424</v>
+        <v>0.0371779777740338</v>
       </c>
       <c r="N114" t="n">
-        <v>0.8294415529313529</v>
+        <v>0.2323325177674089</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03878978778464418</v>
+        <v>0.03726872387517863</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04761108483024122</v>
+        <v>0.2331812976744001</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03491871781232865</v>
+        <v>0.03802931007671288</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2151744636038166</v>
+        <v>0.570071939137648</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03817288636838682</v>
+        <v>0.03795173758757113</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5356861888541572</v>
+        <v>0.9076079705489767</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03437879805172882</v>
+        <v>0.0379367120143202</v>
       </c>
       <c r="N115" t="n">
-        <v>0.8326247289269605</v>
+        <v>0.2331812976744001</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03958141610677978</v>
+        <v>0.03802931007671288</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0493563056488126</v>
+        <v>0.2343645949051507</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03561709216857523</v>
+        <v>0.03878989627824714</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2131649796029554</v>
+        <v>0.5706014265455862</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03893634409575455</v>
+        <v>0.03871077233932255</v>
       </c>
       <c r="L116" t="n">
-        <v>0.5312292665063844</v>
+        <v>0.9093989962298085</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0350663740127634</v>
+        <v>0.03869544625460661</v>
       </c>
       <c r="N116" t="n">
-        <v>0.828277451966508</v>
+        <v>0.2343645949051507</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04037304442891537</v>
+        <v>0.03878989627824714</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05011291011240084</v>
+        <v>0.2335843190622074</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0363154665248218</v>
+        <v>0.03955048247978139</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2131991052789633</v>
+        <v>0.5702917090643599</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03969980182312229</v>
+        <v>0.03946980709107397</v>
       </c>
       <c r="L117" t="n">
-        <v>0.528148197174681</v>
+        <v>0.9098728544218161</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03575394997379797</v>
+        <v>0.03945418049489301</v>
       </c>
       <c r="N117" t="n">
-        <v>0.8235874858663502</v>
+        <v>0.2335843190622074</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04116467275105098</v>
+        <v>0.03955048247978139</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04888461770093612</v>
+        <v>0.2342423797481168</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03701384088106837</v>
+        <v>0.04031106868131566</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2126420176087596</v>
+        <v>0.570648179928669</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04046325955049003</v>
+        <v>0.0402288418428254</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5252932639787026</v>
+        <v>0.9077383114256979</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03644152593483255</v>
+        <v>0.04021291473517941</v>
       </c>
       <c r="N118" t="n">
-        <v>0.8260358181213655</v>
+        <v>0.2342423797481168</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04195630107318657</v>
+        <v>0.04031106868131566</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04767514789434876</v>
+        <v>0.2350406865654258</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03771221523731495</v>
+        <v>0.04107165488284991</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2143996472331252</v>
+        <v>0.5709762323732127</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04122671727785777</v>
+        <v>0.04098787659457682</v>
       </c>
       <c r="L119" t="n">
-        <v>0.5267147500381053</v>
+        <v>0.9135041335421527</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03712910189586713</v>
+        <v>0.04097164897546582</v>
       </c>
       <c r="N119" t="n">
-        <v>0.8236949261335639</v>
+        <v>0.2350406865654258</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04274792939532216</v>
+        <v>0.04107165488284991</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04748822017256901</v>
+        <v>0.235181149116681</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03841058959356152</v>
+        <v>0.04183224108438417</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2147635729827582</v>
+        <v>0.5703812596326916</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04199017500522551</v>
+        <v>0.04174691134632824</v>
       </c>
       <c r="L120" t="n">
-        <v>0.5206629384725451</v>
+        <v>0.9100790870718783</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0378166778569017</v>
+        <v>0.04173038321575222</v>
       </c>
       <c r="N120" t="n">
-        <v>0.8285506488865823</v>
+        <v>0.235181149116681</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04353955771745776</v>
+        <v>0.04183224108438417</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04932755401552712</v>
+        <v>0.2353963433838177</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03910896394980809</v>
+        <v>0.04259282728591843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2145265855827386</v>
+        <v>0.5749458496715771</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04275363273259324</v>
+        <v>0.04250594609807967</v>
       </c>
       <c r="L121" t="n">
-        <v>0.5199881124016779</v>
+        <v>0.9144953559593366</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03850425381793628</v>
+        <v>0.04248911745603862</v>
       </c>
       <c r="N121" t="n">
-        <v>0.8319565353152473</v>
+        <v>0.2353963433838177</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04433118603959335</v>
+        <v>0.04259282728591843</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04619686890315335</v>
+        <v>0.2339961798312168</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03980733830605467</v>
+        <v>0.04335341348745268</v>
       </c>
       <c r="J122" t="n">
-        <v>0.214381475758146</v>
+        <v>0.5748438115352551</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04351709045996097</v>
+        <v>0.04326498084983109</v>
       </c>
       <c r="L122" t="n">
-        <v>0.5213405549451594</v>
+        <v>0.9113914535739361</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03919182977897086</v>
+        <v>0.04324785169632503</v>
       </c>
       <c r="N122" t="n">
-        <v>0.8367661343543856</v>
+        <v>0.2339961798312168</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04512281436172895</v>
+        <v>0.04335341348745268</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04509988431537794</v>
+        <v>0.2339807904122297</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04050571266230124</v>
+        <v>0.04411399968898694</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2157210342340601</v>
+        <v>0.5700835938869241</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04428054818732871</v>
+        <v>0.04402401560158251</v>
       </c>
       <c r="L123" t="n">
-        <v>0.5186705492226458</v>
+        <v>0.910540565926753</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03987940574000543</v>
+        <v>0.04400658593661143</v>
       </c>
       <c r="N123" t="n">
-        <v>0.8346329949388248</v>
+        <v>0.2339807904122297</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04591444268386455</v>
+        <v>0.04411399968898694</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04404031973213116</v>
+        <v>0.2334295319406733</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04120408701854781</v>
+        <v>0.0448745858905212</v>
       </c>
       <c r="J124" t="n">
-        <v>0.215238051735561</v>
+        <v>0.5705381021400068</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04504400591469645</v>
+        <v>0.04478305035333394</v>
       </c>
       <c r="L124" t="n">
-        <v>0.5221343644014037</v>
+        <v>0.913814756422538</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04056698170104001</v>
+        <v>0.04476532017689784</v>
       </c>
       <c r="N124" t="n">
-        <v>0.8375106660033907</v>
+        <v>0.2334295319406733</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04670607100600014</v>
+        <v>0.0448745858905212</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04602185530491686</v>
+        <v>0.2342438730017308</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04190246137479438</v>
+        <v>0.04563517209205546</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2166253189877282</v>
+        <v>0.5685160617418437</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04580746364206419</v>
+        <v>0.04554208510508536</v>
       </c>
       <c r="L125" t="n">
-        <v>0.5235443897416957</v>
+        <v>0.9083214587648393</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04125455766207459</v>
+        <v>0.04552405441718424</v>
       </c>
       <c r="N125" t="n">
-        <v>0.8438526964829117</v>
+        <v>0.2342438730017308</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04749769932813573</v>
+        <v>0.04563517209205546</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04403930952853875</v>
+        <v>0.2338252355012354</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04260083573104095</v>
+        <v>0.04639575829358972</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2177756267156415</v>
+        <v>0.5732279253269644</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04657092136943192</v>
+        <v>0.04630111985683678</v>
       </c>
       <c r="L126" t="n">
-        <v>0.5186802604308997</v>
+        <v>0.9077685562732581</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04194213362310916</v>
+        <v>0.04628278865747065</v>
       </c>
       <c r="N126" t="n">
-        <v>0.8494126353122134</v>
+        <v>0.2338252355012354</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04828932765027133</v>
+        <v>0.04639575829358972</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04608575755767982</v>
+        <v>0.2341750413450208</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04329921008728753</v>
+        <v>0.04715634449512397</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2173817656443809</v>
+        <v>0.5724841455298982</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04733437909679966</v>
+        <v>0.0470601546085882</v>
       </c>
       <c r="L127" t="n">
-        <v>0.5206281439462632</v>
+        <v>0.909263932267396</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04262970958414374</v>
+        <v>0.04704152289775705</v>
       </c>
       <c r="N127" t="n">
-        <v>0.8499440314261234</v>
+        <v>0.2341750413450208</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04908095597240693</v>
+        <v>0.04715634449512397</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04415934705822093</v>
+        <v>0.2325947124389204</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0439975844435341</v>
+        <v>0.04791693069665823</v>
       </c>
       <c r="J128" t="n">
-        <v>0.219036526499026</v>
+        <v>0.5688951749851748</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04809783682416739</v>
+        <v>0.04781918936033962</v>
       </c>
       <c r="L128" t="n">
-        <v>0.5206742077650343</v>
+        <v>0.9098154700668543</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04331728554517831</v>
+        <v>0.04780025713804346</v>
       </c>
       <c r="N128" t="n">
-        <v>0.8563004337594681</v>
+        <v>0.2325947124389204</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04987258429454253</v>
+        <v>0.04791693069665823</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04825822569604293</v>
+        <v>0.2328856706887678</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04469595879978067</v>
+        <v>0.04867751689819249</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2188327000046565</v>
+        <v>0.5672714663273236</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04886129455153513</v>
+        <v>0.04857822411209105</v>
       </c>
       <c r="L129" t="n">
-        <v>0.5214046193644606</v>
+        <v>0.9074310529912341</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04400486150621289</v>
+        <v>0.04855899137832986</v>
       </c>
       <c r="N129" t="n">
-        <v>0.8583353912470745</v>
+        <v>0.2328856706887678</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05066421261667812</v>
+        <v>0.04867751689819249</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04538054113702671</v>
+        <v>0.2334493380003964</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04539433315602725</v>
+        <v>0.04943810309972674</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2211630768863524</v>
+        <v>0.5670234721908742</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04962475227890287</v>
+        <v>0.04933725886384247</v>
       </c>
       <c r="L130" t="n">
-        <v>0.5249055462217899</v>
+        <v>0.9019185643601372</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04469243746724747</v>
+        <v>0.04931772561861626</v>
       </c>
       <c r="N130" t="n">
-        <v>0.8665024528237696</v>
+        <v>0.2334493380003964</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05145584093881371</v>
+        <v>0.04943810309972674</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04952444104705314</v>
+        <v>0.2322871362796399</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04609270751227382</v>
+        <v>0.05019868930126101</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2228204478691935</v>
+        <v>0.5680616452103561</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0503882100062706</v>
+        <v>0.05009629361559389</v>
       </c>
       <c r="L131" t="n">
-        <v>0.5281631558142698</v>
+        <v>0.9074858874931645</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04538001342828204</v>
+        <v>0.05007645985890266</v>
       </c>
       <c r="N131" t="n">
-        <v>0.8686551674243804</v>
+        <v>0.2322871362796399</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05224746926094931</v>
+        <v>0.05019868930126101</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04568807309200308</v>
+        <v>0.2317004874323317</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04679108186852039</v>
+        <v>0.05095927550279526</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2232976036782593</v>
+        <v>0.5650964380202985</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05115166773363834</v>
+        <v>0.05085532836734532</v>
       </c>
       <c r="L132" t="n">
-        <v>0.5274636156191481</v>
+        <v>0.9052409057099172</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04606758938931662</v>
+        <v>0.05083519409918907</v>
       </c>
       <c r="N132" t="n">
-        <v>0.8747470839837336</v>
+        <v>0.2317004874323317</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05303909758308491</v>
+        <v>0.05095927550279526</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04686958493775742</v>
+        <v>0.2323908133643053</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04748945622476697</v>
+        <v>0.05171986170432952</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2229873350386298</v>
+        <v>0.5620383032552311</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05191512546100607</v>
+        <v>0.05161436311909674</v>
       </c>
       <c r="L133" t="n">
-        <v>0.5330930931136726</v>
+        <v>0.9006915023299974</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0467551653503512</v>
+        <v>0.05159392833947547</v>
       </c>
       <c r="N133" t="n">
-        <v>0.8801317514366561</v>
+        <v>0.2323908133643053</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05383072590522051</v>
+        <v>0.05171986170432952</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05006712425019702</v>
+        <v>0.2313595359813942</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04818783058101354</v>
+        <v>0.05248044790586377</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2252824326753848</v>
+        <v>0.5625976935496833</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05267858318837382</v>
+        <v>0.05237339787084816</v>
       </c>
       <c r="L134" t="n">
-        <v>0.5294377557750912</v>
+        <v>0.8966455606730056</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04744274131138577</v>
+        <v>0.05235266257976188</v>
       </c>
       <c r="N134" t="n">
-        <v>0.8783627187179749</v>
+        <v>0.2313595359813942</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0546223542273561</v>
+        <v>0.05248044790586377</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04527883869520276</v>
+        <v>0.2311080771894322</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04888620493726011</v>
+        <v>0.05324103410739803</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2253756873136039</v>
+        <v>0.5620850615381847</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05344204091574154</v>
+        <v>0.05313243262259958</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5359837710806513</v>
+        <v>0.897810964058544</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04813031727242035</v>
+        <v>0.05311139682004828</v>
       </c>
       <c r="N135" t="n">
-        <v>0.8835935347625165</v>
+        <v>0.2311080771894322</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05541398254949169</v>
+        <v>0.05324103410739803</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04750287593865553</v>
+        <v>0.2306378588942523</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04958457929350669</v>
+        <v>0.05400162030893229</v>
       </c>
       <c r="J136" t="n">
-        <v>0.226059889678367</v>
+        <v>0.5595108598552648</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05420549864310929</v>
+        <v>0.053891467374351</v>
       </c>
       <c r="L136" t="n">
-        <v>0.537417306507601</v>
+        <v>0.8989955958062127</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04881789323345492</v>
+        <v>0.05387013106033468</v>
       </c>
       <c r="N136" t="n">
-        <v>0.8877777485051083</v>
+        <v>0.2306378588942523</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05620561087162729</v>
+        <v>0.05400162030893229</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04573738364643615</v>
+        <v>0.2306503030016884</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05028295364975326</v>
+        <v>0.05476220651046655</v>
       </c>
       <c r="J137" t="n">
-        <v>0.227627830494754</v>
+        <v>0.5547855411354531</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05496895637047702</v>
+        <v>0.05465050212610242</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5408245295331877</v>
+        <v>0.8921073392356146</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0495054691944895</v>
+        <v>0.05462886530062109</v>
       </c>
       <c r="N137" t="n">
-        <v>0.8917689088805768</v>
+        <v>0.2306503030016884</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05699723919376289</v>
+        <v>0.05476220651046655</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04798050948442555</v>
+        <v>0.2305468314175739</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05098132800599983</v>
+        <v>0.0555227927120008</v>
       </c>
       <c r="J138" t="n">
-        <v>0.2285723004878445</v>
+        <v>0.5545195580132788</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05573241409784476</v>
+        <v>0.05540953687785385</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5403916076346594</v>
+        <v>0.8962540776663498</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05019304515552408</v>
+        <v>0.0553875995409075</v>
       </c>
       <c r="N138" t="n">
-        <v>0.8931205648237494</v>
+        <v>0.2305468314175739</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05778886751589848</v>
+        <v>0.0555227927120008</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04723040111850457</v>
+        <v>0.2297288660477422</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05167970236224641</v>
+        <v>0.05628337891353506</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2285860903827184</v>
+        <v>0.5545233631232719</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0564958718252125</v>
+        <v>0.05616857162960527</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5423047082892638</v>
+        <v>0.89194369441802</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05088062111655865</v>
+        <v>0.05614633378119389</v>
       </c>
       <c r="N139" t="n">
-        <v>0.9048862652694522</v>
+        <v>0.2297288660477422</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05858049583803408</v>
+        <v>0.05628337891353506</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04848520621455409</v>
+        <v>0.2302978287980271</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05237807671849298</v>
+        <v>0.05704396511506932</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2297619909044553</v>
+        <v>0.5512074090999615</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05725932955258023</v>
+        <v>0.05692760638135669</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5476499989742487</v>
+        <v>0.8893840728102268</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05156819707759323</v>
+        <v>0.0569050680214803</v>
       </c>
       <c r="N140" t="n">
-        <v>0.9060195591525125</v>
+        <v>0.2302978287980271</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05937212416016967</v>
+        <v>0.05704396511506932</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05174307243845498</v>
+        <v>0.2296551415742619</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05307645107473955</v>
+        <v>0.05780455131660358</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2316927927781352</v>
+        <v>0.5466821485778772</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05802278727994797</v>
+        <v>0.05768664113310812</v>
       </c>
       <c r="L141" t="n">
-        <v>0.5479136471668615</v>
+        <v>0.8865830961625715</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05225577303862781</v>
+        <v>0.05766380226176671</v>
       </c>
       <c r="N141" t="n">
-        <v>0.9080739954077576</v>
+        <v>0.2296551415742619</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06016375248230527</v>
+        <v>0.05780455131660358</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04900214745608811</v>
+        <v>0.2276022262822801</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05377482543098613</v>
+        <v>0.05856513751813783</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2312712867288378</v>
+        <v>0.5466580341915485</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0587862450073157</v>
+        <v>0.05844567588485954</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5495818203443504</v>
+        <v>0.886848647794655</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05294334899966238</v>
+        <v>0.05842253650205311</v>
       </c>
       <c r="N142" t="n">
-        <v>0.9144953559593366</v>
+        <v>0.2276022262822801</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06095538080444086</v>
+        <v>0.05856513751813783</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04926057893333434</v>
+        <v>0.2284405048279152</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0544731997872327</v>
+        <v>0.0593257237196721</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2322902634816429</v>
+        <v>0.5453455185755047</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05954970273468344</v>
+        <v>0.05920471063661096</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5517406859839631</v>
+        <v>0.8804886110260793</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05363092496069696</v>
+        <v>0.05918127074233952</v>
       </c>
       <c r="N143" t="n">
-        <v>0.9103305000369434</v>
+        <v>0.2284405048279152</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06174700912657646</v>
+        <v>0.0593257237196721</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05051651453607457</v>
+        <v>0.227671399117001</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05517157414347927</v>
+        <v>0.06008630992120635</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2324425137616302</v>
+        <v>0.5425550543642756</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06031316046205118</v>
+        <v>0.05996374538836239</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5528764115629472</v>
+        <v>0.8847108691764453</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05431850092173154</v>
+        <v>0.05994000498262592</v>
       </c>
       <c r="N144" t="n">
-        <v>0.9085074113880901</v>
+        <v>0.227671399117001</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06253863744871206</v>
+        <v>0.06008630992120635</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05076810193018967</v>
+        <v>0.2276963310553706</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05586994849972584</v>
+        <v>0.06084689612274061</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2353963433838177</v>
+        <v>0.5426970941923906</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06107661818941891</v>
+        <v>0.06072278014011381</v>
       </c>
       <c r="L145" t="n">
-        <v>0.5560751645585503</v>
+        <v>0.8759233055653545</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05500607688276611</v>
+        <v>0.06069873922291232</v>
       </c>
       <c r="N145" t="n">
-        <v>0.917785747152401</v>
+        <v>0.2276963310553706</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06333026577084765</v>
+        <v>0.06084689612274061</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05301348878156049</v>
+        <v>0.2268167225488579</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05656832285597241</v>
+        <v>0.06160748232427488</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2348396273508997</v>
+        <v>0.5381820906943792</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06184007591678665</v>
+        <v>0.06148181489186523</v>
       </c>
       <c r="L146" t="n">
-        <v>0.5610231124480204</v>
+        <v>0.8784338035124079</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05569365284380069</v>
+        <v>0.06145747346319873</v>
       </c>
       <c r="N146" t="n">
-        <v>0.9136614971623594</v>
+        <v>0.2268167225488579</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06412189409298324</v>
+        <v>0.06160748232427488</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04825082275606793</v>
+        <v>0.2255339955032961</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05726669721221899</v>
+        <v>0.06236806852580912</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2341643174370372</v>
+        <v>0.5389204965047708</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06260353364415439</v>
+        <v>0.06224084964361666</v>
       </c>
       <c r="L147" t="n">
-        <v>0.5582064227086051</v>
+        <v>0.8720502463372074</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05638122880483527</v>
+        <v>0.06221620770348513</v>
       </c>
       <c r="N147" t="n">
-        <v>0.9169306512504493</v>
+        <v>0.2255339955032961</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06491352241511883</v>
+        <v>0.06236806852580912</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05247825151959284</v>
+        <v>0.2259495718245189</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05796507156846556</v>
+        <v>0.06312865472734339</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2347976345261691</v>
+        <v>0.5398227642580948</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06336699137152213</v>
+        <v>0.06299988439536808</v>
       </c>
       <c r="L148" t="n">
-        <v>0.5608112628175523</v>
+        <v>0.8718805173593539</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05706880476586984</v>
+        <v>0.06297494194377154</v>
       </c>
       <c r="N148" t="n">
-        <v>0.925189199249154</v>
+        <v>0.2259495718245189</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06570515073725444</v>
+        <v>0.06312865472734339</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05369392273801611</v>
+        <v>0.2247648734183597</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05866344592471214</v>
+        <v>0.06388924092887764</v>
       </c>
       <c r="J149" t="n">
-        <v>0.235836952428422</v>
+        <v>0.5345993465888809</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06413044909888986</v>
+        <v>0.06375891914711949</v>
       </c>
       <c r="L149" t="n">
-        <v>0.5637238002521097</v>
+        <v>0.8741324998984487</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05775638072690442</v>
+        <v>0.06373367618405794</v>
       </c>
       <c r="N149" t="n">
-        <v>0.9236331309909575</v>
+        <v>0.2247648734183597</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06649677905939004</v>
+        <v>0.06388924092887764</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04889598407721857</v>
+        <v>0.2252813221906521</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05936182028095871</v>
+        <v>0.0646498271304119</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2378796449539217</v>
+        <v>0.5321606961316585</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06489390682625759</v>
+        <v>0.06451795389887093</v>
       </c>
       <c r="L150" t="n">
-        <v>0.5673302024895249</v>
+        <v>0.8654140772740936</v>
       </c>
       <c r="M150" t="n">
-        <v>0.058443956687939</v>
+        <v>0.06449241042434434</v>
       </c>
       <c r="N150" t="n">
-        <v>0.9286584363083435</v>
+        <v>0.2252813221906521</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06728840738152563</v>
+        <v>0.0646498271304119</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05408258320308115</v>
+        <v>0.2252003400472296</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06006019463720528</v>
+        <v>0.06541041333194615</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2366230859127946</v>
+        <v>0.5351172655209573</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06565736455362532</v>
+        <v>0.06527698865062234</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5658166370070458</v>
+        <v>0.8704331328058897</v>
       </c>
       <c r="M151" t="n">
-        <v>0.05913153264897357</v>
+        <v>0.06525114466463075</v>
       </c>
       <c r="N151" t="n">
-        <v>0.9269611050337957</v>
+        <v>0.2252003400472296</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06808003570366122</v>
+        <v>0.06541041333194615</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05125186778148469</v>
+        <v>0.2228233488939257</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06075856899345186</v>
+        <v>0.06617099953348041</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2385646491151669</v>
+        <v>0.5304795073913063</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06642082228099307</v>
+        <v>0.06603602340237376</v>
       </c>
       <c r="L152" t="n">
-        <v>0.5702692712819201</v>
+        <v>0.8662975498134385</v>
       </c>
       <c r="M152" t="n">
-        <v>0.05981910861000815</v>
+        <v>0.06600987890491715</v>
       </c>
       <c r="N152" t="n">
-        <v>0.9275371269997975</v>
+        <v>0.2228233488939257</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06887166402579681</v>
+        <v>0.06617099953348041</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05437656351844131</v>
+        <v>0.2228517706365739</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06145694334969843</v>
+        <v>0.06693158573501468</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2391017083711647</v>
+        <v>0.5304578743772353</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06718428000836081</v>
+        <v>0.06679505815412519</v>
       </c>
       <c r="L153" t="n">
-        <v>0.5703742727913955</v>
+        <v>0.862115211616341</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06050668457104273</v>
+        <v>0.06676861314520355</v>
       </c>
       <c r="N153" t="n">
-        <v>0.9283824920388332</v>
+        <v>0.2228517706365739</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06966329234793241</v>
+        <v>0.06693158573501468</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05254786150108036</v>
+        <v>0.2219870271810078</v>
       </c>
       <c r="G154" t="n">
-        <v>0.062155317705945</v>
+        <v>0.06769217193654893</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2391316374909143</v>
+        <v>0.5295611872050365</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06794773773572854</v>
+        <v>0.06755409290587662</v>
       </c>
       <c r="L154" t="n">
-        <v>0.5749458496715771</v>
+        <v>0.8585940015341985</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0611942605320773</v>
+        <v>0.06752734738548996</v>
       </c>
       <c r="N154" t="n">
-        <v>0.9346931899833856</v>
+        <v>0.2219870271810078</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07045492067006802</v>
+        <v>0.06769217193654893</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05069576726984037</v>
+        <v>0.2216305404330608</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06285369206219157</v>
+        <v>0.06845275813808319</v>
       </c>
       <c r="J155" t="n">
-        <v>0.2385518102845418</v>
+        <v>0.5278418198757576</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06871119546309627</v>
+        <v>0.06831312765762804</v>
       </c>
       <c r="L155" t="n">
-        <v>0.5722483331171678</v>
+        <v>0.8582418028866127</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06188183649311188</v>
+        <v>0.06828608162577636</v>
       </c>
       <c r="N155" t="n">
-        <v>0.9378652106659392</v>
+        <v>0.2216305404330608</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0712465489922036</v>
+        <v>0.06845275813808319</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05084569762285364</v>
+        <v>0.2229837322985664</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06355206641843815</v>
+        <v>0.06921334433961744</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2410596005621735</v>
+        <v>0.5296712470064247</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06947465319046402</v>
+        <v>0.06907216240937945</v>
       </c>
       <c r="L156" t="n">
-        <v>0.5740866678529842</v>
+        <v>0.854458458880443</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06256941245414645</v>
+        <v>0.06904481586606277</v>
       </c>
       <c r="N156" t="n">
-        <v>0.934794543918977</v>
+        <v>0.2229837322985664</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0720381773143392</v>
+        <v>0.06921334433961744</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05099726746115604</v>
+        <v>0.2210480246833582</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06425044077468471</v>
+        <v>0.06997393054115171</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2408523821339355</v>
+        <v>0.5269462178737875</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07023811091783175</v>
+        <v>0.06983119716113088</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5777343107397921</v>
+        <v>0.8533130189659194</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06325698841518103</v>
+        <v>0.06980355010634917</v>
       </c>
       <c r="N157" t="n">
-        <v>0.9397771795749837</v>
+        <v>0.2210480246833582</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07282980563647479</v>
+        <v>0.06997393054115171</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0521500916857834</v>
+        <v>0.2220248394932698</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0649488151309313</v>
+        <v>0.07073451674268595</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2412275288099541</v>
+        <v>0.5270634817545961</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07100156864519949</v>
+        <v>0.0705902319128823</v>
       </c>
       <c r="L158" t="n">
-        <v>0.5781889463555884</v>
+        <v>0.8522990692878404</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06394456437621561</v>
+        <v>0.07056228434663557</v>
       </c>
       <c r="N158" t="n">
-        <v>0.9408091074664421</v>
+        <v>0.2220248394932698</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07362143395861039</v>
+        <v>0.07073451674268595</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05530378519777154</v>
+        <v>0.2218080691182313</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06564718948717786</v>
+        <v>0.07149510294422022</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2412824144003555</v>
+        <v>0.5248197879256004</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07176502637256722</v>
+        <v>0.07134926666463372</v>
       </c>
       <c r="L159" t="n">
-        <v>0.5761482592783704</v>
+        <v>0.8477137926820887</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06463214033725018</v>
+        <v>0.07132101858692198</v>
       </c>
       <c r="N159" t="n">
-        <v>0.9364863174258363</v>
+        <v>0.2218080691182313</v>
       </c>
       <c r="O159" t="n">
-        <v>0.074413062280746</v>
+        <v>0.07149510294422022</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05345796289815634</v>
+        <v>0.2194878010070378</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06634556384342444</v>
+        <v>0.07225568914575448</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2411144127152657</v>
+        <v>0.5241118856635499</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07252848409993495</v>
+        <v>0.07210830141638515</v>
       </c>
       <c r="L160" t="n">
-        <v>0.5762099340861355</v>
+        <v>0.8467543719845473</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06531971629828476</v>
+        <v>0.07207975282720838</v>
       </c>
       <c r="N160" t="n">
-        <v>0.9435047992856497</v>
+        <v>0.2194878010070378</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07520469060288158</v>
+        <v>0.07225568914575448</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05361223968797363</v>
+        <v>0.2205638522609753</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06704393819967101</v>
+        <v>0.07301627534728873</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2433208975648111</v>
+        <v>0.5258365242451947</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0732919418273027</v>
+        <v>0.07286733616813656</v>
       </c>
       <c r="L161" t="n">
-        <v>0.5785716553568806</v>
+        <v>0.8521179900311001</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06600729225931934</v>
+        <v>0.07283848706749478</v>
       </c>
       <c r="N161" t="n">
-        <v>0.9415605428783665</v>
+        <v>0.2205638522609753</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07599631892501718</v>
+        <v>0.07301627534728873</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05276623046825922</v>
+        <v>0.220736103094459</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06774231255591759</v>
+        <v>0.07377686154882299</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2422992427591179</v>
+        <v>0.5245904529472847</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07405539955467043</v>
+        <v>0.073626370919888</v>
       </c>
       <c r="L162" t="n">
-        <v>0.5823311076686027</v>
+        <v>0.8457018296576296</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06669486822035391</v>
+        <v>0.07359722130778119</v>
       </c>
       <c r="N162" t="n">
-        <v>0.9477495380364699</v>
+        <v>0.220736103094459</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07678794724715277</v>
+        <v>0.07377686154882299</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05091955014004902</v>
+        <v>0.2199044337219038</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06844068691216415</v>
+        <v>0.07453744775035726</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2433468221083122</v>
+        <v>0.5214704210465696</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07481885728203817</v>
+        <v>0.07438540567163943</v>
       </c>
       <c r="L163" t="n">
-        <v>0.5822859755992995</v>
+        <v>0.8471030737000195</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06738244418138849</v>
+        <v>0.07435595554806759</v>
       </c>
       <c r="N163" t="n">
-        <v>0.9473677745924437</v>
+        <v>0.2199044337219038</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07757957556928836</v>
+        <v>0.07453744775035726</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05307181360437882</v>
+        <v>0.2177687243577249</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06913906126841074</v>
+        <v>0.0752980339518915</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2425610094225202</v>
+        <v>0.5227731778197996</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0755823150094059</v>
+        <v>0.07514444042339084</v>
       </c>
       <c r="L164" t="n">
-        <v>0.5841339437269678</v>
+        <v>0.8465189049941527</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06807002014242307</v>
+        <v>0.07511468978835401</v>
       </c>
       <c r="N164" t="n">
-        <v>0.943711242378772</v>
+        <v>0.2177687243577249</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07837120389142398</v>
+        <v>0.0752980339518915</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05422263576228446</v>
+        <v>0.2189288552163373</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0698374356246573</v>
+        <v>0.07605862015342577</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2428391785118682</v>
+        <v>0.518995472543724</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07634577273677363</v>
+        <v>0.07590347517514226</v>
       </c>
       <c r="L165" t="n">
-        <v>0.5853726966296044</v>
+        <v>0.8413465063759124</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06875759610345764</v>
+        <v>0.07587342402864039</v>
       </c>
       <c r="N165" t="n">
-        <v>0.9491759312279381</v>
+        <v>0.2189288552163373</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07916283221355956</v>
+        <v>0.07605862015342577</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05137163151480183</v>
+        <v>0.2172847065121559</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07053580998090388</v>
+        <v>0.07681920635496002</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2437787031864823</v>
+        <v>0.523634054495093</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07710923046414138</v>
+        <v>0.07666250992689369</v>
       </c>
       <c r="L166" t="n">
-        <v>0.5843999188852073</v>
+        <v>0.8449830606811811</v>
       </c>
       <c r="M166" t="n">
-        <v>0.06944517206449223</v>
+        <v>0.0766321582689268</v>
       </c>
       <c r="N166" t="n">
-        <v>0.9500578309724256</v>
+        <v>0.2172847065121559</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07995446053569516</v>
+        <v>0.07681920635496002</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05651841576296673</v>
+        <v>0.2169361584595956</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07123418433715045</v>
+        <v>0.07757979255649428</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2450769572564888</v>
+        <v>0.5224856729506564</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07787268819150911</v>
+        <v>0.07742154467864511</v>
       </c>
       <c r="L167" t="n">
-        <v>0.5882132950717731</v>
+        <v>0.8376257507458432</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0701327480255268</v>
+        <v>0.07739089250921322</v>
       </c>
       <c r="N167" t="n">
-        <v>0.9464529314447186</v>
+        <v>0.2169361584595956</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08074608885783074</v>
+        <v>0.07757979255649428</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05466260340781501</v>
+        <v>0.2157830912730717</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07193255869339703</v>
+        <v>0.07834037875802853</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2440313145320137</v>
+        <v>0.5223470771871641</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07863614591887685</v>
+        <v>0.07818057943039652</v>
       </c>
       <c r="L168" t="n">
-        <v>0.586910509767299</v>
+        <v>0.838571759405781</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07082032398656136</v>
+        <v>0.07814962674949961</v>
       </c>
       <c r="N168" t="n">
-        <v>0.9515572224773005</v>
+        <v>0.2157830912730717</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08153771717996634</v>
+        <v>0.07834037875802853</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05480380935038254</v>
+        <v>0.2167253851669991</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0726309330496436</v>
+        <v>0.07910096495956279</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2443391488231834</v>
+        <v>0.5220150164813659</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07939960364624458</v>
+        <v>0.07893961418214794</v>
       </c>
       <c r="L169" t="n">
-        <v>0.5887892475497821</v>
+        <v>0.8342182694968779</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07150789994759595</v>
+        <v>0.07890836098978601</v>
       </c>
       <c r="N169" t="n">
-        <v>0.9566666939026552</v>
+        <v>0.2167253851669991</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08232934550210196</v>
+        <v>0.07910096495956279</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05394164849170514</v>
+        <v>0.2149629203557929</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07332930740589017</v>
+        <v>0.07986155116109706</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2445978339401239</v>
+        <v>0.5189862401100117</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08016306137361232</v>
+        <v>0.07969864893389937</v>
       </c>
       <c r="L170" t="n">
-        <v>0.5915471929972199</v>
+        <v>0.8350624638550169</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07219547590863053</v>
+        <v>0.07966709523007243</v>
       </c>
       <c r="N170" t="n">
-        <v>0.9576773355532658</v>
+        <v>0.2149629203557929</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08312097382423754</v>
+        <v>0.07986155116109706</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05707573573281863</v>
+        <v>0.216095577053868</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07402768176213674</v>
+        <v>0.08062213736263131</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2444037454140553</v>
+        <v>0.5171574973498512</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08092651910098006</v>
+        <v>0.0804576836856508</v>
       </c>
       <c r="L171" t="n">
-        <v>0.5934820306876094</v>
+        <v>0.8363015253160816</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07288305186966509</v>
+        <v>0.08042582947035883</v>
       </c>
       <c r="N171" t="n">
-        <v>0.9547851372616168</v>
+        <v>0.216095577053868</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08391260214637314</v>
+        <v>0.08062213736263131</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0562056859747589</v>
+        <v>0.2158232354756394</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07472605611838332</v>
+        <v>0.08138272356416557</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2435451474218438</v>
+        <v>0.5161255374776343</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08168997682834779</v>
+        <v>0.08121671843740222</v>
       </c>
       <c r="L172" t="n">
-        <v>0.5924914451989475</v>
+        <v>0.8316326367159547</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07357062783069968</v>
+        <v>0.08118456371064524</v>
       </c>
       <c r="N172" t="n">
-        <v>0.9522860888601917</v>
+        <v>0.2158232354756394</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08470423046850872</v>
+        <v>0.08138272356416557</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05633111411856176</v>
+        <v>0.2138457758355223</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07542443047462989</v>
+        <v>0.08214330976569982</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2443214984414011</v>
+        <v>0.514887109770111</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08245343455571554</v>
+        <v>0.08197575318915365</v>
       </c>
       <c r="L173" t="n">
-        <v>0.5933731211092315</v>
+        <v>0.8326529808905195</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07425820379173426</v>
+        <v>0.08194329795093164</v>
       </c>
       <c r="N173" t="n">
-        <v>0.950276180181474</v>
+        <v>0.2138457758355223</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08549585879064432</v>
+        <v>0.08214330976569982</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05245163506526307</v>
+        <v>0.2135630783479316</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07612280483087645</v>
+        <v>0.08290389596723409</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2446355539404155</v>
+        <v>0.5191389635040312</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08321689228308327</v>
+        <v>0.08273478794090507</v>
       </c>
       <c r="L174" t="n">
-        <v>0.5919247429964587</v>
+        <v>0.8283597406756592</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07494577975276882</v>
+        <v>0.08270203219121804</v>
       </c>
       <c r="N174" t="n">
-        <v>0.9541514010579474</v>
+        <v>0.2135630783479316</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08628748711277992</v>
+        <v>0.08290389596723409</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05456686371589868</v>
+        <v>0.2137750232272824</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07682117918712304</v>
+        <v>0.08366448216876833</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2432900693865758</v>
+        <v>0.5151778479561444</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08398035001045101</v>
+        <v>0.08349382269265648</v>
       </c>
       <c r="L175" t="n">
-        <v>0.5962439954386263</v>
+        <v>0.8256500989072569</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0756333557138034</v>
+        <v>0.08346076643150445</v>
       </c>
       <c r="N175" t="n">
-        <v>0.9585077413220958</v>
+        <v>0.2137750232272824</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08707911543491552</v>
+        <v>0.08366448216876833</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05767641497150441</v>
+        <v>0.2140814906879896</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0775195535433696</v>
+        <v>0.0844250683703026</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2435878002475702</v>
+        <v>0.5143005124032007</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08474380773781874</v>
+        <v>0.08425285744440791</v>
       </c>
       <c r="L176" t="n">
-        <v>0.594628563013731</v>
+        <v>0.8280212384211959</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07632093167483799</v>
+        <v>0.08421950067179085</v>
       </c>
       <c r="N176" t="n">
-        <v>0.9581277574562314</v>
+        <v>0.2140814906879896</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08787074375705112</v>
+        <v>0.0844250683703026</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0527799037331161</v>
+        <v>0.2122823609444683</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07821792789961618</v>
+        <v>0.08518565457183686</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2427315019910874</v>
+        <v>0.5162037061219501</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08550726546518647</v>
+        <v>0.08501189219615933</v>
       </c>
       <c r="L177" t="n">
-        <v>0.5969761302997706</v>
+        <v>0.8245703420533591</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07700850763587255</v>
+        <v>0.08497823491207725</v>
       </c>
       <c r="N177" t="n">
-        <v>0.955779640583868</v>
+        <v>0.2122823609444683</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0886623720791867</v>
+        <v>0.08518565457183686</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.05387694490176961</v>
+        <v>0.2125775142111335</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07891630225586276</v>
+        <v>0.08594624077337111</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2426239300848159</v>
+        <v>0.5123841783891422</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08627072319255422</v>
+        <v>0.08577092694791075</v>
       </c>
       <c r="L178" t="n">
-        <v>0.5998843818747418</v>
+        <v>0.8216945926396301</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07769608359690713</v>
+        <v>0.08573696915236366</v>
       </c>
       <c r="N178" t="n">
-        <v>0.9500504074307333</v>
+        <v>0.2125775142111335</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0894540004013223</v>
+        <v>0.08594624077337111</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0539671533785008</v>
+        <v>0.2109668307024002</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07961467661210933</v>
+        <v>0.08670682697490537</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2429678399964439</v>
+        <v>0.514938678481527</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08703418091992195</v>
+        <v>0.08652996169966218</v>
       </c>
       <c r="L179" t="n">
-        <v>0.597151002316642</v>
+        <v>0.8199911730158919</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07838365955794172</v>
+        <v>0.08649570339265006</v>
       </c>
       <c r="N179" t="n">
-        <v>0.9527784577923629</v>
+        <v>0.2109668307024002</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0902456287234579</v>
+        <v>0.08670682697490537</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05505014406434547</v>
+        <v>0.2115501906326836</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08031305096835589</v>
+        <v>0.08746741317643963</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2424659871936602</v>
+        <v>0.5134639556758541</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08779763864728969</v>
+        <v>0.08728899645141359</v>
       </c>
       <c r="L180" t="n">
-        <v>0.5987736762034681</v>
+        <v>0.8164572660180268</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07907123551897628</v>
+        <v>0.08725443763293646</v>
       </c>
       <c r="N180" t="n">
-        <v>0.946202191464293</v>
+        <v>0.2115501906326836</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0910372570455935</v>
+        <v>0.08746741317643963</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0561255318603395</v>
+        <v>0.2116274742163984</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08101142532460248</v>
+        <v>0.08822799937797388</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2419211271441531</v>
+        <v>0.5094567592488737</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08856109637465742</v>
+        <v>0.08804803120316503</v>
       </c>
       <c r="L181" t="n">
-        <v>0.6000500881132176</v>
+        <v>0.8221900544819191</v>
       </c>
       <c r="M181" t="n">
-        <v>0.07975881148001086</v>
+        <v>0.08801317187322286</v>
       </c>
       <c r="N181" t="n">
-        <v>0.9437600082420586</v>
+        <v>0.2116274742163984</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0918288853677291</v>
+        <v>0.08822799937797388</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0571929316675187</v>
+        <v>0.2089985616679599</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08170979968084904</v>
+        <v>0.08898858557950814</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2396360153156114</v>
+        <v>0.5134138384773352</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08932455410202515</v>
+        <v>0.08880706595491646</v>
       </c>
       <c r="L182" t="n">
-        <v>0.5975779226238874</v>
+        <v>0.8212867212434517</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08044638744104544</v>
+        <v>0.08877190611350927</v>
       </c>
       <c r="N182" t="n">
-        <v>0.9459903079211963</v>
+        <v>0.2089985616679599</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09262051368986468</v>
+        <v>0.08898858557950814</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.05625195838691895</v>
+        <v>0.2105633332017829</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08240817403709562</v>
+        <v>0.0897491717810424</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2392134071757231</v>
+        <v>0.5113319426379891</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0900880118293929</v>
+        <v>0.08956610070666787</v>
       </c>
       <c r="L183" t="n">
-        <v>0.6018548643134747</v>
+        <v>0.8137444491385074</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08113396340208001</v>
+        <v>0.08953064035379568</v>
       </c>
       <c r="N183" t="n">
-        <v>0.9446314902972414</v>
+        <v>0.2105633332017829</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09341214201200028</v>
+        <v>0.0897491717810424</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.05430222691957606</v>
+        <v>0.2084216690322827</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08310654839334219</v>
+        <v>0.09050975798257666</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2400560581921771</v>
+        <v>0.5086078210075847</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09085146955676064</v>
+        <v>0.09032513545841929</v>
       </c>
       <c r="L184" t="n">
-        <v>0.6006785977599766</v>
+        <v>0.81726042100297</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08182153936311459</v>
+        <v>0.09028937459408208</v>
       </c>
       <c r="N184" t="n">
-        <v>0.9335219551657298</v>
+        <v>0.2084216690322827</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09420377033413588</v>
+        <v>0.09050975798257666</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.05734335216652589</v>
+        <v>0.2078734493738741</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08380492274958877</v>
+        <v>0.09127034418411091</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2376667238326617</v>
+        <v>0.5109382228628722</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09161492728412837</v>
+        <v>0.09108417021017072</v>
       </c>
       <c r="L185" t="n">
-        <v>0.6030468075413904</v>
+        <v>0.8102318196727217</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08250911532414917</v>
+        <v>0.09104810883436848</v>
       </c>
       <c r="N185" t="n">
-        <v>0.9292001023221975</v>
+        <v>0.2078734493738741</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09499539865627146</v>
+        <v>0.09127034418411091</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.05637494902880427</v>
+        <v>0.2073185544409723</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08450329710583535</v>
+        <v>0.09203093038564517</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2371481595648655</v>
+        <v>0.5107198974806012</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0923783850114961</v>
+        <v>0.09184320496192214</v>
       </c>
       <c r="L186" t="n">
-        <v>0.6047571782357133</v>
+        <v>0.8060558279836464</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08319669128518375</v>
+        <v>0.09180684307465489</v>
       </c>
       <c r="N186" t="n">
-        <v>0.9335043315621799</v>
+        <v>0.2073185544409723</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09578702697840707</v>
+        <v>0.09203093038564517</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.05739663240744708</v>
+        <v>0.208456864447992</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08520167146208191</v>
+        <v>0.09279151658717943</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2375031208564769</v>
+        <v>0.5076495941375216</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09314184273886383</v>
+        <v>0.09260223971367355</v>
       </c>
       <c r="L187" t="n">
-        <v>0.6030073944209422</v>
+        <v>0.8114296287716271</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08388426724621832</v>
+        <v>0.09256557731494129</v>
       </c>
       <c r="N187" t="n">
-        <v>0.9200730426812135</v>
+        <v>0.208456864447992</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09657865530054266</v>
+        <v>0.09279151658717943</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0564080172034901</v>
+        <v>0.2064793465596538</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08590004581832848</v>
+        <v>0.09355210278871369</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2364343631751844</v>
+        <v>0.5035240621103836</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09390530046623158</v>
+        <v>0.09336127446542497</v>
       </c>
       <c r="L188" t="n">
-        <v>0.6039951406750745</v>
+        <v>0.8083504048725468</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0845718432072529</v>
+        <v>0.09332431155522769</v>
       </c>
       <c r="N188" t="n">
-        <v>0.9200446354748332</v>
+        <v>0.2064793465596538</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09737028362267826</v>
+        <v>0.09355210278871369</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0534047932694353</v>
+        <v>0.2071666643236934</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08659842017457506</v>
+        <v>0.09431268899024794</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2360446419886766</v>
+        <v>0.5051400506759365</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09466875819359932</v>
+        <v>0.0941203092171764</v>
       </c>
       <c r="L189" t="n">
-        <v>0.6059181015761074</v>
+        <v>0.8007153391222889</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08525941916828748</v>
+        <v>0.0940830457955141</v>
       </c>
       <c r="N189" t="n">
-        <v>0.9124575097385758</v>
+        <v>0.2071666643236934</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09816191194481386</v>
+        <v>0.09431268899024794</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.05335692704975439</v>
+        <v>0.2045202999005341</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08729679453082163</v>
+        <v>0.0950732751917822</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2335367127646418</v>
+        <v>0.5009943091109303</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09543221592096705</v>
+        <v>0.09487934396892783</v>
       </c>
       <c r="L190" t="n">
-        <v>0.6052739617020377</v>
+        <v>0.7999216143567364</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08594699512932205</v>
+        <v>0.0948417800358005</v>
       </c>
       <c r="N190" t="n">
-        <v>0.9090500652679759</v>
+        <v>0.2045202999005341</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09895354026694944</v>
+        <v>0.0950732751917822</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0532612552082025</v>
+        <v>0.2042425692489905</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0879951688870682</v>
+        <v>0.09583386139331647</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2340133309707687</v>
+        <v>0.5006835866921152</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09619567364833478</v>
+        <v>0.09563837872067925</v>
       </c>
       <c r="L191" t="n">
-        <v>0.6054604056308629</v>
+        <v>0.8017664134117725</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08663457109035662</v>
+        <v>0.09560051427608691</v>
       </c>
       <c r="N191" t="n">
-        <v>0.9075607018585706</v>
+        <v>0.2042425692489905</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09974516858908505</v>
+        <v>0.09583386139331647</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.05612150190799146</v>
+        <v>0.204935788327877</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08869354324331478</v>
+        <v>0.09659444759485071</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2322772520747455</v>
+        <v>0.5028003014209809</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09695913137570251</v>
+        <v>0.09639741347243068</v>
       </c>
       <c r="L192" t="n">
-        <v>0.6034587785710013</v>
+        <v>0.7938469191232803</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08732214705139121</v>
+        <v>0.0963592485163733</v>
       </c>
       <c r="N192" t="n">
-        <v>0.897727819305895</v>
+        <v>0.204935788327877</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1005367969112206</v>
+        <v>0.09659444759485071</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.05294139131233309</v>
+        <v>0.203002273096008</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08939191759956135</v>
+        <v>0.09735503379638498</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2321312315442611</v>
+        <v>0.4976937414764006</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09772258910307026</v>
+        <v>0.0971564482241821</v>
       </c>
       <c r="L193" t="n">
-        <v>0.6036142763896117</v>
+        <v>0.7993603143271432</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08800972301242578</v>
+        <v>0.09711798275665971</v>
       </c>
       <c r="N193" t="n">
-        <v>0.8930898174054848</v>
+        <v>0.203002273096008</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1013284252333562</v>
+        <v>0.09735503379638498</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.05272464758443925</v>
+        <v>0.2019443395121979</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09009029195580792</v>
+        <v>0.09811561999791923</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2305780248470036</v>
+        <v>0.496985376551304</v>
       </c>
       <c r="K194" t="n">
-        <v>0.098486046830438</v>
+        <v>0.09791548297593351</v>
       </c>
       <c r="L194" t="n">
-        <v>0.6012639351832383</v>
+        <v>0.7931037818592438</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08869729897346035</v>
+        <v>0.09787671699694613</v>
       </c>
       <c r="N194" t="n">
-        <v>0.8932850959528761</v>
+        <v>0.2019443395121979</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1021200535554918</v>
+        <v>0.09811561999791923</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.05547499488752171</v>
+        <v>0.2011643035352613</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0907886663120545</v>
+        <v>0.09887620619945349</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2305203874506618</v>
+        <v>0.492631418176191</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09924950455780573</v>
+        <v>0.09867451772768494</v>
       </c>
       <c r="L195" t="n">
-        <v>0.600138644317633</v>
+        <v>0.787174504555466</v>
       </c>
       <c r="M195" t="n">
-        <v>0.08938487493449494</v>
+        <v>0.09863545123723252</v>
       </c>
       <c r="N195" t="n">
-        <v>0.8810520547436044</v>
+        <v>0.2011643035352613</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1029116818776274</v>
+        <v>0.09887620619945349</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.05519615738479236</v>
+        <v>0.2018644811240124</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09148704066830107</v>
+        <v>0.09963679240098774</v>
       </c>
       <c r="J196" t="n">
-        <v>0.229061074822924</v>
+        <v>0.4912880778815611</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1000129622851735</v>
+        <v>0.09943355247943636</v>
       </c>
       <c r="L196" t="n">
-        <v>0.5994692931585477</v>
+        <v>0.7887696652516923</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09007245089552951</v>
+        <v>0.09939418547751892</v>
       </c>
       <c r="N196" t="n">
-        <v>0.883529093573206</v>
+        <v>0.2018644811240124</v>
       </c>
       <c r="O196" t="n">
-        <v>0.103703310199763</v>
+        <v>0.09963679240098774</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.052891859239463</v>
+        <v>0.2001471882372657</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09218541502454763</v>
+        <v>0.100397378602522</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2283028424314787</v>
+        <v>0.4894115671979139</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1007764200125412</v>
+        <v>0.1001925872311878</v>
       </c>
       <c r="L197" t="n">
-        <v>0.5981867710717342</v>
+        <v>0.7857864467838064</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09076002685656408</v>
+        <v>0.1001529197178053</v>
       </c>
       <c r="N197" t="n">
-        <v>0.8726546122372164</v>
+        <v>0.2001471882372657</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1044949385218986</v>
+        <v>0.100397378602522</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.05256582461474549</v>
+        <v>0.2001147408338357</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09288378938079422</v>
+        <v>0.1011579648040563</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2286484457440144</v>
+        <v>0.4858580976557492</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1015398777399089</v>
+        <v>0.1009516219829392</v>
       </c>
       <c r="L198" t="n">
-        <v>0.5975219674229445</v>
+        <v>0.7794220319876911</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09144760281759867</v>
+        <v>0.1009116539580917</v>
       </c>
       <c r="N198" t="n">
-        <v>0.8689670105311712</v>
+        <v>0.2001147408338357</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1052865668440342</v>
+        <v>0.1011579648040563</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.05522177767385164</v>
+        <v>0.1994694548725368</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09358216373704079</v>
+        <v>0.1019185510055905</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2272006402282197</v>
+        <v>0.4807838807855667</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1023033354672767</v>
+        <v>0.1017106567346906</v>
       </c>
       <c r="L199" t="n">
-        <v>0.5933057715779305</v>
+        <v>0.7772736036992297</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09213517877863324</v>
+        <v>0.1016703881983781</v>
       </c>
       <c r="N199" t="n">
-        <v>0.8659046882506064</v>
+        <v>0.1994694548725368</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1060781951661698</v>
+        <v>0.1019185510055905</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.05386344257999326</v>
+        <v>0.1985136463121833</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09428053809328736</v>
+        <v>0.1026791372071248</v>
       </c>
       <c r="J200" t="n">
-        <v>0.227362181351783</v>
+        <v>0.4729451281178656</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1030667931946444</v>
+        <v>0.1024696914864421</v>
       </c>
       <c r="L200" t="n">
-        <v>0.590269072902444</v>
+        <v>0.7740383447543052</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09282275473966781</v>
+        <v>0.1024291224386645</v>
       </c>
       <c r="N200" t="n">
-        <v>0.865506045191058</v>
+        <v>0.1985136463121833</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1068698234883054</v>
+        <v>0.1026791372071248</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.05149454349638222</v>
+        <v>0.1968496311115899</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09497891244953394</v>
+        <v>0.103439723408659</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2247358245823928</v>
+        <v>0.4716980511831462</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1038302509220121</v>
+        <v>0.1032287262381935</v>
       </c>
       <c r="L201" t="n">
-        <v>0.5862427607622368</v>
+        <v>0.7720072919786453</v>
       </c>
       <c r="M201" t="n">
-        <v>0.0935103307007024</v>
+        <v>0.1031878566789509</v>
       </c>
       <c r="N201" t="n">
-        <v>0.8585107089598266</v>
+        <v>0.1968496311115899</v>
       </c>
       <c r="O201" t="n">
-        <v>0.107661451810441</v>
+        <v>0.103439723408659</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.05211880458623031</v>
+        <v>0.1965797252295708</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09567728680578051</v>
+        <v>0.1042003096101933</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2239243253877377</v>
+        <v>0.4643988615119076</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1045937086493799</v>
+        <v>0.1039877609899449</v>
       </c>
       <c r="L202" t="n">
-        <v>0.5840577245230612</v>
+        <v>0.7717270324560305</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09419790666173697</v>
+        <v>0.1039465909192374</v>
       </c>
       <c r="N202" t="n">
-        <v>0.8569215498129258</v>
+        <v>0.1965797252295708</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1084530801325766</v>
+        <v>0.1042003096101933</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.05373995001274941</v>
+        <v>0.1951062446249406</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09637566116202709</v>
+        <v>0.1049608958117275</v>
       </c>
       <c r="J203" t="n">
-        <v>0.224930439235506</v>
+        <v>0.4598037706346499</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1053571663767476</v>
+        <v>0.1047467957416963</v>
       </c>
       <c r="L203" t="n">
-        <v>0.5803448535506684</v>
+        <v>0.7698402666650911</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09488548262277155</v>
+        <v>0.1047053251595238</v>
       </c>
       <c r="N203" t="n">
-        <v>0.8514313494714562</v>
+        <v>0.1951062446249406</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1092447084547122</v>
+        <v>0.1049608958117275</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.05336170393915131</v>
+        <v>0.1932315052565136</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09707403551827365</v>
+        <v>0.1057214820132618</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2235569215933863</v>
+        <v>0.4603689900818725</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1061206241041154</v>
+        <v>0.1055058304934477</v>
       </c>
       <c r="L204" t="n">
-        <v>0.579435037210811</v>
+        <v>0.7646897337221538</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09557305858380612</v>
+        <v>0.1054640593998101</v>
       </c>
       <c r="N204" t="n">
-        <v>0.8486400921678799</v>
+        <v>0.1932315052565136</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1100363367768478</v>
+        <v>0.1057214820132618</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.05198779052864784</v>
+        <v>0.1933578230831042</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09777240987452022</v>
+        <v>0.1064820682147961</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2218065279290671</v>
+        <v>0.4552507313840753</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1068840818314831</v>
+        <v>0.1062648652451992</v>
       </c>
       <c r="L205" t="n">
-        <v>0.5784591648692405</v>
+        <v>0.7531181727435455</v>
       </c>
       <c r="M205" t="n">
-        <v>0.0962606345448407</v>
+        <v>0.1062227936400966</v>
       </c>
       <c r="N205" t="n">
-        <v>0.8433477621346602</v>
+        <v>0.1933578230831042</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1108279650989834</v>
+        <v>0.1064820682147961</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.05262193394445086</v>
+        <v>0.1935875140635269</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0984707842307668</v>
+        <v>0.1072426544163303</v>
       </c>
       <c r="J206" t="n">
-        <v>0.222276730699406</v>
+        <v>0.4481052060717577</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1076475395588508</v>
+        <v>0.1070238999969506</v>
       </c>
       <c r="L206" t="n">
-        <v>0.5735481258917089</v>
+        <v>0.7527683228455947</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09694821050587528</v>
+        <v>0.106981527880383</v>
       </c>
       <c r="N206" t="n">
-        <v>0.8367543436042598</v>
+        <v>0.1935875140635269</v>
       </c>
       <c r="O206" t="n">
-        <v>0.111619593421119</v>
+        <v>0.1072426544163303</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0492678583497722</v>
+        <v>0.1910228941565961</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09916915858701338</v>
+        <v>0.1080032406178646</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2199452208104091</v>
+        <v>0.4468886256754195</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1084109972862186</v>
+        <v>0.107782934748702</v>
       </c>
       <c r="L207" t="n">
-        <v>0.5708328096439679</v>
+        <v>0.7377829231446271</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09763578646690985</v>
+        <v>0.1077402621206694</v>
       </c>
       <c r="N207" t="n">
-        <v>0.8378598208091411</v>
+        <v>0.1910228941565961</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1124112217432546</v>
+        <v>0.1080032406178646</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.04892928790782364</v>
+        <v>0.1916662793211263</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09986753294325994</v>
+        <v>0.1087638268193988</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2208091537968079</v>
+        <v>0.4398572017255603</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1091744550135863</v>
+        <v>0.1085419695004534</v>
       </c>
       <c r="L208" t="n">
-        <v>0.5689441054917698</v>
+        <v>0.7313047127569708</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09832336242794443</v>
+        <v>0.1084989963609558</v>
       </c>
       <c r="N208" t="n">
-        <v>0.8314641779817676</v>
+        <v>0.1916662793211263</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1132028500653902</v>
+        <v>0.1087638268193988</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.04760994678181707</v>
+        <v>0.1896199855159319</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1005659072995065</v>
+        <v>0.1095244130209331</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2195685247301523</v>
+        <v>0.4363671457526798</v>
       </c>
       <c r="K209" t="n">
-        <v>0.109937912740954</v>
+        <v>0.1093010042522048</v>
       </c>
       <c r="L209" t="n">
-        <v>0.5634129028008659</v>
+        <v>0.725176430798953</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09901093838897901</v>
+        <v>0.1092577306012422</v>
       </c>
       <c r="N209" t="n">
-        <v>0.8254673993546014</v>
+        <v>0.1896199855159319</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1139944783875258</v>
+        <v>0.1095244130209331</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.05231355913496429</v>
+        <v>0.1879863286998273</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1012642816557531</v>
+        <v>0.1102849992224674</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2189233286819915</v>
+        <v>0.4345746692872776</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1107013704683218</v>
+        <v>0.1100600390039563</v>
       </c>
       <c r="L210" t="n">
-        <v>0.5627700909370087</v>
+        <v>0.7220408163869003</v>
       </c>
       <c r="M210" t="n">
-        <v>0.09969851435001358</v>
+        <v>0.1100164648415286</v>
       </c>
       <c r="N210" t="n">
-        <v>0.8203694691601057</v>
+        <v>0.1879863286998273</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1147861067096614</v>
+        <v>0.1102849992224674</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.04904384913047714</v>
+        <v>0.188167624831627</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1019626560119997</v>
+        <v>0.1110455854240016</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2182735607238752</v>
+        <v>0.4348359838598533</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1114648281956895</v>
+        <v>0.1108190737557077</v>
       </c>
       <c r="L211" t="n">
-        <v>0.5596465592659498</v>
+        <v>0.7169406086371404</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1003860903110482</v>
+        <v>0.110775199081815</v>
       </c>
       <c r="N211" t="n">
-        <v>0.8155703716307429</v>
+        <v>0.188167624831627</v>
       </c>
       <c r="O211" t="n">
-        <v>0.115577735031797</v>
+        <v>0.1110455854240016</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.05180454093156746</v>
+        <v>0.1867661898701453</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1026610303682462</v>
+        <v>0.1118061716255359</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2181192159273528</v>
+        <v>0.4338073010009068</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1122282859230573</v>
+        <v>0.1115781085074591</v>
       </c>
       <c r="L212" t="n">
-        <v>0.5553731971534409</v>
+        <v>0.7101185466660006</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1010736662720827</v>
+        <v>0.1115339333221014</v>
       </c>
       <c r="N212" t="n">
-        <v>0.8182700909989756</v>
+        <v>0.1867661898701453</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1163693633539326</v>
+        <v>0.1118061716255359</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.04859935870144705</v>
+        <v>0.1864843397741967</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1033594047244928</v>
+        <v>0.1125667578270701</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2156602893639741</v>
+        <v>0.4327445759831785</v>
       </c>
       <c r="K213" t="n">
-        <v>0.112991743650425</v>
+        <v>0.1123371432592105</v>
       </c>
       <c r="L213" t="n">
-        <v>0.5496808939652342</v>
+        <v>0.6996173695898076</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1017612422331173</v>
+        <v>0.1122926675623878</v>
       </c>
       <c r="N213" t="n">
-        <v>0.8072686114972677</v>
+        <v>0.1864843397741967</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1171609916760682</v>
+        <v>0.1125667578270701</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.05143202660332777</v>
+        <v>0.1867243905025956</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1040577790807394</v>
+        <v>0.1133273440286044</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2161967761052884</v>
+        <v>0.4277748177040891</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1137552013777927</v>
+        <v>0.113096178010962</v>
       </c>
       <c r="L214" t="n">
-        <v>0.5482005390670815</v>
+        <v>0.6933798165248888</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1024488181941519</v>
+        <v>0.1130514018026742</v>
       </c>
       <c r="N214" t="n">
-        <v>0.8047659173580807</v>
+        <v>0.1867243905025956</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1179526199982038</v>
+        <v>0.1133273440286044</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.04630626880042142</v>
+        <v>0.1859886580141566</v>
       </c>
       <c r="G215" t="n">
-        <v>0.104756153436986</v>
+        <v>0.1140879302301386</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2140286712228454</v>
+        <v>0.4271220676526631</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1145186591051605</v>
+        <v>0.1138552127627134</v>
       </c>
       <c r="L215" t="n">
-        <v>0.5445630218247346</v>
+        <v>0.6972486265875718</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1031363941551865</v>
+        <v>0.1138101360429606</v>
       </c>
       <c r="N215" t="n">
-        <v>0.8014619928138776</v>
+        <v>0.1859886580141566</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1187442483203393</v>
+        <v>0.1140879302301386</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.04822580945593988</v>
+        <v>0.1853794582676939</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1054545277932325</v>
+        <v>0.1148485164316729</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2143559697881945</v>
+        <v>0.4263864145149507</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1152821168325282</v>
+        <v>0.1146142475144648</v>
       </c>
       <c r="L216" t="n">
-        <v>0.5475992316039455</v>
+        <v>0.6875665388941833</v>
       </c>
       <c r="M216" t="n">
-        <v>0.103823970116221</v>
+        <v>0.114568870283247</v>
       </c>
       <c r="N216" t="n">
-        <v>0.7989568220971218</v>
+        <v>0.1853794582676939</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1195358766424749</v>
+        <v>0.1148485164316729</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.04919437273309493</v>
+        <v>0.1848991072220221</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1061529021494791</v>
+        <v>0.1156091026332072</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2138786668728855</v>
+        <v>0.4239679469770029</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1160455745598959</v>
+        <v>0.1153732822662162</v>
       </c>
       <c r="L217" t="n">
-        <v>0.5451400577704661</v>
+        <v>0.6898762925610507</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1045115460772556</v>
+        <v>0.1153276045235334</v>
       </c>
       <c r="N217" t="n">
-        <v>0.7928503894402751</v>
+        <v>0.1848991072220221</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1203275049646105</v>
+        <v>0.1156091026332072</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05119408883466077</v>
+        <v>0.1839499208359555</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1068512765057257</v>
+        <v>0.1163696888347414</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2125967575484676</v>
+        <v>0.4280667537248698</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1168090322872637</v>
+        <v>0.1161323170179677</v>
       </c>
       <c r="L218" t="n">
-        <v>0.5443163896900483</v>
+        <v>0.6906385548423627</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1051991220382902</v>
+        <v>0.1160863387638198</v>
       </c>
       <c r="N218" t="n">
-        <v>0.7953426790758013</v>
+        <v>0.1839499208359555</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1211191332867461</v>
+        <v>0.1163696888347414</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.04919427300106942</v>
+        <v>0.1822342150683086</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1075496508619723</v>
+        <v>0.1171302750362757</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2118102368864906</v>
+        <v>0.4252829234446021</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1175724900146314</v>
+        <v>0.1168913517697191</v>
       </c>
       <c r="L219" t="n">
-        <v>0.5413591167284437</v>
+        <v>0.6867417536219657</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1058866979993248</v>
+        <v>0.1168450730041062</v>
       </c>
       <c r="N219" t="n">
-        <v>0.7874336752361625</v>
+        <v>0.1822342150683086</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1219107616088817</v>
+        <v>0.1171302750362757</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04819480180104467</v>
+        <v>0.1826543058778957</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1082480252182188</v>
+        <v>0.1178908612378099</v>
       </c>
       <c r="J220" t="n">
-        <v>0.210719099958504</v>
+        <v>0.42311654482225</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1183359477419991</v>
+        <v>0.1176503865214705</v>
       </c>
       <c r="L220" t="n">
-        <v>0.5393991282514045</v>
+        <v>0.6860761788322221</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1065742739603593</v>
+        <v>0.1176038072443926</v>
       </c>
       <c r="N220" t="n">
-        <v>0.7810233621538215</v>
+        <v>0.1826543058778957</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1227023899310173</v>
+        <v>0.1178908612378099</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.04819585732543581</v>
+        <v>0.1822125092235315</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1089463995744654</v>
+        <v>0.1186514474393442</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2090233418360573</v>
+        <v>0.4232677065438641</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1190994054693669</v>
+        <v>0.1184094212732219</v>
       </c>
       <c r="L221" t="n">
-        <v>0.5385265392896716</v>
+        <v>0.683341806764168</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1072618499213939</v>
+        <v>0.118362541484679</v>
       </c>
       <c r="N221" t="n">
-        <v>0.7754117240612416</v>
+        <v>0.1822125092235315</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1234940182531529</v>
+        <v>0.1186514474393442</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0481976216650921</v>
+        <v>0.1811111410640302</v>
       </c>
       <c r="G222" t="n">
-        <v>0.109644773930712</v>
+        <v>0.1194120336408784</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2087229575907</v>
+        <v>0.419636497295495</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1198628631967346</v>
+        <v>0.1191684560249734</v>
       </c>
       <c r="L222" t="n">
-        <v>0.5407266680525629</v>
+        <v>0.67843861370884</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1079494258824285</v>
+        <v>0.1191212757249654</v>
       </c>
       <c r="N222" t="n">
-        <v>0.7741987451908846</v>
+        <v>0.1811111410640302</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1242856465752885</v>
+        <v>0.1194120336408784</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.05020027691086286</v>
+        <v>0.1796525173582063</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1103431482869585</v>
+        <v>0.1201726198424127</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2083179422939818</v>
+        <v>0.4190230057631933</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1206263209241024</v>
+        <v>0.1199274907767248</v>
       </c>
       <c r="L223" t="n">
-        <v>0.5431271873616038</v>
+        <v>0.6829665759572739</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1086370018434631</v>
+        <v>0.1198800099652518</v>
       </c>
       <c r="N223" t="n">
-        <v>0.7703844097752145</v>
+        <v>0.1796525173582063</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1250772748974241</v>
+        <v>0.1201726198424127</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.04720400515359732</v>
+        <v>0.1800389540648743</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1110415226432051</v>
+        <v>0.120933206043947</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2087082910174523</v>
+        <v>0.4222273206330091</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1213897786514701</v>
+        <v>0.1206865255284762</v>
       </c>
       <c r="L224" t="n">
-        <v>0.5419283711736488</v>
+        <v>0.676725669800506</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1093245778044977</v>
+        <v>0.1206387442055382</v>
       </c>
       <c r="N224" t="n">
-        <v>0.7717687020466929</v>
+        <v>0.1800389540648743</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1258689032195597</v>
+        <v>0.120933206043947</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.04720898848414481</v>
+        <v>0.1807727671428485</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1117398969994517</v>
+        <v>0.1216937922454812</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2066939988326607</v>
+        <v>0.4224495305909929</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1221532363788378</v>
+        <v>0.1214455602802276</v>
       </c>
       <c r="L225" t="n">
-        <v>0.5389304934455518</v>
+        <v>0.6743158715295726</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1100121537655322</v>
+        <v>0.1213974784458246</v>
       </c>
       <c r="N225" t="n">
-        <v>0.764451606237783</v>
+        <v>0.1807727671428485</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1266605315416953</v>
+        <v>0.1216937922454812</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0512154089933546</v>
+        <v>0.1793562725509434</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1124382713556983</v>
+        <v>0.1224543784470155</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2070750608111568</v>
+        <v>0.4169897243231955</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1229166941062056</v>
+        <v>0.122204595031979</v>
       </c>
       <c r="L226" t="n">
-        <v>0.5393338281341667</v>
+        <v>0.6786371574355102</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1106997297265668</v>
+        <v>0.122156212686111</v>
       </c>
       <c r="N226" t="n">
-        <v>0.7608331065809478</v>
+        <v>0.1793562725509434</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1274521598638309</v>
+        <v>0.1224543784470155</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.04622344877207595</v>
+        <v>0.1787917862479735</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1131366457119448</v>
+        <v>0.1232149646485498</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2055514720244901</v>
+        <v>0.4174479905156671</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1236801518335733</v>
+        <v>0.1229636297837305</v>
       </c>
       <c r="L227" t="n">
-        <v>0.5407386491963481</v>
+        <v>0.6761895038093546</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1113873056876014</v>
+        <v>0.1229149469263975</v>
       </c>
       <c r="N227" t="n">
-        <v>0.75461318730865</v>
+        <v>0.1787917862479735</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1282437881859665</v>
+        <v>0.1232149646485498</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.04923328991115816</v>
+        <v>0.1788707073695786</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1138350200681914</v>
+        <v>0.123975550850084</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2043232275442102</v>
+        <v>0.4179244178544583</v>
       </c>
       <c r="K228" t="n">
-        <v>0.124443609560941</v>
+        <v>0.1237226645354819</v>
       </c>
       <c r="L228" t="n">
-        <v>0.5422452305889496</v>
+        <v>0.6729728869421421</v>
       </c>
       <c r="M228" t="n">
-        <v>0.112074881648636</v>
+        <v>0.1236736811666839</v>
       </c>
       <c r="N228" t="n">
-        <v>0.756191832653352</v>
+        <v>0.1788707073695786</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1290354165081021</v>
+        <v>0.123975550850084</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.04924511450145053</v>
+        <v>0.1782555554385772</v>
       </c>
       <c r="G229" t="n">
-        <v>0.114533394424438</v>
+        <v>0.1247361370516182</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2044903224418666</v>
+        <v>0.4148190950256199</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1252070672883088</v>
+        <v>0.1244816992872333</v>
       </c>
       <c r="L229" t="n">
-        <v>0.5421538462688255</v>
+        <v>0.6765872831249091</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1127624576096705</v>
+        <v>0.1244324154069703</v>
       </c>
       <c r="N229" t="n">
-        <v>0.7495690268475171</v>
+        <v>0.1782555554385772</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1298270448302377</v>
+        <v>0.1247361370516182</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.04625910463380231</v>
+        <v>0.1785431347041357</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1152317687806846</v>
+        <v>0.1254967232531525</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2030527517890088</v>
+        <v>0.4137321107152017</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1259705250156765</v>
+        <v>0.1252407340389847</v>
       </c>
       <c r="L230" t="n">
-        <v>0.5404647701928298</v>
+        <v>0.6740326686486918</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1134500335707051</v>
+        <v>0.1251911496472567</v>
       </c>
       <c r="N230" t="n">
-        <v>0.7468447541236075</v>
+        <v>0.1785431347041357</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1306186731523733</v>
+        <v>0.1254967232531525</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05027544239906281</v>
+        <v>0.1792336381893131</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1159301431369311</v>
+        <v>0.1262573094546868</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2021105106571863</v>
+        <v>0.4128635536092545</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1267339827430443</v>
+        <v>0.1259997687907362</v>
       </c>
       <c r="L231" t="n">
-        <v>0.5392782763178169</v>
+        <v>0.6698090198045261</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1141376095317397</v>
+        <v>0.1259498838875431</v>
       </c>
       <c r="N231" t="n">
-        <v>0.7445189987140862</v>
+        <v>0.1792336381893131</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1314103014745089</v>
+        <v>0.1262573094546868</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0512943098880813</v>
+        <v>0.1775272589171684</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1166285174931777</v>
+        <v>0.127017895656221</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1998635941179489</v>
+        <v>0.4141135123938289</v>
       </c>
       <c r="K232" t="n">
-        <v>0.127497440470412</v>
+        <v>0.1267588035424876</v>
       </c>
       <c r="L232" t="n">
-        <v>0.5391946386006405</v>
+        <v>0.6656163128834487</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1148251854927742</v>
+        <v>0.1267086181278295</v>
       </c>
       <c r="N232" t="n">
-        <v>0.7368917448514162</v>
+        <v>0.1775272589171684</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1322019297966445</v>
+        <v>0.127017895656221</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.04831588919170705</v>
+        <v>0.1777241899107605</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1173268918494243</v>
+        <v>0.1277784818577553</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1996119972428459</v>
+        <v>0.4170820757549752</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1282608981977797</v>
+        <v>0.127517838294239</v>
       </c>
       <c r="L233" t="n">
-        <v>0.543314130998155</v>
+        <v>0.6688545241764955</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1155127614538088</v>
+        <v>0.1274673523681159</v>
       </c>
       <c r="N233" t="n">
-        <v>0.73476297676806</v>
+        <v>0.1777241899107605</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1329935581187801</v>
+        <v>0.1277784818577553</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.04734036240078937</v>
+        <v>0.1777246241931484</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1180252662056708</v>
+        <v>0.1285390680592895</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1985557151034269</v>
+        <v>0.4137693323787441</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1290243559251475</v>
+        <v>0.1282768730459904</v>
       </c>
       <c r="L234" t="n">
-        <v>0.5418370274672143</v>
+        <v>0.6662236299747027</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1162003374148434</v>
+        <v>0.1282260866084023</v>
       </c>
       <c r="N234" t="n">
-        <v>0.7265326786964804</v>
+        <v>0.1777246241931484</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1337851864409157</v>
+        <v>0.1285390680592895</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.04636791160617754</v>
+        <v>0.1779287547873913</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1187236405619174</v>
+        <v>0.1292996542608238</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1972947427712415</v>
+        <v>0.4117753709511858</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1297878136525152</v>
+        <v>0.1290359077977419</v>
       </c>
       <c r="L235" t="n">
-        <v>0.5426636019646724</v>
+        <v>0.6706236065691067</v>
       </c>
       <c r="M235" t="n">
-        <v>0.116887913375878</v>
+        <v>0.1289848208486887</v>
       </c>
       <c r="N235" t="n">
-        <v>0.7247008348691403</v>
+        <v>0.1779287547873913</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1345768147630513</v>
+        <v>0.1292996542608238</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05039871889872082</v>
+        <v>0.177836774716548</v>
       </c>
       <c r="G236" t="n">
-        <v>0.119422014918164</v>
+        <v>0.1300602404623581</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1978290753178392</v>
+        <v>0.414700280158351</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1305512713798829</v>
+        <v>0.1297949425494933</v>
       </c>
       <c r="L236" t="n">
-        <v>0.5388941284473838</v>
+        <v>0.6652544302507437</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1175754893369126</v>
+        <v>0.1297435550889751</v>
       </c>
       <c r="N236" t="n">
-        <v>0.7231674295185023</v>
+        <v>0.177836774716548</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1353684430851868</v>
+        <v>0.1300602404623581</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.04743296636926851</v>
+        <v>0.1764488770036775</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1201203892744106</v>
+        <v>0.1308208266638923</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1955587078147696</v>
+        <v>0.4112441486862901</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1313147291072506</v>
+        <v>0.1305539773012447</v>
       </c>
       <c r="L237" t="n">
-        <v>0.5393288808722022</v>
+        <v>0.6660160773106496</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1182630652979471</v>
+        <v>0.1305022893292615</v>
       </c>
       <c r="N237" t="n">
-        <v>0.7140324468770293</v>
+        <v>0.1764488770036775</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1361600714073224</v>
+        <v>0.1308208266638923</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.04947083610866988</v>
+        <v>0.1769652546718389</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1208187636306571</v>
+        <v>0.1315814128654266</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1966836353335822</v>
+        <v>0.4106070652210535</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1320781868346184</v>
+        <v>0.1313130120529961</v>
       </c>
       <c r="L238" t="n">
-        <v>0.5426681331959818</v>
+        <v>0.6644085240398609</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1189506412589817</v>
+        <v>0.1312610235695479</v>
       </c>
       <c r="N238" t="n">
-        <v>0.7169958711771838</v>
+        <v>0.1769652546718389</v>
       </c>
       <c r="O238" t="n">
-        <v>0.136951699729458</v>
+        <v>0.1315814128654266</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.04751251020777424</v>
+        <v>0.1770861007440912</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1215171379869037</v>
+        <v>0.1323419990669608</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1948038529458266</v>
+        <v>0.4114891184486918</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1328416445619861</v>
+        <v>0.1320720468047475</v>
       </c>
       <c r="L239" t="n">
-        <v>0.5435121593755768</v>
+        <v>0.6676317467294141</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1196382172200163</v>
+        <v>0.1320197578098343</v>
       </c>
       <c r="N239" t="n">
-        <v>0.7072576866514289</v>
+        <v>0.1770861007440912</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1377433280515936</v>
+        <v>0.1323419990669608</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05155817075743084</v>
+        <v>0.1776116082434933</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1222155123431503</v>
+        <v>0.1331025852684951</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1936193557230523</v>
+        <v>0.4085903970552553</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1336051022893538</v>
+        <v>0.1328310815564989</v>
       </c>
       <c r="L240" t="n">
-        <v>0.5395612333678412</v>
+        <v>0.667085721670345</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1203257931810509</v>
+        <v>0.1327784920501207</v>
       </c>
       <c r="N240" t="n">
-        <v>0.7065178775322272</v>
+        <v>0.1776116082434933</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1385349563737292</v>
+        <v>0.1331025852684951</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.04660799984848898</v>
+        <v>0.1772419701931041</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1229138866993969</v>
+        <v>0.1338631714700294</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1925301387368088</v>
+        <v>0.4115109897267948</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1343685600167216</v>
+        <v>0.1335901163082504</v>
       </c>
       <c r="L241" t="n">
-        <v>0.5419156291296292</v>
+        <v>0.6655704251536899</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1210133691420855</v>
+        <v>0.1335372262904071</v>
       </c>
       <c r="N241" t="n">
-        <v>0.7040764280520413</v>
+        <v>0.1772419701931041</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1393265846958648</v>
+        <v>0.1338631714700294</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05166217957179794</v>
+        <v>0.1765773796159829</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1236122610556434</v>
+        <v>0.1346237576715636</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1911361970586457</v>
+        <v>0.4071509851493605</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1351320177440893</v>
+        <v>0.1343491510600018</v>
       </c>
       <c r="L242" t="n">
-        <v>0.5418756206177948</v>
+        <v>0.6600858334704849</v>
       </c>
       <c r="M242" t="n">
-        <v>0.12170094510312</v>
+        <v>0.1342959605306935</v>
       </c>
       <c r="N242" t="n">
-        <v>0.6998333224433342</v>
+        <v>0.1765773796159829</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1401182130180004</v>
+        <v>0.1346237576715636</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.04672089201820701</v>
+        <v>0.1762180295351885</v>
       </c>
       <c r="G243" t="n">
-        <v>0.12431063541189</v>
+        <v>0.1353843438730979</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1921375257601126</v>
+        <v>0.411110472009003</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1358954754714571</v>
+        <v>0.1351081858117532</v>
       </c>
       <c r="L243" t="n">
-        <v>0.5439414817891921</v>
+        <v>0.6565319229117664</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1223885210641546</v>
+        <v>0.1350546947709799</v>
       </c>
       <c r="N243" t="n">
-        <v>0.6904885449385687</v>
+        <v>0.1762180295351885</v>
       </c>
       <c r="O243" t="n">
-        <v>0.140909841340136</v>
+        <v>0.1353843438730979</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.05178431927856546</v>
+        <v>0.1767641129737799</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1250090097681366</v>
+        <v>0.1361449300746321</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1894341199127589</v>
+        <v>0.4078895389917725</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1366589331988248</v>
+        <v>0.1358672205635046</v>
       </c>
       <c r="L244" t="n">
-        <v>0.5398134866006752</v>
+        <v>0.6581086697685707</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1230760970251892</v>
+        <v>0.1358134290112663</v>
       </c>
       <c r="N244" t="n">
-        <v>0.6888420797702074</v>
+        <v>0.1767641129737799</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1417014696622716</v>
+        <v>0.1361449300746321</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.04685264344372257</v>
+        <v>0.1763158229548162</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1257073841243831</v>
+        <v>0.1369055162761664</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1900259745881344</v>
+        <v>0.40718827478372</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1374223909261925</v>
+        <v>0.1366262553152561</v>
       </c>
       <c r="L245" t="n">
-        <v>0.5392919090090982</v>
+        <v>0.6555160503319341</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1237636729862238</v>
+        <v>0.1365721632515527</v>
       </c>
       <c r="N245" t="n">
-        <v>0.6894939111707131</v>
+        <v>0.1763158229548162</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1424930979844072</v>
+        <v>0.1369055162761664</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.04992604660452764</v>
+        <v>0.1761733525013563</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1264057584806297</v>
+        <v>0.1376661024777006</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1898130848577883</v>
+        <v>0.4102067680708955</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1381858486535603</v>
+        <v>0.1373852900670075</v>
       </c>
       <c r="L246" t="n">
-        <v>0.5424770229713153</v>
+        <v>0.6562540408928923</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1244512489472583</v>
+        <v>0.1373308974918391</v>
       </c>
       <c r="N246" t="n">
-        <v>0.6786440233725487</v>
+        <v>0.1761733525013563</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1432847263065428</v>
+        <v>0.1376661024777006</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.04700471085182995</v>
+        <v>0.1760368946364592</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1271041328368763</v>
+        <v>0.1384266886792349</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1867954457932705</v>
+        <v>0.4052451075393498</v>
       </c>
       <c r="K247" t="n">
-        <v>0.138949306380928</v>
+        <v>0.1381443248187589</v>
       </c>
       <c r="L247" t="n">
-        <v>0.5438691024441804</v>
+        <v>0.656622617742482</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1251388249082929</v>
+        <v>0.1380896317321255</v>
       </c>
       <c r="N247" t="n">
-        <v>0.6741924006081768</v>
+        <v>0.1760368946364592</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1440763546286784</v>
+        <v>0.1384266886792349</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.05208881827647877</v>
+        <v>0.1754066423831839</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1278025071931229</v>
+        <v>0.1391872748807692</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1857730524661302</v>
+        <v>0.4060033818751333</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1397127641082958</v>
+        <v>0.1389033595705103</v>
       </c>
       <c r="L248" t="n">
-        <v>0.5405684213845476</v>
+        <v>0.6613217571717394</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1258264008693275</v>
+        <v>0.1388483659724119</v>
       </c>
       <c r="N248" t="n">
-        <v>0.6737390271100603</v>
+        <v>0.1754066423831839</v>
       </c>
       <c r="O248" t="n">
-        <v>0.144867982950814</v>
+        <v>0.1391872748807692</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.04817855096932339</v>
+        <v>0.1756827887645894</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1285008815493694</v>
+        <v>0.1399478610823034</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1870458999479172</v>
+        <v>0.4067816797642962</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1404762218356635</v>
+        <v>0.1396623943222618</v>
       </c>
       <c r="L249" t="n">
-        <v>0.5419752537492712</v>
+        <v>0.6603514354717003</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1265139768303621</v>
+        <v>0.1396071002126983</v>
       </c>
       <c r="N249" t="n">
-        <v>0.6729838871106618</v>
+        <v>0.1756827887645894</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1456596112729496</v>
+        <v>0.1399478610823034</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05127409102121309</v>
+        <v>0.1752655268037348</v>
       </c>
       <c r="G250" t="n">
-        <v>0.129199255905616</v>
+        <v>0.1407084472838377</v>
       </c>
       <c r="J250" t="n">
-        <v>0.184213983310181</v>
+        <v>0.4054800898928894</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1412396795630312</v>
+        <v>0.1404214290740132</v>
       </c>
       <c r="L250" t="n">
-        <v>0.5438898734952052</v>
+        <v>0.6601116289334015</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1272015527913966</v>
+        <v>0.1403658344529848</v>
       </c>
       <c r="N250" t="n">
-        <v>0.6631269648424442</v>
+        <v>0.1752655268037348</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1464512395950852</v>
+        <v>0.1407084472838377</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05237562052299717</v>
+        <v>0.175955049523679</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1298976302618626</v>
+        <v>0.1414690334853719</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1837772976244711</v>
+        <v>0.4067987009469631</v>
       </c>
       <c r="K251" t="n">
-        <v>0.142003137290399</v>
+        <v>0.1411804638257646</v>
       </c>
       <c r="L251" t="n">
-        <v>0.5420125545792036</v>
+        <v>0.6604023138478788</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1278891287524312</v>
+        <v>0.1411245686932711</v>
       </c>
       <c r="N251" t="n">
-        <v>0.6650682445378702</v>
+        <v>0.175955049523679</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1472428679172208</v>
+        <v>0.1414690334853719</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05148332156552489</v>
+        <v>0.1751515499474809</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1305960046181092</v>
+        <v>0.1422296196869062</v>
       </c>
       <c r="J252" t="n">
-        <v>0.182335837962337</v>
+        <v>0.4079376016125679</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1427665950177667</v>
+        <v>0.141939498577516</v>
       </c>
       <c r="L252" t="n">
-        <v>0.5452435709581206</v>
+        <v>0.6551234665061685</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1285767047134658</v>
+        <v>0.1418833029335576</v>
       </c>
       <c r="N252" t="n">
-        <v>0.6594077104294024</v>
+        <v>0.1751515499474809</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1480344962393564</v>
+        <v>0.1422296196869062</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.05159737623964554</v>
+        <v>0.1743552210981997</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1312943789743557</v>
+        <v>0.1429902058884404</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1819895993953284</v>
+        <v>0.4070968805757541</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1435300527451344</v>
+        <v>0.1426985333292674</v>
       </c>
       <c r="L253" t="n">
-        <v>0.5445831965888103</v>
+        <v>0.652575063199307</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1292642806745004</v>
+        <v>0.142642037173844</v>
       </c>
       <c r="N253" t="n">
-        <v>0.656845346749504</v>
+        <v>0.1743552210981997</v>
       </c>
       <c r="O253" t="n">
-        <v>0.148826124561492</v>
+        <v>0.1429902058884404</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.05071796663620839</v>
+        <v>0.1743662559988943</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1319927533306023</v>
+        <v>0.1437507920899747</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1804385769949947</v>
+        <v>0.4056766265225724</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1442935104725022</v>
+        <v>0.1434575680810189</v>
       </c>
       <c r="L254" t="n">
-        <v>0.5421317054281266</v>
+        <v>0.6521570802183303</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1299518566355349</v>
+        <v>0.1434007714141304</v>
       </c>
       <c r="N254" t="n">
-        <v>0.6543811377306374</v>
+        <v>0.1743662559988943</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1496177528836276</v>
+        <v>0.1437507920899747</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.04984527484606276</v>
+        <v>0.1747848476726236</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1326911276868489</v>
+        <v>0.144511378291509</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1805827658328855</v>
+        <v>0.4038769281390733</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1450569681998699</v>
+        <v>0.1442166028327703</v>
       </c>
       <c r="L255" t="n">
-        <v>0.5457893714329239</v>
+        <v>0.6515694938542749</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1306394325965695</v>
+        <v>0.1441595056544168</v>
       </c>
       <c r="N255" t="n">
-        <v>0.6438150676052654</v>
+        <v>0.1747848476726236</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1504093812057632</v>
+        <v>0.144511378291509</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0529794829600579</v>
+        <v>0.1738111891424469</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1333895020430955</v>
+        <v>0.1452719644930432</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1781221609805504</v>
+        <v>0.405297874111307</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1458204259272377</v>
+        <v>0.1449756375845217</v>
       </c>
       <c r="L256" t="n">
-        <v>0.543456468560056</v>
+        <v>0.6574122803981766</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1313270085576041</v>
+        <v>0.1449182398947032</v>
       </c>
       <c r="N256" t="n">
-        <v>0.639247120605851</v>
+        <v>0.1738111891424469</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1512010095278987</v>
+        <v>0.1452719644930432</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.05212077306904311</v>
+        <v>0.1755454734314228</v>
       </c>
       <c r="G257" t="n">
-        <v>0.134087876399342</v>
+        <v>0.1460325506945775</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1786567575095389</v>
+        <v>0.4059395531253244</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1465838836546054</v>
+        <v>0.1457346723362731</v>
       </c>
       <c r="L257" t="n">
-        <v>0.5428332707663772</v>
+        <v>0.6504854161410719</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1320145845186387</v>
+        <v>0.1456769741349896</v>
       </c>
       <c r="N257" t="n">
-        <v>0.6400772809648567</v>
+        <v>0.1755454734314228</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1519926378500344</v>
+        <v>0.1460325506945775</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.05126932726386765</v>
+        <v>0.1732878935626106</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1347862507555886</v>
+        <v>0.1467931368961117</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1762865504914005</v>
+        <v>0.4062020538671754</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1473473413819731</v>
+        <v>0.1464937070880246</v>
       </c>
       <c r="L258" t="n">
-        <v>0.5455200520087417</v>
+        <v>0.652488877373997</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1327021604796733</v>
+        <v>0.146435708375276</v>
       </c>
       <c r="N258" t="n">
-        <v>0.6343055329147453</v>
+        <v>0.1732878935626106</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1527842661721699</v>
+        <v>0.1467931368961117</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.05142532763538084</v>
+        <v>0.1737386425590692</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1354846251118352</v>
+        <v>0.147553723097646</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1757115349976848</v>
+        <v>0.4032854650229111</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1481107991093409</v>
+        <v>0.147252741839776</v>
       </c>
       <c r="L259" t="n">
-        <v>0.5422170862440032</v>
+        <v>0.6580226403879881</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1333897364407078</v>
+        <v>0.1471944426155624</v>
       </c>
       <c r="N259" t="n">
-        <v>0.6313318606879796</v>
+        <v>0.1737386425590692</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1535758944943055</v>
+        <v>0.147553723097646</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.05058895627443193</v>
+        <v>0.1730979134438575</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1361829994680817</v>
+        <v>0.1483143092991802</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1757317060999413</v>
+        <v>0.4043898752785815</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1488742568367086</v>
+        <v>0.1480117765915274</v>
       </c>
       <c r="L260" t="n">
-        <v>0.5460246474290162</v>
+        <v>0.6524866814740814</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1340773124017424</v>
+        <v>0.1479531768558488</v>
       </c>
       <c r="N260" t="n">
-        <v>0.6218562485170226</v>
+        <v>0.1730979134438575</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1543675228164411</v>
+        <v>0.1483143092991802</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05076039527187021</v>
+        <v>0.1730658992400346</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1368813738243283</v>
+        <v>0.1490748955007145</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1755470588697196</v>
+        <v>0.4025153733202373</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1496377145640763</v>
+        <v>0.1487708113432789</v>
       </c>
       <c r="L261" t="n">
-        <v>0.5431430095206345</v>
+        <v>0.6561809769233132</v>
       </c>
       <c r="M261" t="n">
-        <v>0.134764888362777</v>
+        <v>0.1487119110961352</v>
       </c>
       <c r="N261" t="n">
-        <v>0.6196786806343367</v>
+        <v>0.1730658992400346</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1551591511385767</v>
+        <v>0.1490748955007145</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04893982671854497</v>
+        <v>0.1753427929706595</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1375797481805749</v>
+        <v>0.1498354817022488</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1733575883785693</v>
+        <v>0.406962047833929</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1504011722914441</v>
+        <v>0.1495298460950303</v>
       </c>
       <c r="L262" t="n">
-        <v>0.5422724464757125</v>
+        <v>0.6502055030267195</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1354524643238116</v>
+        <v>0.1494706453364216</v>
       </c>
       <c r="N262" t="n">
-        <v>0.619099141272385</v>
+        <v>0.1753427929706595</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1559507794607123</v>
+        <v>0.1498354817022488</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0541274327053055</v>
+        <v>0.1734287876587912</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1382781225368215</v>
+        <v>0.150596067903783</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1720632896980398</v>
+        <v>0.4074299875057069</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1511646300188118</v>
+        <v>0.1502888808467817</v>
       </c>
       <c r="L263" t="n">
-        <v>0.5477132322511039</v>
+        <v>0.6588602360753368</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1361400402848461</v>
+        <v>0.150229379576708</v>
       </c>
       <c r="N263" t="n">
-        <v>0.6182176146636297</v>
+        <v>0.1734287876587912</v>
       </c>
       <c r="O263" t="n">
-        <v>0.156742407782848</v>
+        <v>0.150596067903783</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05132339532300105</v>
+        <v>0.1731240763274886</v>
       </c>
       <c r="G264" t="n">
-        <v>0.138976496893068</v>
+        <v>0.1513566541053173</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1712641578996807</v>
+        <v>0.4068192810216217</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1519280877461796</v>
+        <v>0.1510479155985331</v>
       </c>
       <c r="L264" t="n">
-        <v>0.545265640803663</v>
+        <v>0.6576451523602013</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1368276162458807</v>
+        <v>0.1509881138169944</v>
       </c>
       <c r="N264" t="n">
-        <v>0.6132340850405342</v>
+        <v>0.1731240763274886</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1575340361049835</v>
+        <v>0.1513566541053173</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1338.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1338.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.3706796089501626</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.02157800139620686</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.02157800139620686</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.03452480223393098</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08540028175922064</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1176981716919089</v>
+        <v>0.02718828175922065</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0034785536250559</v>
+        <v>0.0008035460085152686</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9250,29 +9276,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.01294680083772412</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0002678486695050895</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.0349272</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0007225880869565218</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.09492720000000002</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0006881791304347826</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.1549272</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0007154337494619027</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0349272</v>
+        <v>0.02718828175922065</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007225880869565218</v>
+        <v>0.0008035460085152686</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.09492720000000002</v>
+        <v>0.1176981716919089</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006690630434782609</v>
+        <v>0.002167764260869566</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1549272</v>
+        <v>0.2874729248357886</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0006629248504188274</v>
+        <v>0.002064537391304348</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0349272</v>
+        <v>0.4572476779796683</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007225880869565218</v>
+        <v>0.002146301248385708</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0659260595947227</v>
+        <v>0.0300033091596777</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001521172403068515</v>
+        <v>0.003172520145987596</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1865936727500665</v>
+        <v>0.1282626261385212</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001518069503502845</v>
+        <v>0.003186230882192161</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.3036170763606876</v>
+        <v>0.3157920619117709</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001517468480572808</v>
+        <v>0.003185193426216631</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0659260595947227</v>
+        <v>0.4988672027949519</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001521172403068515</v>
+        <v>0.003186015173523982</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.09124064484881333</v>
+        <v>0.03613702262363583</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002281758604602773</v>
+        <v>0.004758780218981394</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.2537826973178892</v>
+        <v>0.1422826727584454</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002277104255254268</v>
+        <v>0.004779346323288241</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.4171423800062999</v>
+        <v>0.3466010871310053</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002276202720859212</v>
+        <v>0.004777790139324947</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.09124064484881333</v>
+        <v>0.5493723475102933</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002281758604602773</v>
+        <v>0.004779022760285973</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.1109112750266509</v>
+        <v>0.03473290763230374</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003042344806137031</v>
+        <v>0.006345040291975191</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.2874729248357886</v>
+        <v>0.1545625649169334</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002894511493442645</v>
+        <v>0.006372461764384323</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.4572476779796683</v>
+        <v>0.3771962139013236</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002795053312864988</v>
+        <v>0.006370386852433262</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1109112750266509</v>
+        <v>0.6008745128463684</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003042344806137031</v>
+        <v>0.006372030347047963</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0007225880869565218</v>
+        <v>0.0002678486695050895</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0349272</v>
+        <v>0.01294680083772412</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.1176981716919089</v>
+        <v>0.0358526106948215</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.0034785536250559</v>
+        <v>0.007931300364968988</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.3003166448347372</v>
+        <v>0.1640117259954121</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003795173758757113</v>
+        <v>0.007965577205480403</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.4820978981550729</v>
+        <v>0.4050916457825852</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00379367120143202</v>
+        <v>0.007962983565541579</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1176981716919089</v>
+        <v>0.635373218476713</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.0034785536250559</v>
+        <v>0.007965037933809954</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.1240911099054721</v>
+        <v>0.03855777832032911</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004563517209205546</v>
+        <v>0.009517560437962787</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.3134923501695666</v>
+        <v>0.1738395793753083</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004554208510508535</v>
+        <v>0.009558692646576482</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.5029345820557695</v>
+        <v>0.4237015863346502</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004552405441718424</v>
+        <v>0.009555580278649894</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.1240911099054721</v>
+        <v>0.6730679840748622</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004563517209205546</v>
+        <v>0.009558045520571946</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1293621288999895</v>
+        <v>0.04391005701796667</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005324103410739803</v>
+        <v>0.01110382051095658</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.3237861550537324</v>
+        <v>0.1817555484380487</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005313243262259958</v>
+        <v>0.01115180808767256</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.5154596149362165</v>
+        <v>0.4433402391173781</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005311139682004828</v>
+        <v>0.01114817699175821</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.1293621288999895</v>
+        <v>0.6995583293143512</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005324103410739803</v>
+        <v>0.01115105310733394</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1343855523087581</v>
+        <v>0.03997109329687418</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006084689612274061</v>
+        <v>0.01269008058395038</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.3367034527219345</v>
+        <v>0.1873690565650601</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006072278014011381</v>
+        <v>0.01274492352876865</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.5364817630971127</v>
+        <v>0.4565218076906288</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006069873922291232</v>
+        <v>0.01274077370486652</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.1343855523087581</v>
+        <v>0.7242437738687157</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006084689612274061</v>
+        <v>0.01274406069409593</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1393632897343246</v>
+        <v>0.04280253366619172</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006845275813808319</v>
+        <v>0.01427634065694418</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.3457496364088727</v>
+        <v>0.1919895271377693</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006831312765762803</v>
+        <v>0.01433803896986472</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.5536097928391561</v>
+        <v>0.4720604956142626</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006828608162577636</v>
+        <v>0.01433337041797484</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1393632897343246</v>
+        <v>0.7417238374114911</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006845275813808319</v>
+        <v>0.01433706828085792</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1425972507792357</v>
+        <v>0.04346602463505933</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007605862015342577</v>
+        <v>0.01586260072993798</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.3611300993492473</v>
+        <v>0.196826383537603</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007590347517514226</v>
+        <v>0.01593115441096081</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.5790524704630451</v>
+        <v>0.4809705064481385</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00758734240286404</v>
+        <v>0.01592596713108316</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1425972507792357</v>
+        <v>0.7563980396162128</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007605862015342577</v>
+        <v>0.01593007586761991</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1485893450460381</v>
+        <v>0.04702321271261703</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008366448216876834</v>
+        <v>0.01744886080293178</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.3706502347777579</v>
+        <v>0.1990890491459881</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008349382269265649</v>
+        <v>0.01752426985205689</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.594418562269478</v>
+        <v>0.4843660437521169</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008346076643150444</v>
+        <v>0.01751856384419147</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1485893450460381</v>
+        <v>0.7743659001564153</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008366448216876834</v>
+        <v>0.0175230834543819</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1516414821372785</v>
+        <v>0.04653574440800491</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009127034418411091</v>
+        <v>0.01903512087592557</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3839154359291048</v>
+        <v>0.2031869473443512</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009108417021017071</v>
+        <v>0.01911738529315296</v>
       </c>
       <c r="L77" t="n">
-        <v>0.6106168345591532</v>
+        <v>0.4921613110860574</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009104810883436848</v>
+        <v>0.01911116055729979</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1516414821372785</v>
+        <v>0.7807269387056354</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009127034418411091</v>
+        <v>0.01911609104114389</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1556555716555037</v>
+        <v>0.045065266230363</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009887620619945348</v>
+        <v>0.02062138094891937</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3889310960379879</v>
+        <v>0.2047295015141193</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009867451772768493</v>
+        <v>0.02071050073424905</v>
       </c>
       <c r="L78" t="n">
-        <v>0.6240560536327691</v>
+        <v>0.4998705120098198</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009863545123723252</v>
+        <v>0.0207037572704081</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1556555716555037</v>
+        <v>0.7911806749374072</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009887620619945348</v>
+        <v>0.02070909862790588</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1611335232032603</v>
+        <v>0.04566943826769958</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01064820682147961</v>
+        <v>0.02220764102191317</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4024026083391071</v>
+        <v>0.206526135036719</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01062648652451992</v>
+        <v>0.02230361617534513</v>
       </c>
       <c r="L79" t="n">
-        <v>0.643844985791024</v>
+        <v>0.5051078500832641</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01062227936400966</v>
+        <v>0.02229635398351642</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1611335232032603</v>
+        <v>0.8035266285252666</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01064820682147961</v>
+        <v>0.02230210621466787</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.163377246383095</v>
+        <v>0.04729508018956551</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01140879302301386</v>
+        <v>0.02379390109490697</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4082353660671624</v>
+        <v>0.2112504951897131</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01138552127627134</v>
+        <v>0.02389673161644121</v>
       </c>
       <c r="L80" t="n">
-        <v>0.6573923973346162</v>
+        <v>0.5152714216779281</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01138101360429606</v>
+        <v>0.02388895069662473</v>
       </c>
       <c r="N80" t="n">
-        <v>0.163377246383095</v>
+        <v>0.8159233594727778</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01140879302301386</v>
+        <v>0.02389511380142986</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1674886507975545</v>
+        <v>0.04990244727562701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01216937922454812</v>
+        <v>0.02538016116790076</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4201347624568537</v>
+        <v>0.2116555369624624</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01214455602802276</v>
+        <v>0.02548984705753729</v>
       </c>
       <c r="L81" t="n">
-        <v>0.6726070545642441</v>
+        <v>0.5182652315316235</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01213974784458246</v>
+        <v>0.02548154740973305</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1674886507975545</v>
+        <v>0.8271278952614421</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01216937922454812</v>
+        <v>0.02548812138819185</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1729696460491855</v>
+        <v>0.04748766945340455</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01292996542608238</v>
+        <v>0.02696642124089456</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4285061907428809</v>
+        <v>0.2164772476805339</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01290359077977418</v>
+        <v>0.02708296249863337</v>
       </c>
       <c r="L82" t="n">
-        <v>0.6861977237806058</v>
+        <v>0.5277531728577304</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01289848208486887</v>
+        <v>0.02707414412284136</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1729696460491855</v>
+        <v>0.8408079238644349</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01292996542608238</v>
+        <v>0.02708112897495384</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1761221417405348</v>
+        <v>0.04704687665041853</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01369055162761664</v>
+        <v>0.02855268131388836</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4370550441599445</v>
+        <v>0.2190986556334121</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01366262553152561</v>
+        <v>0.02867607793972945</v>
       </c>
       <c r="L83" t="n">
-        <v>0.6963731712844001</v>
+        <v>0.5347938334326088</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01365721632515527</v>
+        <v>0.02866674083594968</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1761221417405348</v>
+        <v>0.8433975249781384</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01369055162761664</v>
+        <v>0.02867413656171584</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1782480474741489</v>
+        <v>0.04657619879418939</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01445113782915089</v>
+        <v>0.03013894138688216</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4426867159427439</v>
+        <v>0.2211027891105815</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01442166028327703</v>
+        <v>0.03026919338082553</v>
       </c>
       <c r="L84" t="n">
-        <v>0.7060421633763251</v>
+        <v>0.5376458010326186</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01441595056544168</v>
+        <v>0.030259337549058</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1782480474741489</v>
+        <v>0.853130778298934</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01445113782915089</v>
+        <v>0.03026714414847782</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1811492728525748</v>
+        <v>0.0520717658122376</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01521172403068515</v>
+        <v>0.03172520145987595</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4519065993259792</v>
+        <v>0.2215726764015266</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01518069503502845</v>
+        <v>0.03186230882192161</v>
       </c>
       <c r="L85" t="n">
-        <v>0.720913466357079</v>
+        <v>0.5458676634341196</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01517468480572808</v>
+        <v>0.03185193426216631</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1811492728525748</v>
+        <v>0.8624417635232046</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01521172403068515</v>
+        <v>0.03186015173523982</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1848277274783589</v>
+        <v>0.04752970763208357</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01597231023221941</v>
+        <v>0.03331146153286976</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4608200875443507</v>
+        <v>0.224491345795732</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01593972978677987</v>
+        <v>0.03345542426301769</v>
       </c>
       <c r="L86" t="n">
-        <v>0.7372958465273605</v>
+        <v>0.5511180084134719</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01593341904601448</v>
+        <v>0.03344453097527463</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1848277274783589</v>
+        <v>0.8718645603473308</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01597231023221941</v>
+        <v>0.03345315932200181</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1883853209540482</v>
+        <v>0.05294615418124772</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01673289643375367</v>
+        <v>0.03489772160586355</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4678325738325579</v>
+        <v>0.2267418255826824</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0166987645385313</v>
+        <v>0.03504853970411377</v>
       </c>
       <c r="L87" t="n">
-        <v>0.7455980701878676</v>
+        <v>0.5548554237470352</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01669215328630089</v>
+        <v>0.03503712768838294</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1883853209540482</v>
+        <v>0.8805332484676961</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01673289643375367</v>
+        <v>0.0350461669087638</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1919239628821891</v>
+        <v>0.05031723538725048</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01749348263528793</v>
+        <v>0.03648398167885734</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4732494514253012</v>
+        <v>0.229607144051862</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01745779929028272</v>
+        <v>0.03664165514520985</v>
       </c>
       <c r="L88" t="n">
-        <v>0.7563289036392987</v>
+        <v>0.5601384972111694</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01745088752658729</v>
+        <v>0.03662972440149126</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1919239628821891</v>
+        <v>0.8881819075806813</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01749348263528793</v>
+        <v>0.03663917449552579</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1948455628653285</v>
+        <v>0.05263908117761232</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01825406883682218</v>
+        <v>0.03807024175185115</v>
       </c>
       <c r="J89" t="n">
-        <v>0.48047611355728</v>
+        <v>0.2293703294927557</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01821683404203414</v>
+        <v>0.03823477058630593</v>
       </c>
       <c r="L89" t="n">
-        <v>0.7660971131823519</v>
+        <v>0.5621258165822346</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0182096217668737</v>
+        <v>0.03822232111459958</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1948455628653285</v>
+        <v>0.8947446173826686</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01825406883682218</v>
+        <v>0.03823218208228778</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.196752030506013</v>
+        <v>0.05090782147985362</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01901465503835644</v>
+        <v>0.03965650182484495</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4872179534631951</v>
+        <v>0.2303144101948478</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01897586879378556</v>
+        <v>0.03982788602740201</v>
       </c>
       <c r="L90" t="n">
-        <v>0.7755114651177265</v>
+        <v>0.5637759696365905</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0189683560071601</v>
+        <v>0.03981491782770789</v>
       </c>
       <c r="N90" t="n">
-        <v>0.196752030506013</v>
+        <v>0.9009554575700408</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01901465503835644</v>
+        <v>0.03982518966904977</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1985452754067893</v>
+        <v>0.05011958622149487</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0197752412398907</v>
+        <v>0.04124276189783874</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4948803643777457</v>
+        <v>0.2318224144476229</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01973490354553699</v>
+        <v>0.04142100146849809</v>
       </c>
       <c r="L91" t="n">
-        <v>0.7858807257461199</v>
+        <v>0.5680475441505971</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0197270902474465</v>
+        <v>0.0414075145408162</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1985452754067893</v>
+        <v>0.8999485078391786</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0197752412398907</v>
+        <v>0.04141819725581176</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.2029272071702042</v>
+        <v>0.05327050533005644</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02053582744142496</v>
+        <v>0.04282902197083254</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4994687395356323</v>
+        <v>0.2331773705405656</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02049393829728841</v>
+        <v>0.04301411690959418</v>
       </c>
       <c r="L92" t="n">
-        <v>0.7912136613682307</v>
+        <v>0.5671991279006142</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02048582448773291</v>
+        <v>0.04300011125392452</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2029272071702042</v>
+        <v>0.9075578478864649</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02053582744142496</v>
+        <v>0.04301120484257376</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.2036997353988044</v>
+        <v>0.05437656351844131</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02129641364295921</v>
+        <v>0.04441528204382633</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5060884721715547</v>
+        <v>0.2333623067631606</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02125297304903983</v>
+        <v>0.04460723235069025</v>
       </c>
       <c r="L93" t="n">
-        <v>0.802819038284757</v>
+        <v>0.569389308663002</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02124455872801931</v>
+        <v>0.04459270796703284</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2036997353988044</v>
+        <v>0.9074175574082811</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02129641364295921</v>
+        <v>0.04460421242933574</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.2058647696951365</v>
+        <v>0.05337547721747922</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02205699984449347</v>
+        <v>0.04600154211682014</v>
       </c>
       <c r="J94" t="n">
-        <v>0.5089449555202126</v>
+        <v>0.2353963433838177</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02201200780079126</v>
+        <v>0.04620034779178633</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8147056227963979</v>
+        <v>0.5749458496715771</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02200329296830571</v>
+        <v>0.04618530468014116</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2058647696951365</v>
+        <v>0.9144953559593366</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02205699984449347</v>
+        <v>0.04619722001609774</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.2082242196617472</v>
+        <v>0.05034986924415669</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02281758604602773</v>
+        <v>0.04758780218981393</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5155435828163064</v>
+        <v>0.2343761012119615</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02277104255254268</v>
+        <v>0.04779346323288242</v>
       </c>
       <c r="L95" t="n">
-        <v>0.821482181203851</v>
+        <v>0.5702853901024777</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02276202720859212</v>
+        <v>0.04777790139324947</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2082242196617472</v>
+        <v>0.9066132162246939</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02281758604602773</v>
+        <v>0.04779022760285973</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.2097799949011833</v>
+        <v>0.0522917705526517</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02357817224756199</v>
+        <v>0.04917406226280773</v>
       </c>
       <c r="J96" t="n">
-        <v>0.521289747294536</v>
+        <v>0.2349254975341722</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0235300773042941</v>
+        <v>0.0493865786739785</v>
       </c>
       <c r="L96" t="n">
-        <v>0.8273574798078153</v>
+        <v>0.5725984214760383</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02352076144887853</v>
+        <v>0.04937049810635779</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2097799949011833</v>
+        <v>0.9112217980947143</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02357817224756199</v>
+        <v>0.04938323518962171</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.2135340050159915</v>
+        <v>0.05120322078276769</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02433875844909624</v>
+        <v>0.05076032233580153</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5225888421896012</v>
+        <v>0.2329354629072095</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02428911205604552</v>
+        <v>0.05097969411507458</v>
       </c>
       <c r="L97" t="n">
-        <v>0.8326402849089881</v>
+        <v>0.5702723145298265</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02427949568916493</v>
+        <v>0.0509630948194661</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2135340050159915</v>
+        <v>0.9043891707505828</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02433875844909624</v>
+        <v>0.05097624277638371</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.2157881596087184</v>
+        <v>0.05008625957430808</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0250993446506305</v>
+        <v>0.05234658240879533</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5300462607362021</v>
+        <v>0.2343149419119518</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02504814680779694</v>
+        <v>0.05257280955617066</v>
       </c>
       <c r="L98" t="n">
-        <v>0.8428393628080685</v>
+        <v>0.5696288946999625</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02503822992945133</v>
+        <v>0.05255569153257442</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2157881596087184</v>
+        <v>0.9042500760933431</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0250993446506305</v>
+        <v>0.0525692503631457</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.2176443682819108</v>
+        <v>0.05294292656707632</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02585993085216476</v>
+        <v>0.05393284248178912</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5307673961690386</v>
+        <v>0.2335728791292778</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02580718155954837</v>
+        <v>0.05416592499726675</v>
       </c>
       <c r="L99" t="n">
-        <v>0.850363479805755</v>
+        <v>0.5679899874225673</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02579696416973774</v>
+        <v>0.05414828824568273</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2176443682819108</v>
+        <v>0.9062392560240372</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02585993085216476</v>
+        <v>0.05416225794990769</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.2178045406381153</v>
+        <v>0.04877526140087583</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02662051705369901</v>
+        <v>0.05551910255478293</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5367576417228106</v>
+        <v>0.2327182191400663</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02656621631129979</v>
+        <v>0.05575904043836282</v>
       </c>
       <c r="L100" t="n">
-        <v>0.8546214022027457</v>
+        <v>0.5688774181337614</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02655569841002414</v>
+        <v>0.05574088495879105</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2178045406381153</v>
+        <v>0.9045914524437081</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02662051705369901</v>
+        <v>0.05575526553666968</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.2207705862798787</v>
+        <v>0.05358530371551007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02738110325523328</v>
+        <v>0.05710536262777671</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5378223906322184</v>
+        <v>0.2325599065251957</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02732525106305121</v>
+        <v>0.0573521558794589</v>
       </c>
       <c r="L101" t="n">
-        <v>0.863221896299739</v>
+        <v>0.5629130122696656</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02731443265031054</v>
+        <v>0.05733348167189937</v>
       </c>
       <c r="N101" t="n">
-        <v>0.2207705862798787</v>
+        <v>0.8992414072533993</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02738110325523328</v>
+        <v>0.05734827312343167</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.2205444148097477</v>
+        <v>0.05037509315078244</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02814168945676753</v>
+        <v>0.05869162270077052</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5455670361319616</v>
+        <v>0.2305068858655448</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02808428581480264</v>
+        <v>0.05894527132055499</v>
       </c>
       <c r="L102" t="n">
-        <v>0.8616737283974326</v>
+        <v>0.5612185952664003</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02807316689059695</v>
+        <v>0.05892607838500768</v>
       </c>
       <c r="N102" t="n">
-        <v>0.2205444148097477</v>
+        <v>0.9001238623541535</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02814168945676753</v>
+        <v>0.05894128071019367</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.2231279358302689</v>
+        <v>0.05214666934649639</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02890227565830179</v>
+        <v>0.06027788277376431</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5447969714567401</v>
+        <v>0.2301681017419921</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02884332056655406</v>
+        <v>0.06053838676165106</v>
       </c>
       <c r="L103" t="n">
-        <v>0.8705856647965259</v>
+        <v>0.5587159925600865</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02883190113088336</v>
+        <v>0.060518675098116</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2231279358302689</v>
+        <v>0.8931735596470131</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02890227565830179</v>
+        <v>0.06053428829695565</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.2248230589439892</v>
+        <v>0.04790207194245538</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02966286185983605</v>
+        <v>0.06186414284675811</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5494175898412544</v>
+        <v>0.2277524987354163</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02960235531830548</v>
+        <v>0.06213150220274714</v>
       </c>
       <c r="L104" t="n">
-        <v>0.8781664717977166</v>
+        <v>0.5570270295868445</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02959063537116976</v>
+        <v>0.06211127181122431</v>
       </c>
       <c r="N104" t="n">
-        <v>0.2248230589439892</v>
+        <v>0.8866252410330212</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02966286185983605</v>
+        <v>0.06212729588371764</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.224231693753455</v>
+        <v>0.0496433405784628</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03042344806137031</v>
+        <v>0.0634504029197519</v>
       </c>
       <c r="J105" t="n">
-        <v>0.5532342845202043</v>
+        <v>0.2271690214266961</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0303613900700569</v>
+        <v>0.06372461764384323</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8767249157017029</v>
+        <v>0.5556735317827951</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03034936961145616</v>
+        <v>0.06370386852433263</v>
       </c>
       <c r="N105" t="n">
-        <v>0.224231693753455</v>
+        <v>0.8846136484132209</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03042344806137031</v>
+        <v>0.06372030347047963</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.2263557498612132</v>
+        <v>0.04837251489432211</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03118403426290456</v>
+        <v>0.06503666299274571</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5517524487282895</v>
+        <v>0.2263266143967101</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03112042482180833</v>
+        <v>0.06531773308493931</v>
       </c>
       <c r="L106" t="n">
-        <v>0.8826697628091836</v>
+        <v>0.552177324584059</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03110810385174256</v>
+        <v>0.06529646523744094</v>
       </c>
       <c r="N106" t="n">
-        <v>0.2263557498612132</v>
+        <v>0.8804735236886546</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03118403426290456</v>
+        <v>0.06531331105724163</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.2261971368698106</v>
+        <v>0.05009163452983674</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03194462046443882</v>
+        <v>0.06662292306573951</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5590774757002103</v>
+        <v>0.225734222226337</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03187945957355975</v>
+        <v>0.06691084852603538</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8857097794208569</v>
+        <v>0.5520602334267567</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03186683809202897</v>
+        <v>0.06688906195054926</v>
       </c>
       <c r="N107" t="n">
-        <v>0.2261971368698106</v>
+        <v>0.8748396087603655</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03194462046443882</v>
+        <v>0.06690631864400362</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.2283577643817937</v>
+        <v>0.05180273912481013</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03270520666597308</v>
+        <v>0.0682091831387333</v>
       </c>
       <c r="J108" t="n">
-        <v>0.5580147586706661</v>
+        <v>0.2240007894964552</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03263849432531117</v>
+        <v>0.06850396396713147</v>
       </c>
       <c r="L108" t="n">
-        <v>0.8895537318374213</v>
+        <v>0.5485440837470089</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03262557233231538</v>
+        <v>0.06848165866365757</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2283577643817937</v>
+        <v>0.8743466455293963</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03270520666597308</v>
+        <v>0.06849932623076561</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.2292395419997093</v>
+        <v>0.0505078683190457</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03346579286750734</v>
+        <v>0.06979544321172711</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5584696908743576</v>
+        <v>0.2237352607879437</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03339752907706259</v>
+        <v>0.07009707940822754</v>
       </c>
       <c r="L109" t="n">
-        <v>0.8949103863595745</v>
+        <v>0.5459507009809362</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03338430657260177</v>
+        <v>0.07007425537676588</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2292395419997093</v>
+        <v>0.8648293758967899</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03346579286750734</v>
+        <v>0.07009233381752759</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.229944379326104</v>
+        <v>0.04920906175234689</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03422637906904159</v>
+        <v>0.0713817032847209</v>
       </c>
       <c r="J110" t="n">
-        <v>0.5605476655459843</v>
+        <v>0.2206465806816809</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03415656382881402</v>
+        <v>0.07169019484932362</v>
       </c>
       <c r="L110" t="n">
-        <v>0.8976885092880155</v>
+        <v>0.5378019105646595</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03414304081288818</v>
+        <v>0.07166685208987421</v>
       </c>
       <c r="N110" t="n">
-        <v>0.229944379326104</v>
+        <v>0.8583225417635892</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03422637906904159</v>
+        <v>0.07168534140428959</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.2317741859635247</v>
+        <v>0.04890835906451714</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03498696527057586</v>
+        <v>0.07296796335771469</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5663540759202464</v>
+        <v>0.2200436937585454</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03491559858056544</v>
+        <v>0.07328331029041971</v>
       </c>
       <c r="L111" t="n">
-        <v>0.8992968669234426</v>
+        <v>0.5362195379342993</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03490177505317459</v>
+        <v>0.07325944880298252</v>
       </c>
       <c r="N111" t="n">
-        <v>0.2317741859635247</v>
+        <v>0.854260885030837</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03498696527057586</v>
+        <v>0.07327834899105158</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.2304308715145179</v>
+        <v>0.04860779989535988</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03574755147211011</v>
+        <v>0.0745542234307085</v>
       </c>
       <c r="J112" t="n">
-        <v>0.563194315231844</v>
+        <v>0.217735544599416</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03567463333231686</v>
+        <v>0.07487642573151579</v>
       </c>
       <c r="L112" t="n">
-        <v>0.8996442255665541</v>
+        <v>0.5326254085259762</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03566050929346099</v>
+        <v>0.07485204551609084</v>
       </c>
       <c r="N112" t="n">
-        <v>0.2304308715145179</v>
+        <v>0.8496791475995765</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03574755147211011</v>
+        <v>0.07487135657781357</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.2309163455816304</v>
+        <v>0.04930942388467854</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03650813767364437</v>
+        <v>0.0761404835037023</v>
       </c>
       <c r="J113" t="n">
-        <v>0.5685737767154767</v>
+        <v>0.2171310777851713</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03643366808406828</v>
+        <v>0.07646954117261186</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9064393515180474</v>
+        <v>0.5301413477758107</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03641924353374739</v>
+        <v>0.07644464222919915</v>
       </c>
       <c r="N113" t="n">
-        <v>0.2309163455816304</v>
+        <v>0.8409120713708501</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03650813767364437</v>
+        <v>0.07646436416457557</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.2323325177674089</v>
+        <v>0.04701077950495366</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03726872387517863</v>
+        <v>0.07772674357669608</v>
       </c>
       <c r="J114" t="n">
-        <v>0.5708978536058447</v>
+        <v>0.2163392378966899</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03719270283581971</v>
+        <v>0.07806265661370795</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9021910110786225</v>
+        <v>0.5263891811199238</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0371779777740338</v>
+        <v>0.07803723894230746</v>
       </c>
       <c r="N114" t="n">
-        <v>0.2323325177674089</v>
+        <v>0.8395943982457007</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03726872387517863</v>
+        <v>0.07805737175133756</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.2331812976744001</v>
+        <v>0.04567576387643245</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03802931007671288</v>
+        <v>0.07931300364968989</v>
       </c>
       <c r="J115" t="n">
-        <v>0.570071939137648</v>
+        <v>0.2142017674806019</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03795173758757113</v>
+        <v>0.07965577205480402</v>
       </c>
       <c r="L115" t="n">
-        <v>0.9076079705489767</v>
+        <v>0.5233053104564986</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0379367120143202</v>
+        <v>0.07962983565541579</v>
       </c>
       <c r="N115" t="n">
-        <v>0.2331812976744001</v>
+        <v>0.835392922386622</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03802931007671288</v>
+        <v>0.07965037933809954</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.2343645949051507</v>
+        <v>0.04930144419526787</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03878989627824714</v>
+        <v>0.08089926372268369</v>
       </c>
       <c r="J116" t="n">
-        <v>0.5706014265455862</v>
+        <v>0.2121806906921285</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03871077233932255</v>
+        <v>0.08124888749590012</v>
       </c>
       <c r="L116" t="n">
-        <v>0.9093989962298085</v>
+        <v>0.5222706867533896</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03869544625460661</v>
+        <v>0.0812224323685241</v>
       </c>
       <c r="N116" t="n">
-        <v>0.2343645949051507</v>
+        <v>0.8327772065908764</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03878989627824714</v>
+        <v>0.08124338692486154</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.2335843190622074</v>
+        <v>0.04389446585174835</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03955048247978139</v>
+        <v>0.08248552379567749</v>
       </c>
       <c r="J117" t="n">
-        <v>0.5702917090643599</v>
+        <v>0.2127984500336149</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03946980709107397</v>
+        <v>0.08284200293699619</v>
       </c>
       <c r="L117" t="n">
-        <v>0.9098728544218161</v>
+        <v>0.5158461111300118</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03945418049489301</v>
+        <v>0.08281502908163241</v>
       </c>
       <c r="N117" t="n">
-        <v>0.2335843190622074</v>
+        <v>0.8235366014732616</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03955048247978139</v>
+        <v>0.08283639451162353</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.2342423797481168</v>
+        <v>0.04446147423616224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04031106868131566</v>
+        <v>0.08407178386867127</v>
       </c>
       <c r="J118" t="n">
-        <v>0.570648179928669</v>
+        <v>0.2098841880187561</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0402288418428254</v>
+        <v>0.08443511837809227</v>
       </c>
       <c r="L118" t="n">
-        <v>0.9077383114256979</v>
+        <v>0.5108026934661548</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04021291473517941</v>
+        <v>0.08440762579474073</v>
       </c>
       <c r="N118" t="n">
-        <v>0.2342423797481168</v>
+        <v>0.8142843003002568</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04031106868131566</v>
+        <v>0.08442940209838552</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.2350406865654258</v>
+        <v>0.04300911473879797</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04107165488284991</v>
+        <v>0.08565804394166508</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5709762323732127</v>
+        <v>0.2071670471612473</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04098787659457682</v>
+        <v>0.08602823381918835</v>
       </c>
       <c r="L119" t="n">
-        <v>0.9135041335421527</v>
+        <v>0.509311543641608</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04097164897546582</v>
+        <v>0.08600022250784904</v>
       </c>
       <c r="N119" t="n">
-        <v>0.2350406865654258</v>
+        <v>0.8069334963383402</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04107165488284991</v>
+        <v>0.08602240968514752</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.235181149116681</v>
+        <v>0.04454403274994391</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04183224108438417</v>
+        <v>0.08724430401465888</v>
       </c>
       <c r="J120" t="n">
-        <v>0.5703812596326916</v>
+        <v>0.2057761699747836</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04174691134632824</v>
+        <v>0.08762134926028443</v>
       </c>
       <c r="L120" t="n">
-        <v>0.9100790870718783</v>
+        <v>0.5020437715361606</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04173038321575222</v>
+        <v>0.08759281922095737</v>
       </c>
       <c r="N120" t="n">
-        <v>0.235181149116681</v>
+        <v>0.8022973828539907</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04183224108438417</v>
+        <v>0.08761541727190951</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.2353963433838177</v>
+        <v>0.04307287365988846</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04259282728591843</v>
+        <v>0.08883056408765266</v>
       </c>
       <c r="J121" t="n">
-        <v>0.5749458496715771</v>
+        <v>0.20284069897306</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04250594609807967</v>
+        <v>0.0892144647013805</v>
       </c>
       <c r="L121" t="n">
-        <v>0.9144953559593366</v>
+        <v>0.4991704870296026</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04248911745603862</v>
+        <v>0.08918541593406568</v>
       </c>
       <c r="N121" t="n">
-        <v>0.2353963433838177</v>
+        <v>0.7920891531136863</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04259282728591843</v>
+        <v>0.08920842485867149</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.2339961798312168</v>
+        <v>0.04260228285892001</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04335341348745268</v>
+        <v>0.09041682416064648</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5748438115352551</v>
+        <v>0.2015897766697717</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04326498084983109</v>
+        <v>0.0908075801424766</v>
       </c>
       <c r="L122" t="n">
-        <v>0.9113914535739361</v>
+        <v>0.4946628000017231</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04324785169632503</v>
+        <v>0.09077801264717399</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2339961798312168</v>
+        <v>0.7822220003839059</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04335341348745268</v>
+        <v>0.09080143244543348</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.2339807904122297</v>
+        <v>0.04513890573732694</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04411399968898694</v>
+        <v>0.09200308423364027</v>
       </c>
       <c r="J123" t="n">
-        <v>0.5700835938869241</v>
+        <v>0.1995525455786136</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04402401560158251</v>
+        <v>0.09240069558357267</v>
       </c>
       <c r="L123" t="n">
-        <v>0.910540565926753</v>
+        <v>0.4858918203323118</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04400658593661143</v>
+        <v>0.09237060936028231</v>
       </c>
       <c r="N123" t="n">
-        <v>0.2339807904122297</v>
+        <v>0.7728091179311282</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04411399968898694</v>
+        <v>0.09239444003219548</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.2334295319406733</v>
+        <v>0.04468938768539765</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0448745858905212</v>
+        <v>0.09358934430663406</v>
       </c>
       <c r="J124" t="n">
-        <v>0.5705381021400068</v>
+        <v>0.198058148213281</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04478305035333394</v>
+        <v>0.09399381102466875</v>
       </c>
       <c r="L124" t="n">
-        <v>0.913814756422538</v>
+        <v>0.4812286579011581</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04476532017689784</v>
+        <v>0.09396320607339063</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2334295319406733</v>
+        <v>0.7659636990218314</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0448745858905212</v>
+        <v>0.09398744761895746</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.2342438730017308</v>
+        <v>0.04026037409342051</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04563517209205546</v>
+        <v>0.09517560437962787</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5685160617418437</v>
+        <v>0.1957357270874688</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04554208510508536</v>
+        <v>0.09558692646576483</v>
       </c>
       <c r="L125" t="n">
-        <v>0.9083214587648393</v>
+        <v>0.4806444225880514</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04552405441718424</v>
+        <v>0.09555580278649893</v>
       </c>
       <c r="N125" t="n">
-        <v>0.2342438730017308</v>
+        <v>0.7616989369224946</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04563517209205546</v>
+        <v>0.09558045520571945</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.2338252355012354</v>
+        <v>0.04082163377509286</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04639575829358972</v>
+        <v>0.09676186445262167</v>
       </c>
       <c r="J126" t="n">
-        <v>0.5732279253269644</v>
+        <v>0.1935887360940234</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04630111985683678</v>
+        <v>0.09718004190686091</v>
       </c>
       <c r="L126" t="n">
-        <v>0.9077685562732581</v>
+        <v>0.4759324493705271</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04628278865747065</v>
+        <v>0.09714839949960725</v>
       </c>
       <c r="N126" t="n">
-        <v>0.2338252355012354</v>
+        <v>0.7509234657117382</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04639575829358972</v>
+        <v>0.09717346279248144</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.2341750413450208</v>
+        <v>0.04134384871454642</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04715634449512397</v>
+        <v>0.09834812452561546</v>
       </c>
       <c r="J127" t="n">
-        <v>0.5724841455298982</v>
+        <v>0.191807371764114</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0470601546085882</v>
+        <v>0.098773157347957</v>
       </c>
       <c r="L127" t="n">
-        <v>0.909263932267396</v>
+        <v>0.4701756581166939</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04704152289775705</v>
+        <v>0.09874099621271558</v>
       </c>
       <c r="N127" t="n">
-        <v>0.2341750413450208</v>
+        <v>0.7416202491948642</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04715634449512397</v>
+        <v>0.09876647037924342</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.2325947124389204</v>
+        <v>0.03883653012723211</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04791693069665823</v>
+        <v>0.09993438459860926</v>
       </c>
       <c r="J128" t="n">
-        <v>0.5688951749851748</v>
+        <v>0.1895724556055172</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04781918936033962</v>
+        <v>0.1003662727890531</v>
       </c>
       <c r="L128" t="n">
-        <v>0.9098154700668543</v>
+        <v>0.4621486093545977</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04780025713804346</v>
+        <v>0.1003335929258239</v>
       </c>
       <c r="N128" t="n">
-        <v>0.2325947124389204</v>
+        <v>0.7410220802488956</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04791693069665823</v>
+        <v>0.1003594779660054</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.2328856706887678</v>
+        <v>0.03930919089129448</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04867751689819249</v>
+        <v>0.1015206446716031</v>
       </c>
       <c r="J129" t="n">
-        <v>0.5672714663273236</v>
+        <v>0.1869257051351249</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04857822411209105</v>
+        <v>0.1019593882301492</v>
       </c>
       <c r="L129" t="n">
-        <v>0.9074310529912341</v>
+        <v>0.4561530968979886</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04855899137832986</v>
+        <v>0.1019261896389322</v>
       </c>
       <c r="N129" t="n">
-        <v>0.2328856706887678</v>
+        <v>0.7334909950679562</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04867751689819249</v>
+        <v>0.1019524855527674</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.2334493380003964</v>
+        <v>0.04277134388487816</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04943810309972674</v>
+        <v>0.1031069047445969</v>
       </c>
       <c r="J130" t="n">
-        <v>0.5670234721908742</v>
+        <v>0.1849088378698291</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04933725886384247</v>
+        <v>0.1035525036712452</v>
       </c>
       <c r="L130" t="n">
-        <v>0.9019185643601372</v>
+        <v>0.4517909145606173</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04931772561861626</v>
+        <v>0.1035187863520405</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2334493380003964</v>
+        <v>0.718889029846171</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04943810309972674</v>
+        <v>0.1035454931395294</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.2322871362796399</v>
+        <v>0.04023250198612778</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05019868930126101</v>
+        <v>0.1046931648175907</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5680616452103561</v>
+        <v>0.1833635713265214</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05009629361559389</v>
+        <v>0.1051456191123413</v>
       </c>
       <c r="L131" t="n">
-        <v>0.9074858874931645</v>
+        <v>0.445463856156234</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05007645985890266</v>
+        <v>0.1051113830651488</v>
       </c>
       <c r="N131" t="n">
-        <v>0.2322871362796399</v>
+        <v>0.7065782207776636</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05019868930126101</v>
+        <v>0.1051385007262914</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.2317004874323317</v>
+        <v>0.03970217807318795</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05095927550279526</v>
+        <v>0.1062794248905845</v>
       </c>
       <c r="J132" t="n">
-        <v>0.5650964380202985</v>
+        <v>0.1818316230220938</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05085532836734532</v>
+        <v>0.1067387345534374</v>
       </c>
       <c r="L132" t="n">
-        <v>0.9052409057099172</v>
+        <v>0.4433737154985892</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05083519409918907</v>
+        <v>0.1067039797782571</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2317004874323317</v>
+        <v>0.7063206040565585</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05095927550279526</v>
+        <v>0.1067315083130534</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.2323908133643053</v>
+        <v>0.04018988502420325</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05171986170432952</v>
+        <v>0.1078656849635782</v>
       </c>
       <c r="J133" t="n">
-        <v>0.5620383032552311</v>
+        <v>0.1775547104734381</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05161436311909674</v>
+        <v>0.1083318499945335</v>
       </c>
       <c r="L133" t="n">
-        <v>0.9006915023299974</v>
+        <v>0.4335222864014329</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05159392833947547</v>
+        <v>0.1082965764913655</v>
       </c>
       <c r="N133" t="n">
-        <v>0.2323908133643053</v>
+        <v>0.6944782158769798</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05171986170432952</v>
+        <v>0.1083245158998154</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.2313595359813942</v>
+        <v>0.03570513571731826</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05248044790586377</v>
+        <v>0.109451945036572</v>
       </c>
       <c r="J134" t="n">
-        <v>0.5625976935496833</v>
+        <v>0.1761745511974462</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05237339787084816</v>
+        <v>0.1099249654356295</v>
       </c>
       <c r="L134" t="n">
-        <v>0.8966455606730056</v>
+        <v>0.4291113626785158</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05235266257976188</v>
+        <v>0.1098891732044738</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2313595359813942</v>
+        <v>0.6810130924330515</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05248044790586377</v>
+        <v>0.1099175234865774</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.2311080771894322</v>
+        <v>0.03625744303067767</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05324103410739803</v>
+        <v>0.1110382051095659</v>
       </c>
       <c r="J135" t="n">
-        <v>0.5620850615381847</v>
+        <v>0.17303286271101</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05313243262259958</v>
+        <v>0.1115180808767256</v>
       </c>
       <c r="L135" t="n">
-        <v>0.897810964058544</v>
+        <v>0.4236427381435882</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05311139682004828</v>
+        <v>0.1114817699175821</v>
       </c>
       <c r="N135" t="n">
-        <v>0.2311080771894322</v>
+        <v>0.6752872699188979</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05324103410739803</v>
+        <v>0.1115105310733394</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.2306378588942523</v>
+        <v>0.038856319842426</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05400162030893229</v>
+        <v>0.1126244651825596</v>
       </c>
       <c r="J136" t="n">
-        <v>0.5595108598552648</v>
+        <v>0.1715713625310211</v>
       </c>
       <c r="K136" t="n">
-        <v>0.053891467374351</v>
+        <v>0.1131111963178217</v>
       </c>
       <c r="L136" t="n">
-        <v>0.8989955958062127</v>
+        <v>0.4187182066104003</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05387013106033468</v>
+        <v>0.1130743666306904</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2306378588942523</v>
+        <v>0.6668627845286432</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05400162030893229</v>
+        <v>0.1131035386601014</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.2306503030016884</v>
+        <v>0.0365112790307079</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05476220651046655</v>
+        <v>0.1142107252555534</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5547855411354531</v>
+        <v>0.1715317681743717</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05465050212610242</v>
+        <v>0.1147043117589178</v>
       </c>
       <c r="L137" t="n">
-        <v>0.8921073392356146</v>
+        <v>0.4187395618927027</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05462886530062109</v>
+        <v>0.1146669633437987</v>
       </c>
       <c r="N137" t="n">
-        <v>0.2306503030016884</v>
+        <v>0.6623016724564117</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05476220651046655</v>
+        <v>0.1146965462468633</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.2305468314175739</v>
+        <v>0.03523183347366798</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0555227927120008</v>
+        <v>0.1157969853285472</v>
       </c>
       <c r="J138" t="n">
-        <v>0.5545195580132788</v>
+        <v>0.1692557971579534</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05540953687785385</v>
+        <v>0.1162974272000139</v>
       </c>
       <c r="L138" t="n">
-        <v>0.8962540776663498</v>
+        <v>0.4160085978042456</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0553875995409075</v>
+        <v>0.116259560056907</v>
       </c>
       <c r="N138" t="n">
-        <v>0.2305468314175739</v>
+        <v>0.6601659698963274</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0555227927120008</v>
+        <v>0.1162895538336253</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.2297288660477422</v>
+        <v>0.03702749604945085</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05628337891353506</v>
+        <v>0.117383245401541</v>
       </c>
       <c r="J139" t="n">
-        <v>0.5545233631232719</v>
+        <v>0.1681851669986582</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05616857162960527</v>
+        <v>0.11789054264111</v>
       </c>
       <c r="L139" t="n">
-        <v>0.89194369441802</v>
+        <v>0.4114271081587793</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05614633378119389</v>
+        <v>0.1178521567700154</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2297288660477422</v>
+        <v>0.6502177130425145</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05628337891353506</v>
+        <v>0.1178825614203873</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.2302978287980271</v>
+        <v>0.03490777963620109</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05704396511506932</v>
+        <v>0.1189695054745348</v>
       </c>
       <c r="J140" t="n">
-        <v>0.5512074090999615</v>
+        <v>0.168361595213378</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05692760638135669</v>
+        <v>0.119483658082206</v>
       </c>
       <c r="L140" t="n">
-        <v>0.8893840728102268</v>
+        <v>0.4097968867700543</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0569050680214803</v>
+        <v>0.1194447534831237</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2302978287980271</v>
+        <v>0.6528189380890975</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05704396511506932</v>
+        <v>0.1194755690071493</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.2296551415742619</v>
+        <v>0.03787966885621644</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05780455131660358</v>
+        <v>0.1205557655475286</v>
       </c>
       <c r="J141" t="n">
-        <v>0.5466821485778772</v>
+        <v>0.1680267993190044</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05768664113310812</v>
+        <v>0.1210767735233021</v>
       </c>
       <c r="L141" t="n">
-        <v>0.8865830961625715</v>
+        <v>0.4066197274518208</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05766380226176671</v>
+        <v>0.121037350196232</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2296551415742619</v>
+        <v>0.6524316812302005</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05780455131660358</v>
+        <v>0.1210685765939113</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.2276022262822801</v>
+        <v>0.03889039319883235</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05856513751813783</v>
+        <v>0.1221420256205224</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5466580341915485</v>
+        <v>0.1664244789375794</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05844567588485954</v>
+        <v>0.1226698889643982</v>
       </c>
       <c r="L142" t="n">
-        <v>0.886848647794655</v>
+        <v>0.4080300822322183</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05842253650205311</v>
+        <v>0.1226299469093403</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2276022262822801</v>
+        <v>0.6475281552922871</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05856513751813783</v>
+        <v>0.1226615841806733</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.2284405048279152</v>
+        <v>0.03391503045673576</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0593257237196721</v>
+        <v>0.1237282856935162</v>
       </c>
       <c r="J143" t="n">
-        <v>0.5453455185755047</v>
+        <v>0.167500210203146</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05920471063661096</v>
+        <v>0.1242630044054943</v>
       </c>
       <c r="L143" t="n">
-        <v>0.8804886110260793</v>
+        <v>0.410020862455911</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05918127074233952</v>
+        <v>0.1242225436224486</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2284405048279152</v>
+        <v>0.6468242884009738</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0593257237196721</v>
+        <v>0.1242545917674353</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.227671399117001</v>
+        <v>0.03595288162710583</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06008630992120635</v>
+        <v>0.12531454576651</v>
       </c>
       <c r="J144" t="n">
-        <v>0.5425550543642756</v>
+        <v>0.1664352361227052</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05996374538836239</v>
+        <v>0.1258561198465904</v>
       </c>
       <c r="L144" t="n">
-        <v>0.8847108691764453</v>
+        <v>0.4085560783410412</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05994000498262592</v>
+        <v>0.1258151403355569</v>
       </c>
       <c r="N144" t="n">
-        <v>0.227671399117001</v>
+        <v>0.6480506476146816</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06008630992120635</v>
+        <v>0.1258475993541973</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.2276963310553706</v>
+        <v>0.03700324770712175</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06084689612274061</v>
+        <v>0.1269008058395038</v>
       </c>
       <c r="J145" t="n">
-        <v>0.5426970941923906</v>
+        <v>0.1675264913083122</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06072278014011381</v>
+        <v>0.1274492352876865</v>
       </c>
       <c r="L145" t="n">
-        <v>0.8759233055653545</v>
+        <v>0.4118282501152549</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06069873922291232</v>
+        <v>0.1274077370486653</v>
       </c>
       <c r="N145" t="n">
-        <v>0.2276963310553706</v>
+        <v>0.6496953265728909</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06084689612274061</v>
+        <v>0.1274406069409593</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.2268167225488579</v>
+        <v>0.03606542969396269</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06160748232427488</v>
+        <v>0.1284870659124976</v>
       </c>
       <c r="J146" t="n">
-        <v>0.5381820906943792</v>
+        <v>0.1671709103720223</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06148181489186523</v>
+        <v>0.1290423507287825</v>
       </c>
       <c r="L146" t="n">
-        <v>0.8784338035124079</v>
+        <v>0.4074298980061979</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06145747346319873</v>
+        <v>0.1290003337617736</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2268167225488579</v>
+        <v>0.647446418915082</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06160748232427488</v>
+        <v>0.1290336145277212</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.2255339955032961</v>
+        <v>0.03813872858480781</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06236806852580912</v>
+        <v>0.1300733259854914</v>
       </c>
       <c r="J147" t="n">
-        <v>0.5389204965047708</v>
+        <v>0.1679654279258904</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06224084964361666</v>
+        <v>0.1306354661698786</v>
       </c>
       <c r="L147" t="n">
-        <v>0.8720502463372074</v>
+        <v>0.4115535422415159</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06221620770348513</v>
+        <v>0.1305929304748819</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2255339955032961</v>
+        <v>0.6508920182807352</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06236806852580912</v>
+        <v>0.1306266221144833</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.2259495718245189</v>
+        <v>0.03522244537683629</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06312865472734339</v>
+        <v>0.1316595860584852</v>
       </c>
       <c r="J148" t="n">
-        <v>0.5398227642580948</v>
+        <v>0.1678069785819717</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06299988439536808</v>
+        <v>0.1322285816109747</v>
       </c>
       <c r="L148" t="n">
-        <v>0.8718805173593539</v>
+        <v>0.4086917030488549</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06297494194377154</v>
+        <v>0.1321855271879902</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2259495718245189</v>
+        <v>0.6525202183093312</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06312865472734339</v>
+        <v>0.1322196297012452</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.2247648734183597</v>
+        <v>0.03831588106722728</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06388924092887764</v>
+        <v>0.133245846131479</v>
       </c>
       <c r="J149" t="n">
-        <v>0.5345993465888809</v>
+        <v>0.1685924969523215</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06375891914711949</v>
+        <v>0.1338216970520708</v>
       </c>
       <c r="L149" t="n">
-        <v>0.8741324998984487</v>
+        <v>0.4096369006558609</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06373367618405794</v>
+        <v>0.1337781239010985</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2247648734183597</v>
+        <v>0.6592191126403498</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06388924092887764</v>
+        <v>0.1338126372880072</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.2252813221906521</v>
+        <v>0.03841833665315998</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0646498271304119</v>
+        <v>0.1348321062044728</v>
       </c>
       <c r="J150" t="n">
-        <v>0.5321606961316585</v>
+        <v>0.1693189176489949</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06451795389887093</v>
+        <v>0.1354148124931668</v>
       </c>
       <c r="L150" t="n">
-        <v>0.8654140772740936</v>
+        <v>0.4130816552901796</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06449241042434434</v>
+        <v>0.1353707206142068</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2252813221906521</v>
+        <v>0.654976794913272</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0646498271304119</v>
+        <v>0.1354056448747692</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.2252003400472296</v>
+        <v>0.03552911313181357</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06541041333194615</v>
+        <v>0.1364183662774666</v>
       </c>
       <c r="J151" t="n">
-        <v>0.5351172655209573</v>
+        <v>0.1695831752840469</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06527698865062234</v>
+        <v>0.1370079279342629</v>
       </c>
       <c r="L151" t="n">
-        <v>0.8704331328058897</v>
+        <v>0.4142184871794569</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06525114466463075</v>
+        <v>0.1369633173273151</v>
       </c>
       <c r="N151" t="n">
-        <v>0.2252003400472296</v>
+        <v>0.6627813587675777</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06541041333194615</v>
+        <v>0.1369986524615312</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.2228233488939257</v>
+        <v>0.03764751150036719</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06617099953348041</v>
+        <v>0.1380046263504604</v>
       </c>
       <c r="J152" t="n">
-        <v>0.5304795073913063</v>
+        <v>0.1705822044695328</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06603602340237376</v>
+        <v>0.138601043375359</v>
       </c>
       <c r="L152" t="n">
-        <v>0.8662975498134385</v>
+        <v>0.4150399165513384</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06600987890491715</v>
+        <v>0.1385559140404235</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2228233488939257</v>
+        <v>0.6640208978427474</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06617099953348041</v>
+        <v>0.1385916600482932</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.2228517706365739</v>
+        <v>0.03477283275600003</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06693158573501468</v>
+        <v>0.1395908864234542</v>
       </c>
       <c r="J153" t="n">
-        <v>0.5304578743772353</v>
+        <v>0.1697129398175076</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06679505815412519</v>
+        <v>0.1401941588164551</v>
       </c>
       <c r="L153" t="n">
-        <v>0.862115211616341</v>
+        <v>0.4183384636334704</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06676861314520355</v>
+        <v>0.1401485107535318</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2228517706365739</v>
+        <v>0.6597835057782616</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06693158573501468</v>
+        <v>0.1401846676350552</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.2219870271810078</v>
+        <v>0.03994830921625901</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06769217193654893</v>
+        <v>0.141177146496448</v>
       </c>
       <c r="J154" t="n">
-        <v>0.5295611872050365</v>
+        <v>0.1716097147857453</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06755409290587662</v>
+        <v>0.1417872742575512</v>
       </c>
       <c r="L154" t="n">
-        <v>0.8585940015341985</v>
+        <v>0.4178163999015114</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06752734738548996</v>
+        <v>0.1417411074666401</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2219870271810078</v>
+        <v>0.6669084383067559</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06769217193654893</v>
+        <v>0.1417776752218172</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.2216305404330608</v>
+        <v>0.03823917311921864</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06845275813808319</v>
+        <v>0.1427634065694418</v>
       </c>
       <c r="J155" t="n">
-        <v>0.5278418198757576</v>
+        <v>0.171545118418589</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06831312765762804</v>
+        <v>0.1433803896986472</v>
       </c>
       <c r="L155" t="n">
-        <v>0.8582418028866127</v>
+        <v>0.4230886050564016</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06828608162577636</v>
+        <v>0.1433337041797484</v>
       </c>
       <c r="N155" t="n">
-        <v>0.2216305404330608</v>
+        <v>0.6732452488021639</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06845275813808319</v>
+        <v>0.1433706828085792</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.2229837322985664</v>
+        <v>0.03562587163492906</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06921334433961744</v>
+        <v>0.1443496666424356</v>
       </c>
       <c r="J156" t="n">
-        <v>0.5296712470064247</v>
+        <v>0.1742423874905726</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06907216240937945</v>
+        <v>0.1449735051397433</v>
       </c>
       <c r="L156" t="n">
-        <v>0.854458458880443</v>
+        <v>0.4265801466138888</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06904481586606277</v>
+        <v>0.1449263008928567</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2229837322985664</v>
+        <v>0.6779734729579493</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06921334433961744</v>
+        <v>0.1449636903953412</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.2210480246833582</v>
+        <v>0.04008730355533294</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06997393054115171</v>
+        <v>0.1459359267154294</v>
       </c>
       <c r="J157" t="n">
-        <v>0.5269462178737875</v>
+        <v>0.1757089853382183</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06983119716113088</v>
+        <v>0.1465666205808394</v>
       </c>
       <c r="L157" t="n">
-        <v>0.8533130189659194</v>
+        <v>0.4294652282996758</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06980355010634917</v>
+        <v>0.146518897605965</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2210480246833582</v>
+        <v>0.6803336864870502</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06997393054115171</v>
+        <v>0.1465566979821032</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.2220248394932698</v>
+        <v>0.03860236767237298</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07073451674268595</v>
+        <v>0.1475221867884232</v>
       </c>
       <c r="J158" t="n">
-        <v>0.5270634817545961</v>
+        <v>0.1790523752980487</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0705902319128823</v>
+        <v>0.1481597360219355</v>
       </c>
       <c r="L158" t="n">
-        <v>0.8522990692878404</v>
+        <v>0.4362180538394655</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07056228434663557</v>
+        <v>0.1481114943190734</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2220248394932698</v>
+        <v>0.6920664651024044</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07073451674268595</v>
+        <v>0.1481497055688651</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.2218080691182313</v>
+        <v>0.04014996277799181</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07149510294422022</v>
+        <v>0.149108446861417</v>
       </c>
       <c r="J159" t="n">
-        <v>0.5248197879256004</v>
+        <v>0.1813800207065863</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07134926666463372</v>
+        <v>0.1497528514630316</v>
       </c>
       <c r="L159" t="n">
-        <v>0.8477137926820887</v>
+        <v>0.4432128269589606</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07132101858692198</v>
+        <v>0.1497040910321817</v>
       </c>
       <c r="N159" t="n">
-        <v>0.2218080691182313</v>
+        <v>0.7047123845169502</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07149510294422022</v>
+        <v>0.1497427131556271</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.2194878010070378</v>
+        <v>0.04270898766413211</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07225568914575448</v>
+        <v>0.1506947069344108</v>
       </c>
       <c r="J160" t="n">
-        <v>0.5241118856635499</v>
+        <v>0.1833993849003535</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07210830141638515</v>
+        <v>0.1513459669041277</v>
       </c>
       <c r="L160" t="n">
-        <v>0.8467543719845473</v>
+        <v>0.4455237513838637</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07207975282720838</v>
+        <v>0.15129668774529</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2194878010070378</v>
+        <v>0.7126120204436255</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07225568914575448</v>
+        <v>0.1513357207423891</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.2205638522609753</v>
+        <v>0.03925834112273655</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07301627534728873</v>
+        <v>0.1522809670074046</v>
       </c>
       <c r="J161" t="n">
-        <v>0.5258365242451947</v>
+        <v>0.1843179312158728</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07286733616813656</v>
+        <v>0.1529390823452237</v>
       </c>
       <c r="L161" t="n">
-        <v>0.8521179900311001</v>
+        <v>0.4507250308398779</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07283848706749478</v>
+        <v>0.1528892844583983</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2205638522609753</v>
+        <v>0.7205059485953682</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07301627534728873</v>
+        <v>0.1529287283291511</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.220736103094459</v>
+        <v>0.04177692194574778</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07377686154882299</v>
+        <v>0.1538672270803984</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5245904529472847</v>
+        <v>0.1864431229896666</v>
       </c>
       <c r="K162" t="n">
-        <v>0.073626370919888</v>
+        <v>0.1545321977863198</v>
       </c>
       <c r="L162" t="n">
-        <v>0.8457018296576296</v>
+        <v>0.4604908690527055</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07359722130778119</v>
+        <v>0.1544818811715066</v>
       </c>
       <c r="N162" t="n">
-        <v>0.220736103094459</v>
+        <v>0.7252347446851165</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07377686154882299</v>
+        <v>0.1545217359159131</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.2199044337219038</v>
+        <v>0.04024362892510849</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07453744775035726</v>
+        <v>0.1554534871533922</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5214704210465696</v>
+        <v>0.1905824235582574</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07438540567163943</v>
+        <v>0.1561253132274159</v>
       </c>
       <c r="L163" t="n">
-        <v>0.8471030737000195</v>
+        <v>0.4601954697480497</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07435595554806759</v>
+        <v>0.1560744778846149</v>
       </c>
       <c r="N163" t="n">
-        <v>0.2199044337219038</v>
+        <v>0.7356389844258083</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07453744775035726</v>
+        <v>0.1561147435026751</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.2177687243577249</v>
+        <v>0.0406478372660445</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0752980339518915</v>
+        <v>0.157039747226386</v>
       </c>
       <c r="J164" t="n">
-        <v>0.5227731778197996</v>
+        <v>0.1914446004848415</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07514444042339084</v>
+        <v>0.157718428668512</v>
       </c>
       <c r="L164" t="n">
-        <v>0.8465189049941527</v>
+        <v>0.4704189590558701</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07511468978835401</v>
+        <v>0.1576670745977233</v>
       </c>
       <c r="N164" t="n">
-        <v>0.2177687243577249</v>
+        <v>0.741565104161198</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0752980339518915</v>
+        <v>0.1577077510894371</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.2189288552163373</v>
+        <v>0.04403434131386826</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07605862015342577</v>
+        <v>0.1586260072993798</v>
       </c>
       <c r="J165" t="n">
-        <v>0.518995472543724</v>
+        <v>0.1924429635495319</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07590347517514226</v>
+        <v>0.159311544109608</v>
       </c>
       <c r="L165" t="n">
-        <v>0.8413465063759124</v>
+        <v>0.4693624269006833</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07587342402864039</v>
+        <v>0.1592596713108316</v>
       </c>
       <c r="N165" t="n">
-        <v>0.2189288552163373</v>
+        <v>0.7545615442254522</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07605862015342577</v>
+        <v>0.1593007586761991</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.2172847065121559</v>
+        <v>0.04041172090207751</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07681920635496002</v>
+        <v>0.1602122673723736</v>
       </c>
       <c r="J166" t="n">
-        <v>0.523634054495093</v>
+        <v>0.1945002340761742</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07666250992689369</v>
+        <v>0.1609046595507041</v>
       </c>
       <c r="L166" t="n">
-        <v>0.8449830606811811</v>
+        <v>0.4772058242398581</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0766321582689268</v>
+        <v>0.1608522680239399</v>
       </c>
       <c r="N166" t="n">
-        <v>0.2172847065121559</v>
+        <v>0.7553984412126359</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07681920635496002</v>
+        <v>0.1608937662629611</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.2169361584595956</v>
+        <v>0.04378064542450194</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07757979255649428</v>
+        <v>0.1617985274453674</v>
       </c>
       <c r="J167" t="n">
-        <v>0.5224856729506564</v>
+        <v>0.1969193476062489</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07742154467864511</v>
+        <v>0.1624977749918002</v>
       </c>
       <c r="L167" t="n">
-        <v>0.8376257507458432</v>
+        <v>0.4780563140108134</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07739089250921322</v>
+        <v>0.1624448647370482</v>
       </c>
       <c r="N167" t="n">
-        <v>0.2169361584595956</v>
+        <v>0.762887197142924</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07757979255649428</v>
+        <v>0.1624867738497231</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.2157830912730717</v>
+        <v>0.04214178427497114</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07834037875802853</v>
+        <v>0.1633847875183612</v>
       </c>
       <c r="J168" t="n">
-        <v>0.5223470771871641</v>
+        <v>0.197303239681237</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07818057943039652</v>
+        <v>0.1640908904328963</v>
       </c>
       <c r="L168" t="n">
-        <v>0.838571759405781</v>
+        <v>0.4818210591509675</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07814962674949961</v>
+        <v>0.1640374614501565</v>
       </c>
       <c r="N168" t="n">
-        <v>0.2157830912730717</v>
+        <v>0.7649392140364911</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07834037875802853</v>
+        <v>0.1640797814364851</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.2167253851669991</v>
+        <v>0.0454958068473148</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07910096495956279</v>
+        <v>0.164971047591355</v>
       </c>
       <c r="J169" t="n">
-        <v>0.5220150164813659</v>
+        <v>0.1998548458426193</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07893961418214794</v>
+        <v>0.1656840058739924</v>
       </c>
       <c r="L169" t="n">
-        <v>0.8342182694968779</v>
+        <v>0.4851072225977392</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07890836098978601</v>
+        <v>0.1656300581632648</v>
       </c>
       <c r="N169" t="n">
-        <v>0.2167253851669991</v>
+        <v>0.7754658939135129</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07910096495956279</v>
+        <v>0.1656727890232471</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.2149629203557929</v>
+        <v>0.04284338253536256</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07986155116109706</v>
+        <v>0.1665573076643488</v>
       </c>
       <c r="J170" t="n">
-        <v>0.5189862401100117</v>
+        <v>0.2014771016318767</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07969864893389937</v>
+        <v>0.1672771213150885</v>
       </c>
       <c r="L170" t="n">
-        <v>0.8350624638550169</v>
+        <v>0.4919219672885473</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07966709523007243</v>
+        <v>0.1672226548763731</v>
       </c>
       <c r="N170" t="n">
-        <v>0.2149629203557929</v>
+        <v>0.7794786387941638</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07986155116109706</v>
+        <v>0.167265796610009</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.216095577053868</v>
+        <v>0.04318518073294406</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08062213736263131</v>
+        <v>0.1681435677373425</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5171574973498512</v>
+        <v>0.20207294259049</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0804576836856508</v>
+        <v>0.1688702367561845</v>
       </c>
       <c r="L171" t="n">
-        <v>0.8363015253160816</v>
+        <v>0.4922724561608103</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08042582947035883</v>
+        <v>0.1688152515894815</v>
       </c>
       <c r="N171" t="n">
-        <v>0.216095577053868</v>
+        <v>0.7863888506986191</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08062213736263131</v>
+        <v>0.168858804196771</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.2158232354756394</v>
+        <v>0.04752187083388895</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08138272356416557</v>
+        <v>0.1697298278103364</v>
       </c>
       <c r="J172" t="n">
-        <v>0.5161255374776343</v>
+        <v>0.20374530425994</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08121671843740222</v>
+        <v>0.1704633521972806</v>
       </c>
       <c r="L172" t="n">
-        <v>0.8316326367159547</v>
+        <v>0.4999658521519467</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08118456371064524</v>
+        <v>0.1704078483025898</v>
       </c>
       <c r="N172" t="n">
-        <v>0.2158232354756394</v>
+        <v>0.7943079316470533</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08138272356416557</v>
+        <v>0.170451811783533</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.2138457758355223</v>
+        <v>0.04685412223202691</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08214330976569982</v>
+        <v>0.1713160878833302</v>
       </c>
       <c r="J173" t="n">
-        <v>0.514887109770111</v>
+        <v>0.2045971221817077</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08197575318915365</v>
+        <v>0.1720564676383767</v>
       </c>
       <c r="L173" t="n">
-        <v>0.8326529808905195</v>
+        <v>0.5004093181993752</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08194329795093164</v>
+        <v>0.1720004450156981</v>
       </c>
       <c r="N173" t="n">
-        <v>0.2138457758355223</v>
+        <v>0.8006472836596413</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08214330976569982</v>
+        <v>0.172044819370295</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.2135630783479316</v>
+        <v>0.04818260432118755</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08290389596723409</v>
+        <v>0.1729023479563239</v>
       </c>
       <c r="J174" t="n">
-        <v>0.5191389635040312</v>
+        <v>0.2080313318972738</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08273478794090507</v>
+        <v>0.1736495830794728</v>
       </c>
       <c r="L174" t="n">
-        <v>0.8283597406756592</v>
+        <v>0.5058100172405147</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08270203219121804</v>
+        <v>0.1735930417288064</v>
       </c>
       <c r="N174" t="n">
-        <v>0.2135630783479316</v>
+        <v>0.8075183087565588</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08290389596723409</v>
+        <v>0.173637826957057</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.2137750232272824</v>
+        <v>0.04750798649520054</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08366448216876833</v>
+        <v>0.1744886080293178</v>
       </c>
       <c r="J175" t="n">
-        <v>0.5151778479561444</v>
+        <v>0.2086508689481192</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08349382269265648</v>
+        <v>0.1752426985205689</v>
       </c>
       <c r="L175" t="n">
-        <v>0.8256500989072569</v>
+        <v>0.5100751122127835</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08346076643150445</v>
+        <v>0.1751856384419147</v>
       </c>
       <c r="N175" t="n">
-        <v>0.2137750232272824</v>
+        <v>0.8120324089579799</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08366448216876833</v>
+        <v>0.175230834543819</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.2140814906879896</v>
+        <v>0.0478418453319078</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0844250683703026</v>
+        <v>0.1760748681023116</v>
       </c>
       <c r="J176" t="n">
-        <v>0.5143005124032007</v>
+        <v>0.2088751721316929</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08425285744440791</v>
+        <v>0.176835813961665</v>
       </c>
       <c r="L176" t="n">
-        <v>0.8280212384211959</v>
+        <v>0.5139565245171197</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08421950067179085</v>
+        <v>0.176778235155023</v>
       </c>
       <c r="N176" t="n">
-        <v>0.2140814906879896</v>
+        <v>0.8190665436876098</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0844250683703026</v>
+        <v>0.176823842130581</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.2122823609444683</v>
+        <v>0.04719373491931214</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08518565457183686</v>
+        <v>0.1776611281753053</v>
       </c>
       <c r="J177" t="n">
-        <v>0.5162037061219501</v>
+        <v>0.2112810199873228</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08501189219615933</v>
+        <v>0.178428929402761</v>
       </c>
       <c r="L177" t="n">
-        <v>0.8245703420533591</v>
+        <v>0.518238355067197</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08497823491207725</v>
+        <v>0.1783708318681314</v>
       </c>
       <c r="N177" t="n">
-        <v>0.2122823609444683</v>
+        <v>0.8220179281211849</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08518565457183686</v>
+        <v>0.178416849717343</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.2125775142111335</v>
+        <v>0.0445523282780645</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08594624077337111</v>
+        <v>0.1792473882482991</v>
       </c>
       <c r="J178" t="n">
-        <v>0.5123841783891422</v>
+        <v>0.2137350184649369</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08577092694791075</v>
+        <v>0.1800220448438571</v>
       </c>
       <c r="L178" t="n">
-        <v>0.8216945926396301</v>
+        <v>0.5207342281831551</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08573696915236366</v>
+        <v>0.1799634285812397</v>
       </c>
       <c r="N178" t="n">
-        <v>0.2125775142111335</v>
+        <v>0.8287551947005035</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08594624077337111</v>
+        <v>0.180009857304105</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.2109668307024002</v>
+        <v>0.04590612640280037</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08670682697490537</v>
+        <v>0.180833648321293</v>
       </c>
       <c r="J179" t="n">
-        <v>0.514938678481527</v>
+        <v>0.2146867401393914</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08652996169966218</v>
+        <v>0.1816151602849532</v>
       </c>
       <c r="L179" t="n">
-        <v>0.8199911730158919</v>
+        <v>0.5211210972336169</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08649570339265006</v>
+        <v>0.181556025294348</v>
       </c>
       <c r="N179" t="n">
-        <v>0.2109668307024002</v>
+        <v>0.8351824768290256</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08670682697490537</v>
+        <v>0.181602864890867</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.2115501906326836</v>
+        <v>0.04624363028815519</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08746741317643963</v>
+        <v>0.1824199083942867</v>
       </c>
       <c r="J180" t="n">
-        <v>0.5134639556758541</v>
+        <v>0.2156857575855433</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08728899645141359</v>
+        <v>0.1832082757260493</v>
       </c>
       <c r="L180" t="n">
-        <v>0.8164572660180268</v>
+        <v>0.5254759155872057</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08725443763293646</v>
+        <v>0.1831486220074563</v>
       </c>
       <c r="N180" t="n">
-        <v>0.2115501906326836</v>
+        <v>0.8348039079102106</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08746741317643963</v>
+        <v>0.1831958724776289</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.2116274742163984</v>
+        <v>0.04855334092876441</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08822799937797388</v>
+        <v>0.1840061684672805</v>
       </c>
       <c r="J181" t="n">
-        <v>0.5094567592488737</v>
+        <v>0.2180816433782491</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08804803120316503</v>
+        <v>0.1848013911671453</v>
       </c>
       <c r="L181" t="n">
-        <v>0.8221900544819191</v>
+        <v>0.5300756366125451</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08801317187322286</v>
+        <v>0.1847412187205646</v>
       </c>
       <c r="N181" t="n">
-        <v>0.2116274742163984</v>
+        <v>0.8411236213475192</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08822799937797388</v>
+        <v>0.184788880064391</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.2089985616679599</v>
+        <v>0.0508237593192635</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08898858557950814</v>
+        <v>0.1855924285402744</v>
       </c>
       <c r="J182" t="n">
-        <v>0.5134138384773352</v>
+        <v>0.2179239700923656</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08880706595491646</v>
+        <v>0.1863945066082414</v>
       </c>
       <c r="L182" t="n">
-        <v>0.8212867212434517</v>
+        <v>0.5364972136782572</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08877190611350927</v>
+        <v>0.1863338154336729</v>
       </c>
       <c r="N182" t="n">
-        <v>0.2089985616679599</v>
+        <v>0.8490457505444112</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08898858557950814</v>
+        <v>0.1863818876511529</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.2105633332017829</v>
+        <v>0.04704338645428791</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0897491717810424</v>
+        <v>0.1871786886132681</v>
       </c>
       <c r="J183" t="n">
-        <v>0.5113319426379891</v>
+        <v>0.2201623103027494</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08956610070666787</v>
+        <v>0.1879876220493375</v>
       </c>
       <c r="L183" t="n">
-        <v>0.8137444491385074</v>
+        <v>0.5337176001529662</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08953064035379568</v>
+        <v>0.1879264121467813</v>
       </c>
       <c r="N183" t="n">
-        <v>0.2105633332017829</v>
+        <v>0.8513744289043464</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0897491717810424</v>
+        <v>0.1879748952379149</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.2084216690322827</v>
+        <v>0.04620128435359536</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09050975798257666</v>
+        <v>0.1887649486862619</v>
       </c>
       <c r="J184" t="n">
-        <v>0.5086078210075847</v>
+        <v>0.221046236584257</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09032513545841929</v>
+        <v>0.1895807374904336</v>
       </c>
       <c r="L184" t="n">
-        <v>0.81726042100297</v>
+        <v>0.5409137494052944</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09028937459408208</v>
+        <v>0.1895190088598896</v>
       </c>
       <c r="N184" t="n">
-        <v>0.2084216690322827</v>
+        <v>0.858013789830785</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09050975798257666</v>
+        <v>0.1895679028246769</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.2078734493738741</v>
+        <v>0.05133118797417191</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09127034418411091</v>
+        <v>0.1903512087592557</v>
       </c>
       <c r="J185" t="n">
-        <v>0.5109382228628722</v>
+        <v>0.2201222297241569</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09108417021017072</v>
+        <v>0.1911738529315297</v>
       </c>
       <c r="L185" t="n">
-        <v>0.8102318196727217</v>
+        <v>0.5415154858692693</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09104810883436848</v>
+        <v>0.1911116055729979</v>
       </c>
       <c r="N185" t="n">
-        <v>0.2078734493738741</v>
+        <v>0.8540497242190322</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09127034418411091</v>
+        <v>0.1911609104114389</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.2073185544409723</v>
+        <v>0.04945835124713963</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09203093038564517</v>
+        <v>0.1919374688322495</v>
       </c>
       <c r="J186" t="n">
-        <v>0.5107198974806012</v>
+        <v>0.22077916158333</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09184320496192214</v>
+        <v>0.1927669683726257</v>
       </c>
       <c r="L186" t="n">
-        <v>0.8060558279836464</v>
+        <v>0.5435745772642986</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09180684307465489</v>
+        <v>0.1927042022861062</v>
       </c>
       <c r="N186" t="n">
-        <v>0.2073185544409723</v>
+        <v>0.8574129643736373</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09203093038564517</v>
+        <v>0.1927539179982009</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.208456864447992</v>
+        <v>0.04658273185460279</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09279151658717943</v>
+        <v>0.1935237289052433</v>
       </c>
       <c r="J187" t="n">
-        <v>0.5076495941375216</v>
+        <v>0.221824005216652</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09260223971367355</v>
+        <v>0.1943600838137218</v>
       </c>
       <c r="L187" t="n">
-        <v>0.8114296287716271</v>
+        <v>0.5410041513863384</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09256557731494129</v>
+        <v>0.1942967989992145</v>
       </c>
       <c r="N187" t="n">
-        <v>0.208456864447992</v>
+        <v>0.8588292453208287</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09279151658717943</v>
+        <v>0.1943469255849629</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.2064793465596538</v>
+        <v>0.05070428747866562</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09355210278871369</v>
+        <v>0.1951099889782371</v>
       </c>
       <c r="J188" t="n">
-        <v>0.5035240621103836</v>
+        <v>0.2222565750443746</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09336127446542497</v>
+        <v>0.1959531992548179</v>
       </c>
       <c r="L188" t="n">
-        <v>0.8083504048725468</v>
+        <v>0.5456037554071352</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09332431155522769</v>
+        <v>0.1958893957123228</v>
       </c>
       <c r="N188" t="n">
-        <v>0.2064793465596538</v>
+        <v>0.8678978462450265</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09355210278871369</v>
+        <v>0.1959399331717249</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.2071666643236934</v>
+        <v>0.05182297580143239</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09431268899024794</v>
+        <v>0.1966962490512309</v>
       </c>
       <c r="J189" t="n">
-        <v>0.5051400506759365</v>
+        <v>0.2221766854867498</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0941203092171764</v>
+        <v>0.197546314695914</v>
       </c>
       <c r="L189" t="n">
-        <v>0.8007153391222889</v>
+        <v>0.5474729364984354</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0940830457955141</v>
+        <v>0.1974819924254312</v>
       </c>
       <c r="N189" t="n">
-        <v>0.2071666643236934</v>
+        <v>0.8655180463306519</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09431268899024794</v>
+        <v>0.1975329407584868</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.2045202999005341</v>
+        <v>0.05193875450500732</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0950732751917822</v>
+        <v>0.1982825091242247</v>
       </c>
       <c r="J190" t="n">
-        <v>0.5009943091109303</v>
+        <v>0.2231841509640292</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09487934396892783</v>
+        <v>0.1991394301370101</v>
       </c>
       <c r="L190" t="n">
-        <v>0.7999216143567364</v>
+        <v>0.545311241831985</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0948417800358005</v>
+        <v>0.1990745891385395</v>
       </c>
       <c r="N190" t="n">
-        <v>0.2045202999005341</v>
+        <v>0.8674891247621251</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0950732751917822</v>
+        <v>0.1991259483452489</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.2042425692489905</v>
+        <v>0.05105158127149469</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09583386139331647</v>
+        <v>0.1998687691972185</v>
       </c>
       <c r="J191" t="n">
-        <v>0.5006835866921152</v>
+        <v>0.2246787858964647</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09563837872067925</v>
+        <v>0.2007325455781062</v>
       </c>
       <c r="L191" t="n">
-        <v>0.8017664134117725</v>
+        <v>0.5478182185795303</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09560051427608691</v>
+        <v>0.2006671858516478</v>
       </c>
       <c r="N191" t="n">
-        <v>0.2042425692489905</v>
+        <v>0.8720103607238677</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09583386139331647</v>
+        <v>0.2007189559320108</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.204935788327877</v>
+        <v>0.04816141378299871</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09659444759485071</v>
+        <v>0.2014550292702123</v>
       </c>
       <c r="J192" t="n">
-        <v>0.5028003014209809</v>
+        <v>0.2255604047043078</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09639741347243068</v>
+        <v>0.2023256610192022</v>
       </c>
       <c r="L192" t="n">
-        <v>0.7938469191232803</v>
+        <v>0.5458934139128172</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0963592485163733</v>
+        <v>0.2022597825647561</v>
       </c>
       <c r="N192" t="n">
-        <v>0.204935788327877</v>
+        <v>0.8687810334002991</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09659444759485071</v>
+        <v>0.2023119635187728</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.203002273096008</v>
+        <v>0.04926820972162366</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09735503379638498</v>
+        <v>0.2030412893432061</v>
       </c>
       <c r="J193" t="n">
-        <v>0.4976937414764006</v>
+        <v>0.2238288218078107</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0971564482241821</v>
+        <v>0.2039187764602983</v>
       </c>
       <c r="L193" t="n">
-        <v>0.7993603143271432</v>
+        <v>0.5472363750035922</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09711798275665971</v>
+        <v>0.2038523792778644</v>
       </c>
       <c r="N193" t="n">
-        <v>0.203002273096008</v>
+        <v>0.8720004219758407</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09735503379638498</v>
+        <v>0.2039049711055348</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.2019443395121979</v>
+        <v>0.05037192676947376</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09811561999791923</v>
+        <v>0.2046275494161999</v>
       </c>
       <c r="J194" t="n">
-        <v>0.496985376551304</v>
+        <v>0.2258838516272249</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09791548297593351</v>
+        <v>0.2055118919013944</v>
       </c>
       <c r="L194" t="n">
-        <v>0.7931037818592438</v>
+        <v>0.5503466490236019</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09787671699694613</v>
+        <v>0.2054449759909727</v>
       </c>
       <c r="N194" t="n">
-        <v>0.2019443395121979</v>
+        <v>0.876067805634913</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09811561999791923</v>
+        <v>0.2054979786922968</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.2011643035352613</v>
+        <v>0.04947252260865329</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09887620619945349</v>
+        <v>0.2062138094891937</v>
       </c>
       <c r="J195" t="n">
-        <v>0.492631418176191</v>
+        <v>0.2255253085828023</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09867451772768494</v>
+        <v>0.2071050073424905</v>
       </c>
       <c r="L195" t="n">
-        <v>0.787174504555466</v>
+        <v>0.551123783144592</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09863545123723252</v>
+        <v>0.207037572704081</v>
       </c>
       <c r="N195" t="n">
-        <v>0.2011643035352613</v>
+        <v>0.8787824635619362</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09887620619945349</v>
+        <v>0.2070909862790588</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.2018644811240124</v>
+        <v>0.04756995492126646</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09963679240098774</v>
+        <v>0.2078000695621875</v>
       </c>
       <c r="J196" t="n">
-        <v>0.4912880778815611</v>
+        <v>0.2260530070947946</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09943355247943636</v>
+        <v>0.2086981227835865</v>
       </c>
       <c r="L196" t="n">
-        <v>0.7887696652516923</v>
+        <v>0.551067324538309</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09939418547751892</v>
+        <v>0.2086301694171893</v>
       </c>
       <c r="N196" t="n">
-        <v>0.2018644811240124</v>
+        <v>0.8765436749413319</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09963679240098774</v>
+        <v>0.2086839938658208</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.2001471882372657</v>
+        <v>0.05066418138941754</v>
       </c>
       <c r="G197" t="n">
-        <v>0.100397378602522</v>
+        <v>0.2093863296351813</v>
       </c>
       <c r="J197" t="n">
-        <v>0.4894115671979139</v>
+        <v>0.2265667615834537</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1001925872311878</v>
+        <v>0.2102912382246827</v>
       </c>
       <c r="L197" t="n">
-        <v>0.7857864467838064</v>
+        <v>0.5556768203764989</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1001529197178053</v>
+        <v>0.2102227661302977</v>
       </c>
       <c r="N197" t="n">
-        <v>0.2001471882372657</v>
+        <v>0.8764507189575205</v>
       </c>
       <c r="O197" t="n">
-        <v>0.100397378602522</v>
+        <v>0.2102770014525828</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.2001147408338357</v>
+        <v>0.04875515969521077</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1011579648040563</v>
+        <v>0.2109725897081751</v>
       </c>
       <c r="J198" t="n">
-        <v>0.4858580976557492</v>
+        <v>0.2272663864690312</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1009516219829392</v>
+        <v>0.2118843536657787</v>
       </c>
       <c r="L198" t="n">
-        <v>0.7794220319876911</v>
+        <v>0.5539518178309081</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1009116539580917</v>
+        <v>0.211815362843406</v>
       </c>
       <c r="N198" t="n">
-        <v>0.2001147408338357</v>
+        <v>0.8815028747949215</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1011579648040563</v>
+        <v>0.2118700090393448</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1994694548725368</v>
+        <v>0.05084284752075041</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1019185510055905</v>
+        <v>0.2125588497811689</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4807838807855667</v>
+        <v>0.2267516961717791</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1017106567346906</v>
+        <v>0.2134774691068748</v>
       </c>
       <c r="L199" t="n">
-        <v>0.7772736036992297</v>
+        <v>0.5554918640732829</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1016703881983781</v>
+        <v>0.2134079595565143</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1994694548725368</v>
+        <v>0.8842994216379566</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1019185510055905</v>
+        <v>0.2134630166261068</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1985136463121833</v>
+        <v>0.04792720254814067</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1026791372071248</v>
+        <v>0.2141451098541627</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4729451281178656</v>
+        <v>0.2288225051119491</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1024696914864421</v>
+        <v>0.2150705845479709</v>
       </c>
       <c r="L200" t="n">
-        <v>0.7740383447543052</v>
+        <v>0.5576965062753692</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1024291224386645</v>
+        <v>0.2150005562696226</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1985136463121833</v>
+        <v>0.8829396386710465</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1026791372071248</v>
+        <v>0.2150560242128688</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1968496311115899</v>
+        <v>0.05000818245948588</v>
       </c>
       <c r="G201" t="n">
-        <v>0.103439723408659</v>
+        <v>0.2157313699271565</v>
       </c>
       <c r="J201" t="n">
-        <v>0.4716980511831462</v>
+        <v>0.2281786277097929</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1032287262381935</v>
+        <v>0.216663699989067</v>
       </c>
       <c r="L201" t="n">
-        <v>0.7720072919786453</v>
+        <v>0.5556652916089136</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1031878566789509</v>
+        <v>0.2165931529827309</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1968496311115899</v>
+        <v>0.8886228050786117</v>
       </c>
       <c r="O201" t="n">
-        <v>0.103439723408659</v>
+        <v>0.2166490317996307</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1965797252295708</v>
+        <v>0.05108574493689018</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1042003096101933</v>
+        <v>0.2173176300001503</v>
       </c>
       <c r="J202" t="n">
-        <v>0.4643988615119076</v>
+        <v>0.2280198783855624</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1039877609899449</v>
+        <v>0.2182568154301631</v>
       </c>
       <c r="L202" t="n">
-        <v>0.7717270324560305</v>
+        <v>0.5555977672456622</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1039465909192374</v>
+        <v>0.2181857496958392</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1965797252295708</v>
+        <v>0.8865482000450723</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1042003096101933</v>
+        <v>0.2182420393863928</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1951062446249406</v>
+        <v>0.0481598476624579</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1049608958117275</v>
+        <v>0.2189038900731441</v>
       </c>
       <c r="J203" t="n">
-        <v>0.4598037706346499</v>
+        <v>0.2298460715595093</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1047467957416963</v>
+        <v>0.2198499308712591</v>
       </c>
       <c r="L203" t="n">
-        <v>0.7698402666650911</v>
+        <v>0.5607934803573611</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1047053251595238</v>
+        <v>0.2197783464089476</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1951062446249406</v>
+        <v>0.8886151027548496</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1049608958117275</v>
+        <v>0.2198350469731547</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1932315052565136</v>
+        <v>0.05323044831829322</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1057214820132618</v>
+        <v>0.2204901501461379</v>
       </c>
       <c r="J204" t="n">
-        <v>0.4603689900818725</v>
+        <v>0.2296570216518854</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1055058304934477</v>
+        <v>0.2214430463123552</v>
       </c>
       <c r="L204" t="n">
-        <v>0.7646897337221538</v>
+        <v>0.5579519781157567</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1054640593998101</v>
+        <v>0.2213709431220559</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1932315052565136</v>
+        <v>0.8881227923923644</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1057214820132618</v>
+        <v>0.2214280545599168</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1933578230831042</v>
+        <v>0.04929750458650047</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1064820682147961</v>
+        <v>0.2220764102191317</v>
       </c>
       <c r="J205" t="n">
-        <v>0.4552507313840753</v>
+        <v>0.2300525430829425</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1062648652451992</v>
+        <v>0.2230361617534513</v>
       </c>
       <c r="L205" t="n">
-        <v>0.7531181727435455</v>
+        <v>0.5611728076925953</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1062227936400966</v>
+        <v>0.2229635398351642</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1933578230831042</v>
+        <v>0.8958705481420365</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1064820682147961</v>
+        <v>0.2230210621466787</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1935875140635269</v>
+        <v>0.05336097414918381</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1072426544163303</v>
+        <v>0.2236626702921255</v>
       </c>
       <c r="J206" t="n">
-        <v>0.4481052060717577</v>
+        <v>0.2300324502729323</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1070238999969506</v>
+        <v>0.2246292771945474</v>
       </c>
       <c r="L206" t="n">
-        <v>0.7527683228455947</v>
+        <v>0.5630555162596228</v>
       </c>
       <c r="M206" t="n">
-        <v>0.106981527880383</v>
+        <v>0.2245561365482725</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1935875140635269</v>
+        <v>0.8881576491882871</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1072426544163303</v>
+        <v>0.2246140697334407</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1910228941565961</v>
+        <v>0.04842081468844756</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1080032406178646</v>
+        <v>0.2252489303651193</v>
       </c>
       <c r="J207" t="n">
-        <v>0.4468886256754195</v>
+        <v>0.2298965576421068</v>
       </c>
       <c r="K207" t="n">
-        <v>0.107782934748702</v>
+        <v>0.2262223926356434</v>
       </c>
       <c r="L207" t="n">
-        <v>0.7377829231446271</v>
+        <v>0.5596996509885858</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1077402621206694</v>
+        <v>0.2261487332613808</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1910228941565961</v>
+        <v>0.8929833747155368</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1080032406178646</v>
+        <v>0.2262070773202027</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1916662793211263</v>
+        <v>0.0504769838863959</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1087638268193988</v>
+        <v>0.2268351904381131</v>
       </c>
       <c r="J208" t="n">
-        <v>0.4398572017255603</v>
+        <v>0.2313446796107176</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1085419695004534</v>
+        <v>0.2278155080767395</v>
       </c>
       <c r="L208" t="n">
-        <v>0.7313047127569708</v>
+        <v>0.5611047590512303</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1084989963609558</v>
+        <v>0.2277413299744891</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1916662793211263</v>
+        <v>0.8936470039082064</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1087638268193988</v>
+        <v>0.2278000849069647</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1896199855159319</v>
+        <v>0.05252943942513315</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1095244130209331</v>
+        <v>0.2284214505111068</v>
       </c>
       <c r="J209" t="n">
-        <v>0.4363671457526798</v>
+        <v>0.2304766305990165</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1093010042522048</v>
+        <v>0.2294086235178356</v>
       </c>
       <c r="L209" t="n">
-        <v>0.725176430798953</v>
+        <v>0.5633703876193025</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1092577306012422</v>
+        <v>0.2293339266875975</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1896199855159319</v>
+        <v>0.8991478159507164</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1095244130209331</v>
+        <v>0.2293930924937267</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1879863286998273</v>
+        <v>0.0535781389867635</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1102849992224674</v>
+        <v>0.2300077105841007</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4345746692872776</v>
+        <v>0.2296922250272554</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1100600390039563</v>
+        <v>0.2310017389589317</v>
       </c>
       <c r="L210" t="n">
-        <v>0.7220408163869003</v>
+        <v>0.5613960838645488</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1100164648415286</v>
+        <v>0.2309265234007058</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1879863286998273</v>
+        <v>0.8972850900274872</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1102849992224674</v>
+        <v>0.2309861000804887</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.188167624831627</v>
+        <v>0.05362304025339122</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1110455854240016</v>
+        <v>0.2315939706570945</v>
       </c>
       <c r="J211" t="n">
-        <v>0.4348359838598533</v>
+        <v>0.2300912773156858</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1108190737557077</v>
+        <v>0.2325948544000278</v>
       </c>
       <c r="L211" t="n">
-        <v>0.7169406086371404</v>
+        <v>0.5629813949587152</v>
       </c>
       <c r="M211" t="n">
-        <v>0.110775199081815</v>
+        <v>0.2325191201138141</v>
       </c>
       <c r="N211" t="n">
-        <v>0.188167624831627</v>
+        <v>0.8979581053229398</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1110455854240016</v>
+        <v>0.2325791076672507</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1867661898701453</v>
+        <v>0.05366410090712055</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1118061716255359</v>
+        <v>0.2331802307300883</v>
       </c>
       <c r="J212" t="n">
-        <v>0.4338073010009068</v>
+        <v>0.2313736018845599</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1115781085074591</v>
+        <v>0.2341879698411239</v>
       </c>
       <c r="L212" t="n">
-        <v>0.7101185466660006</v>
+        <v>0.5664258680735482</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1115339333221014</v>
+        <v>0.2341117168269224</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1867661898701453</v>
+        <v>0.8969661410214947</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1118061716255359</v>
+        <v>0.2341721152540127</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1864843397741967</v>
+        <v>0.05270127863005576</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1125667578270701</v>
+        <v>0.2347664908030821</v>
       </c>
       <c r="J213" t="n">
-        <v>0.4327445759831785</v>
+        <v>0.2314390131541292</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1123371432592105</v>
+        <v>0.2357810852822199</v>
       </c>
       <c r="L213" t="n">
-        <v>0.6996173695898076</v>
+        <v>0.5671290503807938</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1122926675623878</v>
+        <v>0.2357043135400307</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1864843397741967</v>
+        <v>0.9005084763075727</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1125667578270701</v>
+        <v>0.2357651228407747</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1867243905025956</v>
+        <v>0.05173453110430105</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1133273440286044</v>
+        <v>0.2363527508760759</v>
       </c>
       <c r="J214" t="n">
-        <v>0.4277748177040891</v>
+        <v>0.2314873255446456</v>
       </c>
       <c r="K214" t="n">
-        <v>0.113096178010962</v>
+        <v>0.237374200723316</v>
       </c>
       <c r="L214" t="n">
-        <v>0.6933798165248888</v>
+        <v>0.5674904890521983</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1130514018026742</v>
+        <v>0.237296910253139</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1867243905025956</v>
+        <v>0.9010843903655942</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1133273440286044</v>
+        <v>0.2373581304275366</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1859886580141566</v>
+        <v>0.05076381601196073</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1140879302301386</v>
+        <v>0.2379390109490697</v>
       </c>
       <c r="J215" t="n">
-        <v>0.4271220676526631</v>
+        <v>0.2315183534763608</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1138552127627134</v>
+        <v>0.2389673161644121</v>
       </c>
       <c r="L215" t="n">
-        <v>0.6972486265875718</v>
+        <v>0.5628097312595082</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1138101360429606</v>
+        <v>0.2388895069662473</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1859886580141566</v>
+        <v>0.8970931623799799</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1140879302301386</v>
+        <v>0.2389511380142987</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1853794582676939</v>
+        <v>0.04978909103513898</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1148485164316729</v>
+        <v>0.2395252710220635</v>
       </c>
       <c r="J216" t="n">
-        <v>0.4263864145149507</v>
+        <v>0.2328319113695265</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1146142475144648</v>
+        <v>0.2405604316055082</v>
       </c>
       <c r="L216" t="n">
-        <v>0.6875665388941833</v>
+        <v>0.5662863241744694</v>
       </c>
       <c r="M216" t="n">
-        <v>0.114568870283247</v>
+        <v>0.2404821036793557</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1853794582676939</v>
+        <v>0.8978340715351508</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1148485164316729</v>
+        <v>0.2405441456010606</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1848991072220221</v>
+        <v>0.05081031385594011</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1156091026332072</v>
+        <v>0.2411115310950573</v>
       </c>
       <c r="J217" t="n">
-        <v>0.4239679469770029</v>
+        <v>0.2312278136443948</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1153732822662162</v>
+        <v>0.2421535470466042</v>
       </c>
       <c r="L217" t="n">
-        <v>0.6898762925610507</v>
+        <v>0.5688198149688282</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1153276045235334</v>
+        <v>0.242074700392464</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1848991072220221</v>
+        <v>0.8983063970155268</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1156091026332072</v>
+        <v>0.2421371531878226</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1839499208359555</v>
+        <v>0.05282744215646834</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1163696888347414</v>
+        <v>0.2426977911680511</v>
       </c>
       <c r="J218" t="n">
-        <v>0.4280667537248698</v>
+        <v>0.2319058747212171</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1161323170179677</v>
+        <v>0.2437466624877003</v>
       </c>
       <c r="L218" t="n">
-        <v>0.6906385548423627</v>
+        <v>0.5648097508143309</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1160863387638198</v>
+        <v>0.2436672971055723</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1839499208359555</v>
+        <v>0.899909418005529</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1163696888347414</v>
+        <v>0.2437301607745846</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1822342150683086</v>
+        <v>0.04884043361882788</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1171302750362757</v>
+        <v>0.2442840512410449</v>
       </c>
       <c r="J219" t="n">
-        <v>0.4252829234446021</v>
+        <v>0.2328659090202454</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1168913517697191</v>
+        <v>0.2453397779287964</v>
       </c>
       <c r="L219" t="n">
-        <v>0.6867417536219657</v>
+        <v>0.5688556788827236</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1168450730041062</v>
+        <v>0.2452598938186806</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1822342150683086</v>
+        <v>0.9049424136895784</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1171302750362757</v>
+        <v>0.2453231683613466</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1826543058778957</v>
+        <v>0.04984924592512303</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1178908612378099</v>
+        <v>0.2458703113140386</v>
       </c>
       <c r="J220" t="n">
-        <v>0.42311654482225</v>
+        <v>0.2316077309617315</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1176503865214705</v>
+        <v>0.2469328933698925</v>
       </c>
       <c r="L220" t="n">
-        <v>0.6860761788322221</v>
+        <v>0.5656571463457524</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1176038072443926</v>
+        <v>0.246852490531789</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1826543058778957</v>
+        <v>0.9036046632520952</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1178908612378099</v>
+        <v>0.2469161759481086</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1822125092235315</v>
+        <v>0.04985383675745805</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1186514474393442</v>
+        <v>0.2474565713870324</v>
       </c>
       <c r="J221" t="n">
-        <v>0.4232677065438641</v>
+        <v>0.2315311549659271</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1184094212732219</v>
+        <v>0.2485260088109885</v>
       </c>
       <c r="L221" t="n">
-        <v>0.683341806764168</v>
+        <v>0.5653137003751642</v>
       </c>
       <c r="M221" t="n">
-        <v>0.118362541484679</v>
+        <v>0.2484450872448973</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1822125092235315</v>
+        <v>0.8977954458775</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1186514474393442</v>
+        <v>0.2485091835348706</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1811111410640302</v>
+        <v>0.04884255813453528</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1194120336408784</v>
+        <v>0.2490428314600262</v>
       </c>
       <c r="J222" t="n">
-        <v>0.419636497295495</v>
+        <v>0.2327195025093926</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1191684560249734</v>
+        <v>0.2501191242520847</v>
       </c>
       <c r="L222" t="n">
-        <v>0.67843861370884</v>
+        <v>0.5663799191086085</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1191212757249654</v>
+        <v>0.2500376839580056</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1811111410640302</v>
+        <v>0.9013484508739414</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1194120336408784</v>
+        <v>0.2501021911216326</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1796525173582063</v>
+        <v>0.05172344090567789</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1201726198424127</v>
+        <v>0.25062909153302</v>
       </c>
       <c r="J223" t="n">
-        <v>0.4190230057631933</v>
+        <v>0.2323988739147603</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1199274907767248</v>
+        <v>0.2517122396931807</v>
       </c>
       <c r="L223" t="n">
-        <v>0.6829665759572739</v>
+        <v>0.5637347591066938</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1198800099652518</v>
+        <v>0.2516302806711139</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1796525173582063</v>
+        <v>0.8996084545209077</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1201726198424127</v>
+        <v>0.2516951987083946</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1800389540648743</v>
+        <v>0.05348740143941742</v>
       </c>
       <c r="G224" t="n">
-        <v>0.120933206043947</v>
+        <v>0.2522153516060138</v>
       </c>
       <c r="J224" t="n">
-        <v>0.4222273206330091</v>
+        <v>0.2300574972056422</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1206865255284762</v>
+        <v>0.2533053551342768</v>
       </c>
       <c r="L224" t="n">
-        <v>0.676725669800506</v>
+        <v>0.5629204066424677</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1206387442055382</v>
+        <v>0.2532228773842222</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1800389540648743</v>
+        <v>0.895346292429741</v>
       </c>
       <c r="O224" t="n">
-        <v>0.120933206043947</v>
+        <v>0.2532882062951566</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1807727671428485</v>
+        <v>0.05014763205971641</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1216937922454812</v>
+        <v>0.2538016116790076</v>
       </c>
       <c r="J225" t="n">
-        <v>0.4224495305909929</v>
+        <v>0.2303532256404719</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1214455602802276</v>
+        <v>0.2548984705753729</v>
       </c>
       <c r="L225" t="n">
-        <v>0.6743158715295726</v>
+        <v>0.5620780279274551</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1213974784458246</v>
+        <v>0.2548154740973305</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1807727671428485</v>
+        <v>0.8897866740873127</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1216937922454812</v>
+        <v>0.2548812138819185</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1793562725509434</v>
+        <v>0.04971732509053742</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1224543784470155</v>
+        <v>0.2553878717520014</v>
       </c>
       <c r="J226" t="n">
-        <v>0.4169897243231955</v>
+        <v>0.2275439124776834</v>
       </c>
       <c r="K226" t="n">
-        <v>0.122204595031979</v>
+        <v>0.256491586016469</v>
       </c>
       <c r="L226" t="n">
-        <v>0.6786371574355102</v>
+        <v>0.5558487891731817</v>
       </c>
       <c r="M226" t="n">
-        <v>0.122156212686111</v>
+        <v>0.2564080708104388</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1793562725509434</v>
+        <v>0.8876543089804937</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1224543784470155</v>
+        <v>0.2564742214686805</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1787917862479735</v>
+        <v>0.05020967285584296</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1232149646485498</v>
+        <v>0.2569741318249952</v>
       </c>
       <c r="J227" t="n">
-        <v>0.4174479905156671</v>
+        <v>0.2244874109757107</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1229636297837305</v>
+        <v>0.258084701457565</v>
       </c>
       <c r="L227" t="n">
-        <v>0.6761895038093546</v>
+        <v>0.5482738565911727</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1229149469263975</v>
+        <v>0.2580006675235471</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1787917862479735</v>
+        <v>0.8714739065961553</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1232149646485498</v>
+        <v>0.2580672290554425</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1788707073695786</v>
+        <v>0.04663786767959555</v>
       </c>
       <c r="G228" t="n">
-        <v>0.123975550850084</v>
+        <v>0.258560391897989</v>
       </c>
       <c r="J228" t="n">
-        <v>0.4179244178544583</v>
+        <v>0.2233415743929875</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1237226645354819</v>
+        <v>0.2596778168986611</v>
       </c>
       <c r="L228" t="n">
-        <v>0.6729728869421421</v>
+        <v>0.5439943963929537</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1236736811666839</v>
+        <v>0.2595932642366555</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1788707073695786</v>
+        <v>0.8632701764211689</v>
       </c>
       <c r="O228" t="n">
-        <v>0.123975550850084</v>
+        <v>0.2596602366422045</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1782555554385772</v>
+        <v>0.04601510188575776</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1247361370516182</v>
+        <v>0.2601466519709829</v>
       </c>
       <c r="J229" t="n">
-        <v>0.4148190950256199</v>
+        <v>0.2206642559879477</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1244816992872333</v>
+        <v>0.2612709323397572</v>
       </c>
       <c r="L229" t="n">
-        <v>0.6765872831249091</v>
+        <v>0.5395515747900499</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1244324154069703</v>
+        <v>0.2611858609497638</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1782555554385772</v>
+        <v>0.8567678279424048</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1247361370516182</v>
+        <v>0.2612532442289665</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1785431347041357</v>
+        <v>0.0493545677982921</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1254967232531525</v>
+        <v>0.2617329120439766</v>
       </c>
       <c r="J230" t="n">
-        <v>0.4137321107152017</v>
+        <v>0.2170133090190251</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1252407340389847</v>
+        <v>0.2628640477808533</v>
       </c>
       <c r="L230" t="n">
-        <v>0.6740326686486918</v>
+        <v>0.5318865579939867</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1251911496472567</v>
+        <v>0.2627784576628721</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1785431347041357</v>
+        <v>0.8464915706467352</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1254967232531525</v>
+        <v>0.2628462518157285</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1792336381893131</v>
+        <v>0.0476694577411611</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1262573094546868</v>
+        <v>0.2633191721169704</v>
       </c>
       <c r="J231" t="n">
-        <v>0.4128635536092545</v>
+        <v>0.2154465867446537</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1259997687907362</v>
+        <v>0.2644571632219494</v>
       </c>
       <c r="L231" t="n">
-        <v>0.6698090198045261</v>
+        <v>0.5246405122162894</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1259498838875431</v>
+        <v>0.2643710543759804</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1792336381893131</v>
+        <v>0.8279661140210305</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1262573094546868</v>
+        <v>0.2644392594024905</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1775272589171684</v>
+        <v>0.04897296403832732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.127017895656221</v>
+        <v>0.2649054321899643</v>
       </c>
       <c r="J232" t="n">
-        <v>0.4141135123938289</v>
+        <v>0.2118219424232673</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1267588035424876</v>
+        <v>0.2660502786630455</v>
       </c>
       <c r="L232" t="n">
-        <v>0.6656163128834487</v>
+        <v>0.5143546036684834</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1267086181278295</v>
+        <v>0.2659636510890888</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1775272589171684</v>
+        <v>0.8163161675521623</v>
       </c>
       <c r="O232" t="n">
-        <v>0.127017895656221</v>
+        <v>0.2660322669892525</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1777241899107605</v>
+        <v>0.04827827901375327</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1277784818577553</v>
+        <v>0.266491692262958</v>
       </c>
       <c r="J233" t="n">
-        <v>0.4170820757549752</v>
+        <v>0.2084972293132998</v>
       </c>
       <c r="K233" t="n">
-        <v>0.127517838294239</v>
+        <v>0.2676433941041415</v>
       </c>
       <c r="L233" t="n">
-        <v>0.6688545241764955</v>
+        <v>0.5064699985620941</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1274673523681159</v>
+        <v>0.2675562478021971</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1777241899107605</v>
+        <v>0.8056664407270012</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1277784818577553</v>
+        <v>0.2676252745760145</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1777246241931484</v>
+        <v>0.04259859499140152</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1285390680592895</v>
+        <v>0.2680779523359518</v>
       </c>
       <c r="J234" t="n">
-        <v>0.4137693323787441</v>
+        <v>0.2050303006731851</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1282768730459904</v>
+        <v>0.2692365095452376</v>
       </c>
       <c r="L234" t="n">
-        <v>0.6662236299747027</v>
+        <v>0.5011278631086471</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1282260866084023</v>
+        <v>0.2691488445153054</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1777246241931484</v>
+        <v>0.7997416430324192</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1285390680592895</v>
+        <v>0.2692182821627764</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1779287547873913</v>
+        <v>0.04394710429523455</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1292996542608238</v>
+        <v>0.2696642124089456</v>
       </c>
       <c r="J235" t="n">
-        <v>0.4117753709511858</v>
+        <v>0.2022790097613569</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1290359077977419</v>
+        <v>0.2708296249863337</v>
       </c>
       <c r="L235" t="n">
-        <v>0.6706236065691067</v>
+        <v>0.4965693635196673</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1289848208486887</v>
+        <v>0.2707414412284136</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1779287547873913</v>
+        <v>0.7878664839552868</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1292996542608238</v>
+        <v>0.2708112897495384</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.177836774716548</v>
+        <v>0.04533699924921493</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1300602404623581</v>
+        <v>0.2712504724819394</v>
       </c>
       <c r="J236" t="n">
-        <v>0.414700280158351</v>
+        <v>0.2004012098362493</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1297949425494933</v>
+        <v>0.2724227404274298</v>
       </c>
       <c r="L236" t="n">
-        <v>0.6652544302507437</v>
+        <v>0.4860356660066801</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1297435550889751</v>
+        <v>0.2723340379415219</v>
       </c>
       <c r="N236" t="n">
-        <v>0.177836774716548</v>
+        <v>0.7798656729824754</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1300602404623581</v>
+        <v>0.2724042973363004</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1764488770036775</v>
+        <v>0.04477756872176039</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1308208266638923</v>
+        <v>0.2728367325549332</v>
       </c>
       <c r="J237" t="n">
-        <v>0.4112441486862901</v>
+        <v>0.1970474760320291</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1305539773012447</v>
+        <v>0.2740158558685259</v>
       </c>
       <c r="L237" t="n">
-        <v>0.6660160773106496</v>
+        <v>0.4799487285634488</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1305022893292615</v>
+        <v>0.2739266346546303</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1764488770036775</v>
+        <v>0.7637351785753695</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1308208266638923</v>
+        <v>0.2739973049230625</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1769652546718389</v>
+        <v>0.04322964617218079</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1315814128654266</v>
+        <v>0.274422992627927</v>
       </c>
       <c r="J238" t="n">
-        <v>0.4106070652210535</v>
+        <v>0.1953662617395617</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1313130120529961</v>
+        <v>0.275608971309622</v>
       </c>
       <c r="L238" t="n">
-        <v>0.6644085240398609</v>
+        <v>0.4739344209523806</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1312610235695479</v>
+        <v>0.2755192313677386</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1769652546718389</v>
+        <v>0.7616849231829516</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1315814128654266</v>
+        <v>0.2755903125098244</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1770861007440912</v>
+        <v>0.04367970705809175</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1323419990669608</v>
+        <v>0.2760092527009208</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4114891184486918</v>
+        <v>0.1918762574481833</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1320720468047475</v>
+        <v>0.277202086750718</v>
       </c>
       <c r="L239" t="n">
-        <v>0.6676317467294141</v>
+        <v>0.4677986552785174</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1320197578098343</v>
+        <v>0.2771118280808469</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1770861007440912</v>
+        <v>0.7504005230570635</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1323419990669608</v>
+        <v>0.2771833200965864</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1776116082434933</v>
+        <v>0.04412772012638853</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1331025852684951</v>
+        <v>0.2775955127739146</v>
       </c>
       <c r="J240" t="n">
-        <v>0.4085903970552553</v>
+        <v>0.1904773261013792</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1328310815564989</v>
+        <v>0.2787952021918141</v>
       </c>
       <c r="L240" t="n">
-        <v>0.667085721670345</v>
+        <v>0.4620410971138691</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1327784920501207</v>
+        <v>0.2787044247939552</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1776116082434933</v>
+        <v>0.7345814458525987</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1331025852684951</v>
+        <v>0.2787763276833484</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1772419701931041</v>
+        <v>0.04157365412396649</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1338631714700294</v>
+        <v>0.2791817728469084</v>
       </c>
       <c r="J241" t="n">
-        <v>0.4115109897267948</v>
+        <v>0.186569330642635</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1335901163082504</v>
+        <v>0.2803883176329102</v>
       </c>
       <c r="L241" t="n">
-        <v>0.6655704251536899</v>
+        <v>0.4571614120304458</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1335372262904071</v>
+        <v>0.2802970215070635</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1772419701931041</v>
+        <v>0.7305271592244492</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1338631714700294</v>
+        <v>0.2803693352701104</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1765773796159829</v>
+        <v>0.04201747779772094</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1346237576715636</v>
+        <v>0.2807680329199022</v>
       </c>
       <c r="J242" t="n">
-        <v>0.4071509851493605</v>
+        <v>0.1856521340154357</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1343491510600018</v>
+        <v>0.2819814330740062</v>
       </c>
       <c r="L242" t="n">
-        <v>0.6600858334704849</v>
+        <v>0.4526592656002572</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1342959605306935</v>
+        <v>0.2818896182201719</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1765773796159829</v>
+        <v>0.7236371308275075</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1346237576715636</v>
+        <v>0.2819623428568724</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1762180295351885</v>
+        <v>0.03745915989454716</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1353843438730979</v>
+        <v>0.282354292992896</v>
       </c>
       <c r="J243" t="n">
-        <v>0.411110472009003</v>
+        <v>0.1817255991632671</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1351081858117532</v>
+        <v>0.2835745485151023</v>
       </c>
       <c r="L243" t="n">
-        <v>0.6565319229117664</v>
+        <v>0.4455343233953136</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1350546947709799</v>
+        <v>0.2834822149332802</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1762180295351885</v>
+        <v>0.7138108283166666</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1353843438730979</v>
+        <v>0.2835553504436343</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1767641129737799</v>
+        <v>0.03689866916134051</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1361449300746321</v>
+        <v>0.2839405530658898</v>
       </c>
       <c r="J244" t="n">
-        <v>0.4078895389917725</v>
+        <v>0.1804895890296142</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1358672205635046</v>
+        <v>0.2851676639561984</v>
       </c>
       <c r="L244" t="n">
-        <v>0.6581086697685707</v>
+        <v>0.4378862509876246</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1358134290112663</v>
+        <v>0.2850748116463885</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1767641129737799</v>
+        <v>0.7040477193468189</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1361449300746321</v>
+        <v>0.2851483580303964</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1763158229548162</v>
+        <v>0.03733597434499629</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1369055162761664</v>
+        <v>0.2855268131388836</v>
       </c>
       <c r="J245" t="n">
-        <v>0.40718827478372</v>
+        <v>0.1789439665579627</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1366262553152561</v>
+        <v>0.2867607793972945</v>
       </c>
       <c r="L245" t="n">
-        <v>0.6555160503319341</v>
+        <v>0.4366147139492005</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1365721632515527</v>
+        <v>0.2866674083594968</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1763158229548162</v>
+        <v>0.6876472715728569</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1369055162761664</v>
+        <v>0.2867413656171584</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1761733525013563</v>
+        <v>0.0377710441924098</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1376661024777006</v>
+        <v>0.2871130732118774</v>
       </c>
       <c r="J246" t="n">
-        <v>0.4102067680708955</v>
+        <v>0.1746885946917976</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1373852900670075</v>
+        <v>0.2883538948383906</v>
       </c>
       <c r="L246" t="n">
-        <v>0.6562540408928923</v>
+        <v>0.4313193778520512</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1373308974918391</v>
+        <v>0.2882600050726051</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1761733525013563</v>
+        <v>0.6777089526496732</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1376661024777006</v>
+        <v>0.2883343732039204</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1760368946364592</v>
+        <v>0.03920384745047639</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1384266886792349</v>
+        <v>0.2886993332848712</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4052451075393498</v>
+        <v>0.1734233363746046</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1381443248187589</v>
+        <v>0.2899470102794867</v>
       </c>
       <c r="L247" t="n">
-        <v>0.656622617742482</v>
+        <v>0.4214999082681865</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1380896317321255</v>
+        <v>0.2898526017857134</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1760368946364592</v>
+        <v>0.6687322302321608</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1384266886792349</v>
+        <v>0.2899273807906823</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1754066423831839</v>
+        <v>0.03463435286609136</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1391872748807692</v>
+        <v>0.290285593357865</v>
       </c>
       <c r="J248" t="n">
-        <v>0.4060033818751333</v>
+        <v>0.1697480545498688</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1389033595705103</v>
+        <v>0.2915401257205827</v>
       </c>
       <c r="L248" t="n">
-        <v>0.6613217571717394</v>
+        <v>0.4158559707696162</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1388483659724119</v>
+        <v>0.2914451984988218</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1754066423831839</v>
+        <v>0.6629165719752116</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1391872748807692</v>
+        <v>0.2915203883774444</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1756827887645894</v>
+        <v>0.03806252918614998</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1399478610823034</v>
+        <v>0.2918718534308588</v>
       </c>
       <c r="J249" t="n">
-        <v>0.4067816797642962</v>
+        <v>0.1679626121610759</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1396623943222618</v>
+        <v>0.2931332411616788</v>
       </c>
       <c r="L249" t="n">
-        <v>0.6603514354717003</v>
+        <v>0.4119872309283507</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1396071002126983</v>
+        <v>0.2930377952119301</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1756827887645894</v>
+        <v>0.6529614455337188</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1399478610823034</v>
+        <v>0.2931133959642063</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1752655268037348</v>
+        <v>0.03648834515754763</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1407084472838377</v>
+        <v>0.2934581135038526</v>
       </c>
       <c r="J250" t="n">
-        <v>0.4054800898928894</v>
+        <v>0.1648668721517109</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1404214290740132</v>
+        <v>0.2947263566027749</v>
       </c>
       <c r="L250" t="n">
-        <v>0.6601116289334015</v>
+        <v>0.4066933543163996</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1403658344529848</v>
+        <v>0.2946303919250384</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1752655268037348</v>
+        <v>0.6453663185625745</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1407084472838377</v>
+        <v>0.2947064035509683</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.175955049523679</v>
+        <v>0.03591176952717959</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1414690334853719</v>
+        <v>0.2950443735768464</v>
       </c>
       <c r="J251" t="n">
-        <v>0.4067987009469631</v>
+        <v>0.1631606974652595</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1411804638257646</v>
+        <v>0.2963194720438709</v>
       </c>
       <c r="L251" t="n">
-        <v>0.6604023138478788</v>
+        <v>0.4007740065057731</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1411245686932711</v>
+        <v>0.2962229886381467</v>
       </c>
       <c r="N251" t="n">
-        <v>0.175955049523679</v>
+        <v>0.6311306587166718</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1414690334853719</v>
+        <v>0.2962994111377303</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1751515499474809</v>
+        <v>0.0373327710419412</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1422296196869062</v>
+        <v>0.2966306336498402</v>
       </c>
       <c r="J252" t="n">
-        <v>0.4079376016125679</v>
+        <v>0.1600439510452068</v>
       </c>
       <c r="K252" t="n">
-        <v>0.141939498577516</v>
+        <v>0.2979125874849671</v>
       </c>
       <c r="L252" t="n">
-        <v>0.6551234665061685</v>
+        <v>0.3911288530684811</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1418833029335576</v>
+        <v>0.297815585351255</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1751515499474809</v>
+        <v>0.6255539336509033</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1422296196869062</v>
+        <v>0.2978924187244923</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1743552210981997</v>
+        <v>0.03375131844872774</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1429902058884404</v>
+        <v>0.298216893722834</v>
       </c>
       <c r="J253" t="n">
-        <v>0.4070968805757541</v>
+        <v>0.1588164958350383</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1426985333292674</v>
+        <v>0.2995057029260632</v>
       </c>
       <c r="L253" t="n">
-        <v>0.652575063199307</v>
+        <v>0.3835575595765337</v>
       </c>
       <c r="M253" t="n">
-        <v>0.142642037173844</v>
+        <v>0.2994081820643634</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1743552210981997</v>
+        <v>0.6119356110201608</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1429902058884404</v>
+        <v>0.2994854263112543</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1743662559988943</v>
+        <v>0.03216738049443456</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1437507920899747</v>
+        <v>0.2998031537958278</v>
       </c>
       <c r="J254" t="n">
-        <v>0.4056766265225724</v>
+        <v>0.1559781947782394</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1434575680810189</v>
+        <v>0.3010988183671592</v>
       </c>
       <c r="L254" t="n">
-        <v>0.6521570802183303</v>
+        <v>0.3798597916019404</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1434007714141304</v>
+        <v>0.3010007787774717</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1743662559988943</v>
+        <v>0.6014751584793379</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1437507920899747</v>
+        <v>0.3010784338980163</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1747848476726236</v>
+        <v>0.03458092592595695</v>
       </c>
       <c r="G255" t="n">
-        <v>0.144511378291509</v>
+        <v>0.3013894138688216</v>
       </c>
       <c r="J255" t="n">
-        <v>0.4038769281390733</v>
+        <v>0.1537289108182954</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1442166028327703</v>
+        <v>0.3026919338082553</v>
       </c>
       <c r="L255" t="n">
-        <v>0.6515694938542749</v>
+        <v>0.3753352147167117</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1441595056544168</v>
+        <v>0.30259337549058</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1747848476726236</v>
+        <v>0.5985720436833262</v>
       </c>
       <c r="O255" t="n">
-        <v>0.144511378291509</v>
+        <v>0.3026714414847783</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1738111891424469</v>
+        <v>0.02999192349019025</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1452719644930432</v>
+        <v>0.3029756739418154</v>
       </c>
       <c r="J256" t="n">
-        <v>0.405297874111307</v>
+        <v>0.1512685068986917</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1449756375845217</v>
+        <v>0.3042850492493514</v>
       </c>
       <c r="L256" t="n">
-        <v>0.6574122803981766</v>
+        <v>0.3655834944928571</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1449182398947032</v>
+        <v>0.3041859722036883</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1738111891424469</v>
+        <v>0.5879257342870191</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1452719644930432</v>
+        <v>0.3042644490715403</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1755454734314228</v>
+        <v>0.03140034193402975</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1460325506945775</v>
+        <v>0.3045619340148092</v>
       </c>
       <c r="J257" t="n">
-        <v>0.4059395531253244</v>
+        <v>0.1483968459629137</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1457346723362731</v>
+        <v>0.3058781646904474</v>
       </c>
       <c r="L257" t="n">
-        <v>0.6504854161410719</v>
+        <v>0.3602042965023868</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1456769741349896</v>
+        <v>0.3057785689167966</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1755454734314228</v>
+        <v>0.5740356979453087</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1460325506945775</v>
+        <v>0.3058574566583023</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1732878935626106</v>
+        <v>0.02980615000437078</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1467931368961117</v>
+        <v>0.306148194087803</v>
       </c>
       <c r="J258" t="n">
-        <v>0.4062020538671754</v>
+        <v>0.1450137909544467</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1464937070880246</v>
+        <v>0.3074712801315435</v>
       </c>
       <c r="L258" t="n">
-        <v>0.652488877373997</v>
+        <v>0.3546972863173111</v>
       </c>
       <c r="M258" t="n">
-        <v>0.146435708375276</v>
+        <v>0.3073711656299049</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1732878935626106</v>
+        <v>0.563001402313088</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1467931368961117</v>
+        <v>0.3074504642450642</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1737386425590692</v>
+        <v>0.03220931644810868</v>
       </c>
       <c r="G259" t="n">
-        <v>0.147553723097646</v>
+        <v>0.3077344541607968</v>
       </c>
       <c r="J259" t="n">
-        <v>0.4032854650229111</v>
+        <v>0.1435192048167761</v>
       </c>
       <c r="K259" t="n">
-        <v>0.147252741839776</v>
+        <v>0.3090643955726396</v>
       </c>
       <c r="L259" t="n">
-        <v>0.6580226403879881</v>
+        <v>0.3488621295096394</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1471944426155624</v>
+        <v>0.3089637623430132</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1737386425590692</v>
+        <v>0.5515223150452493</v>
       </c>
       <c r="O259" t="n">
-        <v>0.147553723097646</v>
+        <v>0.3090434718318262</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1730979134438575</v>
+        <v>0.0306098100121387</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1483143092991802</v>
+        <v>0.3093207142337906</v>
       </c>
       <c r="J260" t="n">
-        <v>0.4043898752785815</v>
+        <v>0.1402129504933873</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1480117765915274</v>
+        <v>0.3106575110137357</v>
       </c>
       <c r="L260" t="n">
-        <v>0.6524866814740814</v>
+        <v>0.3427984916513819</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1479531768558488</v>
+        <v>0.3105563590561216</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1730979134438575</v>
+        <v>0.5405979037966854</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1483143092991802</v>
+        <v>0.3106364794185882</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1730658992400346</v>
+        <v>0.02800759944335623</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1490748955007145</v>
+        <v>0.3109069743067843</v>
       </c>
       <c r="J261" t="n">
-        <v>0.4025153733202373</v>
+        <v>0.1371948909277656</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1487708113432789</v>
+        <v>0.3122506264548318</v>
       </c>
       <c r="L261" t="n">
-        <v>0.6561809769233132</v>
+        <v>0.3339060383145483</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1487119110961352</v>
+        <v>0.3121489557692299</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1730658992400346</v>
+        <v>0.5311276362222884</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1490748955007145</v>
+        <v>0.3122294870053502</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1753427929706595</v>
+        <v>0.02940265348865654</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1498354817022488</v>
+        <v>0.3124932343797782</v>
       </c>
       <c r="J262" t="n">
-        <v>0.406962047833929</v>
+        <v>0.1338648890633965</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1495298460950303</v>
+        <v>0.3138437418959279</v>
       </c>
       <c r="L262" t="n">
-        <v>0.6502055030267195</v>
+        <v>0.3289844350711491</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1494706453364216</v>
+        <v>0.3137415524823382</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1753427929706595</v>
+        <v>0.5255109799769516</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1498354817022488</v>
+        <v>0.3138224945921122</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1734287876587912</v>
+        <v>0.03079494089493495</v>
       </c>
       <c r="G263" t="n">
-        <v>0.150596067903783</v>
+        <v>0.3140794944527719</v>
       </c>
       <c r="J263" t="n">
-        <v>0.4074299875057069</v>
+        <v>0.1328228078437652</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1502888808467817</v>
+        <v>0.315436857337024</v>
       </c>
       <c r="L263" t="n">
-        <v>0.6588602360753368</v>
+        <v>0.3231333474931938</v>
       </c>
       <c r="M263" t="n">
-        <v>0.150229379576708</v>
+        <v>0.3153341491954465</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1734287876587912</v>
+        <v>0.5132474027155673</v>
       </c>
       <c r="O263" t="n">
-        <v>0.150596067903783</v>
+        <v>0.3154155021788742</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1731240763274886</v>
+        <v>0.02618443040908677</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1513566541053173</v>
+        <v>0.3156657545257657</v>
       </c>
       <c r="J264" t="n">
-        <v>0.4068192810216217</v>
+        <v>0.1299685102123572</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1510479155985331</v>
+        <v>0.31702997277812</v>
       </c>
       <c r="L264" t="n">
-        <v>0.6576451523602013</v>
+        <v>0.3144524411526926</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1509881138169944</v>
+        <v>0.3169267459085548</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1731240763274886</v>
+        <v>0.5014363720930279</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1513566541053173</v>
+        <v>0.3170085097656362</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1338.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1338.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3706796089501626</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.02157800139620686</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.02157800139620686</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.03452480223393098</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08540028175922064</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02718828175922065</v>
+        <v>0.1176981716919089</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0008035460085152686</v>
+        <v>0.0034785536250559</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9250,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.01294680083772412</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0002678486695050895</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0349272</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0007225880869565218</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.09492720000000002</v>
+        <v>0</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0006881791304347826</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.1549272</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0007154337494619027</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02718828175922065</v>
+        <v>0.0224673887017404</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008035460085152686</v>
+        <v>0.0004388742790409687</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.1176981716919089</v>
+        <v>0.0224673887017404</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.002167764260869566</v>
+        <v>0.0004388742790409687</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.2874729248357886</v>
+        <v>0.09492720000000002</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002064537391304348</v>
+        <v>0.0007526959239130434</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.4572476779796683</v>
+        <v>0.1549272</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002146301248385708</v>
+        <v>0.0007606190389016021</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0300033091596777</v>
+        <v>0.0349272</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003172520145987596</v>
+        <v>0.0007225880869565218</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1282626261385212</v>
+        <v>0.0349272</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003186230882192161</v>
+        <v>0.0007225880869565218</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.3157920619117709</v>
+        <v>0.2075529580531411</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003185193426216631</v>
+        <v>0.001963931733070112</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.4988672027949519</v>
+        <v>0.3323203533277769</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003186015173523982</v>
+        <v>0.001963435556951688</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.03613702262363583</v>
+        <v>0.0586117335716517</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004758780218981394</v>
+        <v>0.001316622837122906</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1422826727584454</v>
+        <v>0.0586117335716517</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004779346323288241</v>
+        <v>0.001316622837122906</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.3466010871310053</v>
+        <v>0.2874729248357886</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004777790139324947</v>
+        <v>0.003256325430122975</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.5493723475102933</v>
+        <v>0.4572476779796683</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004779022760285973</v>
+        <v>0.003206955906339829</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.03473290763230374</v>
+        <v>0.07584106091065373</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006345040291975191</v>
+        <v>0.001755497116163875</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1545625649169334</v>
+        <v>0.07584106091065373</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006372461764384323</v>
+        <v>0.001755497116163875</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.3771962139013236</v>
+        <v>0.2988460320642706</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006370386852433262</v>
+        <v>0.003927863466140224</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.6008745128463684</v>
+        <v>0.4785779086480232</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006372030347047963</v>
+        <v>0.003926871113903376</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0002678486695050895</v>
+        <v>0.0007225880869565218</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01294680083772412</v>
+        <v>0.0349272</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0358526106948215</v>
+        <v>0.09153984891357153</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007931300364968988</v>
+        <v>0.002194371395204843</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1640117259954121</v>
+        <v>0.09153984891357153</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007965577205480403</v>
+        <v>0.002194371395204843</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.4050916457825852</v>
+        <v>0.321629781055851</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007962983565541579</v>
+        <v>0.004909829332675279</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.635373218476713</v>
+        <v>0.515861221651742</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007965037933809954</v>
+        <v>0.00490858889237922</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.03855777832032911</v>
+        <v>0.1045433008676844</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009517560437962787</v>
+        <v>0.002633245674245813</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1738395793753083</v>
+        <v>0.1045433008676844</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009558692646576482</v>
+        <v>0.002633245674245813</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.4237015863346502</v>
+        <v>0.3421834197756067</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009555580278649894</v>
+        <v>0.005891795199210336</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.6730679840748622</v>
+        <v>0.5470324311952285</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009558045520571946</v>
+        <v>0.005890306670855065</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.04391005701796667</v>
+        <v>0.1136866200602716</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01110382051095658</v>
+        <v>0.003072119953286781</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1817555484380487</v>
+        <v>0.1136866200602716</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01115180808767256</v>
+        <v>0.003072119953286781</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.4433402391173781</v>
+        <v>0.3673256982487401</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01114817699175821</v>
+        <v>0.006873761065745392</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.6995583293143512</v>
+        <v>0.5805224117722977</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01115105310733394</v>
+        <v>0.006872024449330908</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.03997109329687418</v>
+        <v>0.1176981716919089</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01269008058395038</v>
+        <v>0.0034785536250559</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1873690565650601</v>
+        <v>0.1176981716919089</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01274492352876865</v>
+        <v>0.0034785536250559</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.4565218076906288</v>
+        <v>0.3865753665004533</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01274077370486652</v>
+        <v>0.007855726932280448</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.7242437738687157</v>
+        <v>0.6136620378767653</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01274406069409593</v>
+        <v>0.007853742227806753</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.04280253366619172</v>
+        <v>0.1194760290612131</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01427634065694418</v>
+        <v>0.003949868511368718</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1919895271377693</v>
+        <v>0.1194760290612131</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01433803896986472</v>
+        <v>0.003949868511368718</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.4720604956142626</v>
+        <v>0.404351174555949</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01433337041797484</v>
+        <v>0.008837692798815503</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.7417238374114911</v>
+        <v>0.6400821840024469</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01433706828085792</v>
+        <v>0.008835460006282598</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.04346602463505933</v>
+        <v>0.1210998092986805</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01586260072993798</v>
+        <v>0.004388742790409687</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.196826383537603</v>
+        <v>0.1210998092986805</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01593115441096081</v>
+        <v>0.004388742790409687</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.4809705064481385</v>
+        <v>0.4186718724404297</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01592596713108316</v>
+        <v>0.009819658665350558</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.7563980396162128</v>
+        <v>0.6726137246431572</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01593007586761991</v>
+        <v>0.00981717778475844</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.04702321271261703</v>
+        <v>0.1226932938478495</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01744886080293178</v>
+        <v>0.004827617069450655</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1990890491459881</v>
+        <v>0.1226932938478495</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01752426985205689</v>
+        <v>0.004827617069450655</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.4843660437521169</v>
+        <v>0.437356210179097</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01751856384419147</v>
+        <v>0.01080162453188561</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.7743659001564153</v>
+        <v>0.696787534292712</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.0175230834543819</v>
+        <v>0.01079889556323428</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.04653574440800491</v>
+        <v>0.1242567573532448</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01903512087592557</v>
+        <v>0.005266491348491625</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2031869473443512</v>
+        <v>0.1242567573532448</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01911738529315296</v>
+        <v>0.005266491348491625</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4921613110860574</v>
+        <v>0.4526229377971538</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01911116055729979</v>
+        <v>0.01178359039842067</v>
       </c>
       <c r="N77" t="n">
-        <v>0.7807269387056354</v>
+        <v>0.7174344874449269</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01911609104114389</v>
+        <v>0.01178061334171013</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.045065266230363</v>
+        <v>0.1257904744593906</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02062138094891937</v>
+        <v>0.005705365627532593</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2047295015141193</v>
+        <v>0.1257904744593906</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02071050073424905</v>
+        <v>0.005705365627532593</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4998705120098198</v>
+        <v>0.4651908053198022</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0207037572704081</v>
+        <v>0.01276555626495573</v>
       </c>
       <c r="N78" t="n">
-        <v>0.7911806749374072</v>
+        <v>0.7440854585936171</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02070909862790588</v>
+        <v>0.01276233112018597</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.04566943826769958</v>
+        <v>0.1272947198108118</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02220764102191317</v>
+        <v>0.006144239906573562</v>
       </c>
       <c r="J79" t="n">
-        <v>0.206526135036719</v>
+        <v>0.1272947198108118</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02230361617534513</v>
+        <v>0.006144239906573562</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5051078500832641</v>
+        <v>0.4809785627722446</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02229635398351642</v>
+        <v>0.01374752213149078</v>
       </c>
       <c r="N79" t="n">
-        <v>0.8035266285252666</v>
+        <v>0.7644713222325973</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02230210621466787</v>
+        <v>0.01374404889866182</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04729508018956551</v>
+        <v>0.1287697680520326</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02379390109490697</v>
+        <v>0.006583114185614531</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2112504951897131</v>
+        <v>0.1287697680520326</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02389673161644121</v>
+        <v>0.006583114185614531</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5152714216779281</v>
+        <v>0.4907049601796833</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02388895069662473</v>
+        <v>0.01472948799802584</v>
       </c>
       <c r="N80" t="n">
-        <v>0.8159233594727778</v>
+        <v>0.785922952855684</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02389511380142986</v>
+        <v>0.01472576667713766</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.04990244727562701</v>
+        <v>0.1302158938275776</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02538016116790076</v>
+        <v>0.007021988464655499</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2116555369624624</v>
+        <v>0.1302158938275776</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02548984705753729</v>
+        <v>0.007021988464655499</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5182652315316235</v>
+        <v>0.5024887475673209</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02548154740973305</v>
+        <v>0.0157114538645609</v>
       </c>
       <c r="N81" t="n">
-        <v>0.8271278952614421</v>
+        <v>0.7981712249566922</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02548812138819185</v>
+        <v>0.01570748445561351</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.04748766945340455</v>
+        <v>0.1316333717819714</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02696642124089456</v>
+        <v>0.007460862743696468</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2164772476805339</v>
+        <v>0.1316333717819714</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02708296249863337</v>
+        <v>0.007460862743696468</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5277531728577304</v>
+        <v>0.5157486749603594</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02707414412284136</v>
+        <v>0.01669341973109595</v>
       </c>
       <c r="N82" t="n">
-        <v>0.8408079238644349</v>
+        <v>0.8173470130294368</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02708112897495384</v>
+        <v>0.01668920223408935</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.04704687665041853</v>
+        <v>0.1330224765597384</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02855268131388836</v>
+        <v>0.007899737022737436</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2190986556334121</v>
+        <v>0.1330224765597384</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02867607793972945</v>
+        <v>0.007899737022737436</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5347938334326088</v>
+        <v>0.525103492384001</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02866674083594968</v>
+        <v>0.01767538559763101</v>
       </c>
       <c r="N83" t="n">
-        <v>0.8433975249781384</v>
+        <v>0.8295811915677339</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02867413656171584</v>
+        <v>0.0176709200125652</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.04657619879418939</v>
+        <v>0.1343834828054031</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03013894138688216</v>
+        <v>0.008338611301778405</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2211027891105815</v>
+        <v>0.1343834828054031</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03026919338082553</v>
+        <v>0.008338611301778405</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5376458010326186</v>
+        <v>0.5290719498634484</v>
       </c>
       <c r="M84" t="n">
-        <v>0.030259337549058</v>
+        <v>0.01865735146416606</v>
       </c>
       <c r="N84" t="n">
-        <v>0.853130778298934</v>
+        <v>0.8497046350653984</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03026714414847782</v>
+        <v>0.01865263779104104</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0520717658122376</v>
+        <v>0.1357166651634902</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03172520145987595</v>
+        <v>0.008777485580819373</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2215726764015266</v>
+        <v>0.1357166651634902</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03186230882192161</v>
+        <v>0.008777485580819373</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5458676634341196</v>
+        <v>0.5375727974239037</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03185193426216631</v>
+        <v>0.01963931733070112</v>
       </c>
       <c r="N85" t="n">
-        <v>0.8624417635232046</v>
+        <v>0.857848218016246</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03186015173523982</v>
+        <v>0.01963435556951688</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.04752970763208357</v>
+        <v>0.1370222982785239</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03331146153286976</v>
+        <v>0.009216359859860343</v>
       </c>
       <c r="J86" t="n">
-        <v>0.224491345795732</v>
+        <v>0.1370222982785239</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03345542426301769</v>
+        <v>0.009216359859860343</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5511180084134719</v>
+        <v>0.5477247850905694</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03344453097527463</v>
+        <v>0.02062128319723617</v>
       </c>
       <c r="N86" t="n">
-        <v>0.8718645603473308</v>
+        <v>0.8653428149140915</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03345315932200181</v>
+        <v>0.02061607334799273</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.05294615418124772</v>
+        <v>0.138300656795029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03489772160586355</v>
+        <v>0.009655234138901311</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2267418255826824</v>
+        <v>0.138300656795029</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03504853970411377</v>
+        <v>0.009655234138901311</v>
       </c>
       <c r="L87" t="n">
-        <v>0.5548554237470352</v>
+        <v>0.5529466628886479</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03503712768838294</v>
+        <v>0.02160324906377123</v>
       </c>
       <c r="N87" t="n">
-        <v>0.8805332484676961</v>
+        <v>0.8777193002527511</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0350461669087638</v>
+        <v>0.02159779112646857</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.05031723538725048</v>
+        <v>0.1395520153575298</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03648398167885734</v>
+        <v>0.01009410841794228</v>
       </c>
       <c r="J88" t="n">
-        <v>0.229607144051862</v>
+        <v>0.1395520153575298</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03664165514520985</v>
+        <v>0.01009410841794228</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5601384972111694</v>
+        <v>0.5567571808433411</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03662972440149126</v>
+        <v>0.02258521493030629</v>
       </c>
       <c r="N88" t="n">
-        <v>0.8881819075806813</v>
+        <v>0.8827085485260396</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03663917449552579</v>
+        <v>0.02257950890494441</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.05263908117761232</v>
+        <v>0.140776648610551</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03807024175185115</v>
+        <v>0.01053298269698325</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2293703294927557</v>
+        <v>0.140776648610551</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03823477058630593</v>
+        <v>0.01053298269698325</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5621258165822346</v>
+        <v>0.5610750889798517</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03822232111459958</v>
+        <v>0.02356718079684134</v>
       </c>
       <c r="N89" t="n">
-        <v>0.8947446173826686</v>
+        <v>0.8921414342277724</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03823218208228778</v>
+        <v>0.02356122668342026</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.05090782147985362</v>
+        <v>0.1419748311986169</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03965650182484495</v>
+        <v>0.01097185697602422</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2303144101948478</v>
+        <v>0.1419748311986169</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03982788602740201</v>
+        <v>0.01097185697602422</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5637759696365905</v>
+        <v>0.5631191373233823</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03981491782770789</v>
+        <v>0.0245491466633764</v>
       </c>
       <c r="N90" t="n">
-        <v>0.9009554575700408</v>
+        <v>0.9003488318517655</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03982518966904977</v>
+        <v>0.0245429444618961</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05011958622149487</v>
+        <v>0.1431468377662522</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04124276189783874</v>
+        <v>0.01141073125506519</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2318224144476229</v>
+        <v>0.1431468377662522</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04142100146849809</v>
+        <v>0.01141073125506519</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5680475441505971</v>
+        <v>0.5698080758991343</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0414075145408162</v>
+        <v>0.02553111252991145</v>
       </c>
       <c r="N91" t="n">
-        <v>0.8999485078391786</v>
+        <v>0.9063616158918336</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04141819725581176</v>
+        <v>0.02552466224037195</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05327050533005644</v>
+        <v>0.1442929429579813</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04282902197083254</v>
+        <v>0.01184960553410616</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2331773705405656</v>
+        <v>0.1442929429579813</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04301411690959418</v>
+        <v>0.01184960553410616</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5671991279006142</v>
+        <v>0.5687606547323109</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04300011125392452</v>
+        <v>0.02651307839644651</v>
       </c>
       <c r="N92" t="n">
-        <v>0.9075578478864649</v>
+        <v>0.9058106608417921</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04301120484257376</v>
+        <v>0.02650638001884779</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05437656351844131</v>
+        <v>0.1454134214183287</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04441528204382633</v>
+        <v>0.01228847981314712</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2333623067631606</v>
+        <v>0.1454134214183287</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04460723235069025</v>
+        <v>0.01228847981314712</v>
       </c>
       <c r="L93" t="n">
-        <v>0.569389308663002</v>
+        <v>0.572495623848114</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04459270796703284</v>
+        <v>0.02749504426298157</v>
       </c>
       <c r="N93" t="n">
-        <v>0.9074175574082811</v>
+        <v>0.9100268411954567</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04460421242933574</v>
+        <v>0.02748809779732363</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05337547721747922</v>
+        <v>0.146508547791819</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04600154211682014</v>
+        <v>0.01272735409218809</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2353963433838177</v>
+        <v>0.146508547791819</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04620034779178633</v>
+        <v>0.01272735409218809</v>
       </c>
       <c r="L94" t="n">
         <v>0.5749458496715771</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04618530468014116</v>
+        <v>0.02847701012951662</v>
       </c>
       <c r="N94" t="n">
         <v>0.9144953559593366</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04619722001609774</v>
+        <v>0.02846981557579948</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05034986924415669</v>
+        <v>0.1475785967229766</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04758780218981393</v>
+        <v>0.01316622837122906</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2343761012119615</v>
+        <v>0.1475785967229766</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04779346323288242</v>
+        <v>0.01316622837122906</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5702853901024777</v>
+        <v>0.5693160852697717</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04777790139324947</v>
+        <v>0.02945897599605167</v>
       </c>
       <c r="N95" t="n">
-        <v>0.9066132162246939</v>
+        <v>0.9113630845849955</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04779022760285973</v>
+        <v>0.02945153335427532</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0522917705526517</v>
+        <v>0.1486238428563261</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04917406226280773</v>
+        <v>0.01360510265027003</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2349254975341722</v>
+        <v>0.1486238428563261</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0493865786739785</v>
+        <v>0.01360510265027003</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5725984214760383</v>
+        <v>0.5692110709508406</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04937049810635779</v>
+        <v>0.03044094186258673</v>
       </c>
       <c r="N96" t="n">
-        <v>0.9112217980947143</v>
+        <v>0.9100771470865686</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04938323518962171</v>
+        <v>0.03043325113275117</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05120322078276769</v>
+        <v>0.1496445608363919</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05076032233580153</v>
+        <v>0.014043976929311</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2329354629072095</v>
+        <v>0.1496445608363919</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05097969411507458</v>
+        <v>0.014043976929311</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5702723145298265</v>
+        <v>0.5698961070804123</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0509630948194661</v>
+        <v>0.03142290772912179</v>
       </c>
       <c r="N97" t="n">
-        <v>0.9043891707505828</v>
+        <v>0.9101106216334055</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05097624277638371</v>
+        <v>0.03141496891122701</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.05008625957430808</v>
+        <v>0.1506410253076987</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05234658240879533</v>
+        <v>0.01448285120835197</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2343149419119518</v>
+        <v>0.1506410253076987</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05257280955617066</v>
+        <v>0.01448285120835197</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5696288946999625</v>
+        <v>0.5696957861137298</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05255569153257442</v>
+        <v>0.03240487359565684</v>
       </c>
       <c r="N98" t="n">
-        <v>0.9042500760933431</v>
+        <v>0.9050818062231777</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0525692503631457</v>
+        <v>0.03239668668970285</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05294292656707632</v>
+        <v>0.1516135109147708</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05393284248178912</v>
+        <v>0.01492172548739294</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2335728791292778</v>
+        <v>0.1516135109147708</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05416592499726675</v>
+        <v>0.01492172548739294</v>
       </c>
       <c r="L99" t="n">
-        <v>0.5679899874225673</v>
+        <v>0.5676347005060358</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05414828824568273</v>
+        <v>0.0333868394621919</v>
       </c>
       <c r="N99" t="n">
-        <v>0.9062392560240372</v>
+        <v>0.9051089988535573</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05416225794990769</v>
+        <v>0.0333784044681787</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04877526140087583</v>
+        <v>0.1525622923021329</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05551910255478293</v>
+        <v>0.01536059976643391</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2327182191400663</v>
+        <v>0.1525622923021329</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05575904043836282</v>
+        <v>0.01536059976643391</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5688774181337614</v>
+        <v>0.5679374427125726</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05574088495879105</v>
+        <v>0.03436880532872696</v>
       </c>
       <c r="N100" t="n">
-        <v>0.9045914524437081</v>
+        <v>0.9080104975222162</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05575526553666968</v>
+        <v>0.03436012224665454</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05358530371551007</v>
+        <v>0.1534876441143093</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05710536262777671</v>
+        <v>0.01579947404547487</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2325599065251957</v>
+        <v>0.1534876441143093</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0573521558794589</v>
+        <v>0.01579947404547487</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5629130122696656</v>
+        <v>0.5678286051885834</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05733348167189937</v>
+        <v>0.03535077119526201</v>
       </c>
       <c r="N101" t="n">
-        <v>0.8992414072533993</v>
+        <v>0.9074046002268258</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05734827312343167</v>
+        <v>0.03534184002513039</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05037509315078244</v>
+        <v>0.1543898409958247</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05869162270077052</v>
+        <v>0.01623834832451584</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2305068858655448</v>
+        <v>0.1543898409958247</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05894527132055499</v>
+        <v>0.01623834832451584</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5612185952664003</v>
+        <v>0.5660327803893104</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05892607838500768</v>
+        <v>0.03633273706179707</v>
       </c>
       <c r="N102" t="n">
-        <v>0.9001238623541535</v>
+        <v>0.9070096049650581</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05894128071019367</v>
+        <v>0.03632355780360623</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05214666934649639</v>
+        <v>0.1552691575912035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06027788277376431</v>
+        <v>0.01667722260355681</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2301681017419921</v>
+        <v>0.1552691575912035</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06053838676165106</v>
+        <v>0.01667722260355681</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5587159925600865</v>
+        <v>0.5607745607699963</v>
       </c>
       <c r="M103" t="n">
-        <v>0.060518675098116</v>
+        <v>0.03731470292833212</v>
       </c>
       <c r="N103" t="n">
-        <v>0.8931735596470131</v>
+        <v>0.8966438097345856</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06053428829695565</v>
+        <v>0.03730527558208208</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04790207194245538</v>
+        <v>0.1561258685449703</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06186414284675811</v>
+        <v>0.01711609688259778</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2277524987354163</v>
+        <v>0.1561258685449703</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06213150220274714</v>
+        <v>0.01711609688259778</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5570270295868445</v>
+        <v>0.5624785387858839</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06211127181122431</v>
+        <v>0.03829666879486718</v>
       </c>
       <c r="N104" t="n">
-        <v>0.8866252410330212</v>
+        <v>0.8992255125330789</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06212729588371764</v>
+        <v>0.03828699336055792</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0496433405784628</v>
+        <v>0.1569602485016495</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0634504029197519</v>
+        <v>0.01755497116163875</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2271690214266961</v>
+        <v>0.1569602485016495</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06372461764384323</v>
+        <v>0.01755497116163875</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5556735317827951</v>
+        <v>0.557269306892216</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06370386852433263</v>
+        <v>0.03927863466140223</v>
       </c>
       <c r="N105" t="n">
-        <v>0.8846136484132209</v>
+        <v>0.898273011358211</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06372030347047963</v>
+        <v>0.03926871113903376</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04837251489432211</v>
+        <v>0.1577725721057656</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06503666299274571</v>
+        <v>0.01799384544067972</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2263266143967101</v>
+        <v>0.1577725721057656</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06531773308493931</v>
+        <v>0.01799384544067972</v>
       </c>
       <c r="L106" t="n">
-        <v>0.552177324584059</v>
+        <v>0.557371457544235</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06529646523744094</v>
+        <v>0.04026060052793729</v>
       </c>
       <c r="N106" t="n">
-        <v>0.8804735236886546</v>
+        <v>0.897604604207653</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06531331105724163</v>
+        <v>0.04025042891750961</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05009163452983674</v>
+        <v>0.1585631140018433</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06662292306573951</v>
+        <v>0.01843271971972069</v>
       </c>
       <c r="J107" t="n">
-        <v>0.225734222226337</v>
+        <v>0.1585631140018433</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06691084852603538</v>
+        <v>0.01843271971972069</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5520602334267567</v>
+        <v>0.5513095831971836</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06688906195054926</v>
+        <v>0.04124256639447235</v>
       </c>
       <c r="N107" t="n">
-        <v>0.8748396087603655</v>
+        <v>0.8901385890790773</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06690631864400362</v>
+        <v>0.04123214669598545</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05180273912481013</v>
+        <v>0.1593321488344069</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0682091831387333</v>
+        <v>0.01887159399876166</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2240007894964552</v>
+        <v>0.1593321488344069</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06850396396713147</v>
+        <v>0.01887159399876166</v>
       </c>
       <c r="L108" t="n">
-        <v>0.5485440837470089</v>
+        <v>0.5520082763063046</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06848165866365757</v>
+        <v>0.0422245322610074</v>
       </c>
       <c r="N108" t="n">
-        <v>0.8743466455293963</v>
+        <v>0.8913932639701553</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06849932623076561</v>
+        <v>0.0422138644744613</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0505078683190457</v>
+        <v>0.160079951247981</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06979544321172711</v>
+        <v>0.01931046827780262</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2237352607879437</v>
+        <v>0.160079951247981</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07009707940822754</v>
+        <v>0.01931046827780262</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5459507009809362</v>
+        <v>0.5476921293268404</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07007425537676588</v>
+        <v>0.04320649812754246</v>
       </c>
       <c r="N109" t="n">
-        <v>0.8648293758967899</v>
+        <v>0.886886926878559</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07009233381752759</v>
+        <v>0.04319558225293714</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04920906175234689</v>
+        <v>0.1608067958870901</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0713817032847209</v>
+        <v>0.01974934255684359</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2206465806816809</v>
+        <v>0.1608067958870901</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07169019484932362</v>
+        <v>0.01974934255684359</v>
       </c>
       <c r="L110" t="n">
-        <v>0.5378019105646595</v>
+        <v>0.546785734714034</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07166685208987421</v>
+        <v>0.04418846399407752</v>
       </c>
       <c r="N110" t="n">
-        <v>0.8583225417635892</v>
+        <v>0.8885378758019603</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07168534140428959</v>
+        <v>0.04417730003141298</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04890835906451714</v>
+        <v>0.1615129573962587</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07296796335771469</v>
+        <v>0.02018821683588456</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2200436937585454</v>
+        <v>0.1615129573962587</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07328331029041971</v>
+        <v>0.02018821683588456</v>
       </c>
       <c r="L111" t="n">
-        <v>0.5362195379342993</v>
+        <v>0.5433136849231278</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07325944880298252</v>
+        <v>0.04517042986061257</v>
       </c>
       <c r="N111" t="n">
-        <v>0.854260885030837</v>
+        <v>0.8820644087380308</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07327834899105158</v>
+        <v>0.04515901780988883</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04860779989535988</v>
+        <v>0.1621987104200113</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0745542234307085</v>
+        <v>0.02062709111492553</v>
       </c>
       <c r="J112" t="n">
-        <v>0.217735544599416</v>
+        <v>0.1621987104200113</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07487642573151579</v>
+        <v>0.02062709111492553</v>
       </c>
       <c r="L112" t="n">
-        <v>0.5326254085259762</v>
+        <v>0.5437005724093644</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07485204551609084</v>
+        <v>0.04615239572714763</v>
       </c>
       <c r="N112" t="n">
-        <v>0.8496791475995765</v>
+        <v>0.8826848236844428</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07487135657781357</v>
+        <v>0.04614073558836468</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04930942388467854</v>
+        <v>0.1628643296028725</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0761404835037023</v>
+        <v>0.0210659653939665</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2171310777851713</v>
+        <v>0.1628643296028725</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07646954117261186</v>
+        <v>0.0210659653939665</v>
       </c>
       <c r="L113" t="n">
-        <v>0.5301413477758107</v>
+        <v>0.5367709896279867</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07644464222919915</v>
+        <v>0.04713436159368269</v>
       </c>
       <c r="N113" t="n">
-        <v>0.8409120713708501</v>
+        <v>0.8785174186388679</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07646436416457557</v>
+        <v>0.04712245336684052</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04701077950495366</v>
+        <v>0.1635100895893667</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07772674357669608</v>
+        <v>0.02150483967300747</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2163392378966899</v>
+        <v>0.1635100895893667</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07806265661370795</v>
+        <v>0.02150483967300747</v>
       </c>
       <c r="L114" t="n">
-        <v>0.5263891811199238</v>
+        <v>0.5373495290342373</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07803723894230746</v>
+        <v>0.04811632746021774</v>
       </c>
       <c r="N114" t="n">
-        <v>0.8395943982457007</v>
+        <v>0.8704804915989778</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07805737175133756</v>
+        <v>0.04810417114531636</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04567576387643245</v>
+        <v>0.1641362650240184</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07931300364968989</v>
+        <v>0.02194371395204844</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2142017674806019</v>
+        <v>0.1641362650240184</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07965577205480402</v>
+        <v>0.02194371395204844</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5233053104564986</v>
+        <v>0.5351607830833588</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07962983565541579</v>
+        <v>0.0490982933267528</v>
       </c>
       <c r="N115" t="n">
-        <v>0.835392922386622</v>
+        <v>0.8742923405624444</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07965037933809954</v>
+        <v>0.0490858889237922</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04930144419526787</v>
+        <v>0.1647431305513522</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08089926372268369</v>
+        <v>0.0223825882310894</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2121806906921285</v>
+        <v>0.1647431305513522</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08124888749590012</v>
+        <v>0.0223825882310894</v>
       </c>
       <c r="L116" t="n">
-        <v>0.5222706867533896</v>
+        <v>0.5354293442305937</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0812224323685241</v>
+        <v>0.05008025919328785</v>
       </c>
       <c r="N116" t="n">
-        <v>0.8327772065908764</v>
+        <v>0.8718712635269398</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08124338692486154</v>
+        <v>0.05006760670226805</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04389446585174835</v>
+        <v>0.1653309608158926</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08248552379567749</v>
+        <v>0.02282146251013037</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2127984500336149</v>
+        <v>0.1653309608158926</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08284200293699619</v>
+        <v>0.02282146251013037</v>
       </c>
       <c r="L117" t="n">
-        <v>0.5158461111300118</v>
+        <v>0.5338798049311849</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08281502908163241</v>
+        <v>0.05106222505982291</v>
       </c>
       <c r="N117" t="n">
-        <v>0.8235366014732616</v>
+        <v>0.8627355584901356</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08283639451162353</v>
+        <v>0.0510493244807439</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04446147423616224</v>
+        <v>0.165900030462164</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08407178386867127</v>
+        <v>0.02326033678917134</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2098841880187561</v>
+        <v>0.165900030462164</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08443511837809227</v>
+        <v>0.02326033678917134</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5108026934661548</v>
+        <v>0.5330367576403751</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08440762579474073</v>
+        <v>0.05204419092635797</v>
       </c>
       <c r="N118" t="n">
-        <v>0.8142843003002568</v>
+        <v>0.8629035234497039</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08442940209838552</v>
+        <v>0.05203104225921974</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04300911473879797</v>
+        <v>0.1664506141346911</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08565804394166508</v>
+        <v>0.02369921106821231</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2071670471612473</v>
+        <v>0.1664506141346911</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08602823381918835</v>
+        <v>0.02369921106821231</v>
       </c>
       <c r="L119" t="n">
-        <v>0.509311543641608</v>
+        <v>0.5314247948134068</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08600022250784904</v>
+        <v>0.05302615679289301</v>
       </c>
       <c r="N119" t="n">
-        <v>0.8069334963383402</v>
+        <v>0.8668934564033158</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08602240968514752</v>
+        <v>0.05301276003769559</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04454403274994391</v>
+        <v>0.1669829864779982</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08724430401465888</v>
+        <v>0.02413808534725328</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2057761699747836</v>
+        <v>0.1669829864779982</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08762134926028443</v>
+        <v>0.02413808534725328</v>
       </c>
       <c r="L120" t="n">
-        <v>0.5020437715361606</v>
+        <v>0.5307685089055226</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08759281922095737</v>
+        <v>0.05400812265942807</v>
       </c>
       <c r="N120" t="n">
-        <v>0.8022973828539907</v>
+        <v>0.8563236553486443</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08761541727190951</v>
+        <v>0.05399447781617143</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04307287365988846</v>
+        <v>0.16749742213661</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08883056408765266</v>
+        <v>0.02457695962629425</v>
       </c>
       <c r="J121" t="n">
-        <v>0.20284069897306</v>
+        <v>0.16749742213661</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0892144647013805</v>
+        <v>0.02457695962629425</v>
       </c>
       <c r="L121" t="n">
-        <v>0.4991704870296026</v>
+        <v>0.5248924923719652</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08918541593406568</v>
+        <v>0.05499008852596313</v>
       </c>
       <c r="N121" t="n">
-        <v>0.7920891531136863</v>
+        <v>0.8632124182833604</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08920842485867149</v>
+        <v>0.05497619559464727</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04260228285892001</v>
+        <v>0.1679941957550508</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09041682416064648</v>
+        <v>0.02501583390533521</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2015897766697717</v>
+        <v>0.1679941957550508</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0908075801424766</v>
+        <v>0.02501583390533521</v>
       </c>
       <c r="L122" t="n">
-        <v>0.4946628000017231</v>
+        <v>0.5260213376679774</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09077801264717399</v>
+        <v>0.05597205439249818</v>
       </c>
       <c r="N122" t="n">
-        <v>0.7822220003839059</v>
+        <v>0.861178043205136</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09080143244543348</v>
+        <v>0.05595791337312311</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04513890573732694</v>
+        <v>0.1684735819778453</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09200308423364027</v>
+        <v>0.02545470818437618</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1995525455786136</v>
+        <v>0.1684735819778453</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09240069558357267</v>
+        <v>0.02545470818437618</v>
       </c>
       <c r="L123" t="n">
-        <v>0.4858918203323118</v>
+        <v>0.529657879867616</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09237060936028231</v>
+        <v>0.05695402025903324</v>
       </c>
       <c r="N123" t="n">
-        <v>0.7728091179311282</v>
+        <v>0.8576203880033516</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09239444003219548</v>
+        <v>0.05693963115159895</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04468938768539765</v>
+        <v>0.1689358554495179</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09358934430663406</v>
+        <v>0.02589358246341715</v>
       </c>
       <c r="J124" t="n">
-        <v>0.198058148213281</v>
+        <v>0.1689358554495179</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09399381102466875</v>
+        <v>0.02589358246341715</v>
       </c>
       <c r="L124" t="n">
-        <v>0.4812286579011581</v>
+        <v>0.5296913272491295</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09396320607339063</v>
+        <v>0.0579359861255683</v>
       </c>
       <c r="N124" t="n">
-        <v>0.7659636990218314</v>
+        <v>0.8533911437727572</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09398744761895746</v>
+        <v>0.05792134893007481</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04026037409342051</v>
+        <v>0.1693812908145931</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09517560437962787</v>
+        <v>0.02633245674245812</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1957357270874688</v>
+        <v>0.1693812908145931</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09558692646576483</v>
+        <v>0.02633245674245812</v>
       </c>
       <c r="L125" t="n">
-        <v>0.4806444225880514</v>
+        <v>0.5248601667000665</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09555580278649893</v>
+        <v>0.05891795199210335</v>
       </c>
       <c r="N125" t="n">
-        <v>0.7616989369224946</v>
+        <v>0.8567572262570994</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09558045520571945</v>
+        <v>0.05890306670855065</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04082163377509286</v>
+        <v>0.1698101627175955</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09676186445262167</v>
+        <v>0.02677133102149909</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1935887360940234</v>
+        <v>0.1698101627175955</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09718004190686091</v>
+        <v>0.02677133102149909</v>
       </c>
       <c r="L126" t="n">
-        <v>0.4759324493705271</v>
+        <v>0.5275612415776904</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09714839949960725</v>
+        <v>0.05989991785863841</v>
       </c>
       <c r="N126" t="n">
-        <v>0.7509234657117382</v>
+        <v>0.8527225060431353</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09717346279248144</v>
+        <v>0.05988478448702649</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04134384871454642</v>
+        <v>0.1702227458030496</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09834812452561546</v>
+        <v>0.02721020530054006</v>
       </c>
       <c r="J127" t="n">
-        <v>0.191807371764114</v>
+        <v>0.1702227458030496</v>
       </c>
       <c r="K127" t="n">
-        <v>0.098773157347957</v>
+        <v>0.02721020530054006</v>
       </c>
       <c r="L127" t="n">
-        <v>0.4701756581166939</v>
+        <v>0.5262913952392637</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09874099621271558</v>
+        <v>0.06088188372517347</v>
       </c>
       <c r="N127" t="n">
-        <v>0.7416202491948642</v>
+        <v>0.8492908537176237</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09876647037924342</v>
+        <v>0.06086650226550234</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03883653012723211</v>
+        <v>0.1706193147154798</v>
       </c>
       <c r="G128" t="n">
-        <v>0.09993438459860926</v>
+        <v>0.02764907957958103</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1895724556055172</v>
+        <v>0.1706193147154798</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1003662727890531</v>
+        <v>0.02764907957958103</v>
       </c>
       <c r="L128" t="n">
-        <v>0.4621486093545977</v>
+        <v>0.52514747104205</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1003335929258239</v>
+        <v>0.06186384959170852</v>
       </c>
       <c r="N128" t="n">
-        <v>0.7410220802488956</v>
+        <v>0.8471661398673221</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1003594779660054</v>
+        <v>0.06184822004397818</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03930919089129448</v>
+        <v>0.1710001440994108</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1015206446716031</v>
+        <v>0.028087953858622</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1869257051351249</v>
+        <v>0.1710001440994108</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1019593882301492</v>
+        <v>0.028087953858622</v>
       </c>
       <c r="L129" t="n">
-        <v>0.4561530968979886</v>
+        <v>0.529026312343312</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1019261896389322</v>
+        <v>0.06284581545824358</v>
       </c>
       <c r="N129" t="n">
-        <v>0.7334909950679562</v>
+        <v>0.8448522350789883</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1019524855527674</v>
+        <v>0.06282993782245402</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04277134388487816</v>
+        <v>0.1713655085993669</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1031069047445969</v>
+        <v>0.02852682813766296</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1849088378698291</v>
+        <v>0.1713655085993669</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1035525036712452</v>
+        <v>0.02852682813766296</v>
       </c>
       <c r="L130" t="n">
-        <v>0.4517909145606173</v>
+        <v>0.5251247625003128</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1035187863520405</v>
+        <v>0.06382778132477863</v>
       </c>
       <c r="N130" t="n">
-        <v>0.718889029846171</v>
+        <v>0.8428530099393802</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1035454931395294</v>
+        <v>0.06381165560092987</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04023250198612778</v>
+        <v>0.1717156828598727</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1046931648175907</v>
+        <v>0.02896570241670394</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1833635713265214</v>
+        <v>0.1717156828598727</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1051456191123413</v>
+        <v>0.02896570241670394</v>
       </c>
       <c r="L131" t="n">
-        <v>0.445463856156234</v>
+        <v>0.5258396648703154</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1051113830651488</v>
+        <v>0.06480974719131369</v>
       </c>
       <c r="N131" t="n">
-        <v>0.7065782207776636</v>
+        <v>0.844572335035256</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1051385007262914</v>
+        <v>0.0647933733794057</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03970217807318795</v>
+        <v>0.1720509415254527</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1062794248905845</v>
+        <v>0.0294045766957449</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1818316230220938</v>
+        <v>0.1720509415254527</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1067387345534374</v>
+        <v>0.0294045766957449</v>
       </c>
       <c r="L132" t="n">
-        <v>0.4433737154985892</v>
+        <v>0.526467862810583</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1067039797782571</v>
+        <v>0.06579171305784874</v>
       </c>
       <c r="N132" t="n">
-        <v>0.7063206040565585</v>
+        <v>0.844414080953373</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1067315083130534</v>
+        <v>0.06577509115788156</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04018988502420325</v>
+        <v>0.1723715592406315</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1078656849635782</v>
+        <v>0.02984345097478587</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1775547104734381</v>
+        <v>0.1723715592406315</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1083318499945335</v>
+        <v>0.02984345097478587</v>
       </c>
       <c r="L133" t="n">
-        <v>0.4335222864014329</v>
+        <v>0.5269061996783785</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1082965764913655</v>
+        <v>0.06677367892438381</v>
       </c>
       <c r="N133" t="n">
-        <v>0.6944782158769798</v>
+        <v>0.8406821182804894</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1083245158998154</v>
+        <v>0.0667568089363574</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03570513571731826</v>
+        <v>0.1726778106499334</v>
       </c>
       <c r="G134" t="n">
-        <v>0.109451945036572</v>
+        <v>0.03028232525382684</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1761745511974462</v>
+        <v>0.1726778106499334</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1099249654356295</v>
+        <v>0.03028232525382684</v>
       </c>
       <c r="L134" t="n">
-        <v>0.4291113626785158</v>
+        <v>0.5259515188309647</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1098891732044738</v>
+        <v>0.06775564479091885</v>
       </c>
       <c r="N134" t="n">
-        <v>0.6810130924330515</v>
+        <v>0.8375803176033635</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1099175234865774</v>
+        <v>0.06773852671483324</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03625744303067767</v>
+        <v>0.1729699703978832</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1110382051095659</v>
+        <v>0.03072119953286781</v>
       </c>
       <c r="J135" t="n">
-        <v>0.17303286271101</v>
+        <v>0.1729699703978832</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1115180808767256</v>
+        <v>0.03072119953286781</v>
       </c>
       <c r="L135" t="n">
-        <v>0.4236427381435882</v>
+        <v>0.5284006636256052</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1114817699175821</v>
+        <v>0.06873761065745392</v>
       </c>
       <c r="N135" t="n">
-        <v>0.6752872699188979</v>
+        <v>0.8437125495087529</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1115105310733394</v>
+        <v>0.06872024449330909</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.038856319842426</v>
+        <v>0.1732483131290052</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1126244651825596</v>
+        <v>0.03116007381190878</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1715713625310211</v>
+        <v>0.1732483131290052</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1131111963178217</v>
+        <v>0.03116007381190878</v>
       </c>
       <c r="L136" t="n">
-        <v>0.4187182066104003</v>
+        <v>0.5298504774195625</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1130743666306904</v>
+        <v>0.06971957652398897</v>
       </c>
       <c r="N136" t="n">
-        <v>0.6668627845286432</v>
+        <v>0.8352826845834153</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1131035386601014</v>
+        <v>0.06970196227178493</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0365112790307079</v>
+        <v>0.1735131134878239</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1142107252555534</v>
+        <v>0.03159894809094974</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1715317681743717</v>
+        <v>0.1735131134878239</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1147043117589178</v>
+        <v>0.03159894809094974</v>
       </c>
       <c r="L137" t="n">
-        <v>0.4187395618927027</v>
+        <v>0.5314978035700999</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1146669633437987</v>
+        <v>0.07070154239052402</v>
       </c>
       <c r="N137" t="n">
-        <v>0.6623016724564117</v>
+        <v>0.8401945934141085</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1146965462468633</v>
+        <v>0.07068368005026078</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03523183347366798</v>
+        <v>0.1737646461188639</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1157969853285472</v>
+        <v>0.03203782236999071</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1692557971579534</v>
+        <v>0.1737646461188639</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1162974272000139</v>
+        <v>0.03203782236999071</v>
       </c>
       <c r="L138" t="n">
-        <v>0.4160085978042456</v>
+        <v>0.5268394854344802</v>
       </c>
       <c r="M138" t="n">
-        <v>0.116259560056907</v>
+        <v>0.07168350825705909</v>
       </c>
       <c r="N138" t="n">
-        <v>0.6601659698963274</v>
+        <v>0.8321521465875911</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1162895538336253</v>
+        <v>0.07166539782873661</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03702749604945085</v>
+        <v>0.1740031856666497</v>
       </c>
       <c r="G139" t="n">
-        <v>0.117383245401541</v>
+        <v>0.03247669664903169</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1681851669986582</v>
+        <v>0.1740031856666497</v>
       </c>
       <c r="K139" t="n">
-        <v>0.11789054264111</v>
+        <v>0.03247669664903169</v>
       </c>
       <c r="L139" t="n">
-        <v>0.4114271081587793</v>
+        <v>0.5299723663699667</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1178521567700154</v>
+        <v>0.07266547412359414</v>
       </c>
       <c r="N139" t="n">
-        <v>0.6502177130425145</v>
+        <v>0.8390592146906203</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1178825614203873</v>
+        <v>0.07264711560721246</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03490777963620109</v>
+        <v>0.1742290067757057</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1189695054745348</v>
+        <v>0.03291557092807265</v>
       </c>
       <c r="J140" t="n">
-        <v>0.168361595213378</v>
+        <v>0.1742290067757057</v>
       </c>
       <c r="K140" t="n">
-        <v>0.119483658082206</v>
+        <v>0.03291557092807265</v>
       </c>
       <c r="L140" t="n">
-        <v>0.4097968867700543</v>
+        <v>0.5274932897338224</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1194447534831237</v>
+        <v>0.0736474399901292</v>
       </c>
       <c r="N140" t="n">
-        <v>0.6528189380890975</v>
+        <v>0.8350196683099543</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1194755690071493</v>
+        <v>0.07362883338568831</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03787966885621644</v>
+        <v>0.1744423840905566</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1205557655475286</v>
+        <v>0.03335444520711362</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1680267993190044</v>
+        <v>0.1744423840905566</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1210767735233021</v>
+        <v>0.03335444520711362</v>
       </c>
       <c r="L141" t="n">
-        <v>0.4066197274518208</v>
+        <v>0.5292990988833101</v>
       </c>
       <c r="M141" t="n">
-        <v>0.121037350196232</v>
+        <v>0.07462940585666425</v>
       </c>
       <c r="N141" t="n">
-        <v>0.6524316812302005</v>
+        <v>0.8282373780323505</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1210685765939113</v>
+        <v>0.07461055116416415</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03889039319883235</v>
+        <v>0.1746435922557268</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1221420256205224</v>
+        <v>0.03379331948615458</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1664244789375794</v>
+        <v>0.1746435922557268</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1226698889643982</v>
+        <v>0.03379331948615458</v>
       </c>
       <c r="L142" t="n">
-        <v>0.4080300822322183</v>
+        <v>0.531686637175693</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1226299469093403</v>
+        <v>0.07561137172319932</v>
       </c>
       <c r="N142" t="n">
-        <v>0.6475281552922871</v>
+        <v>0.8321162144445676</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1226615841806733</v>
+        <v>0.07559226894264</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03391503045673576</v>
+        <v>0.1748329059157408</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1237282856935162</v>
+        <v>0.03423219376519556</v>
       </c>
       <c r="J143" t="n">
-        <v>0.167500210203146</v>
+        <v>0.1748329059157408</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1242630044054943</v>
+        <v>0.03423219376519556</v>
       </c>
       <c r="L143" t="n">
-        <v>0.410020862455911</v>
+        <v>0.5331527479682343</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1242225436224486</v>
+        <v>0.07659333758973436</v>
       </c>
       <c r="N143" t="n">
-        <v>0.6468242884009738</v>
+        <v>0.8327600481333629</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1242545917674353</v>
+        <v>0.07657398672111584</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03595288162710583</v>
+        <v>0.1750105997151231</v>
       </c>
       <c r="G144" t="n">
-        <v>0.12531454576651</v>
+        <v>0.03467106804423653</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1664352361227052</v>
+        <v>0.1750105997151231</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1258561198465904</v>
+        <v>0.03467106804423653</v>
       </c>
       <c r="L144" t="n">
-        <v>0.4085560783410412</v>
+        <v>0.5298942746181966</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1258151403355569</v>
+        <v>0.07757530345626942</v>
       </c>
       <c r="N144" t="n">
-        <v>0.6480506476146816</v>
+        <v>0.8313727496854945</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1258475993541973</v>
+        <v>0.07755570449959169</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03700324770712175</v>
+        <v>0.1751769482983983</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1269008058395038</v>
+        <v>0.03510994232327749</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1675264913083122</v>
+        <v>0.1751769482983983</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1274492352876865</v>
+        <v>0.03510994232327749</v>
       </c>
       <c r="L145" t="n">
-        <v>0.4118282501152549</v>
+        <v>0.5328080604828432</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1274077370486653</v>
+        <v>0.07855726932280446</v>
       </c>
       <c r="N145" t="n">
-        <v>0.6496953265728909</v>
+        <v>0.8311581896877206</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1274406069409593</v>
+        <v>0.07853742227806752</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03606542969396269</v>
+        <v>0.1753322263100908</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1284870659124976</v>
+        <v>0.03554881660231847</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1671709103720223</v>
+        <v>0.1753322263100908</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1290423507287825</v>
+        <v>0.03554881660231847</v>
       </c>
       <c r="L146" t="n">
-        <v>0.4074298980061979</v>
+        <v>0.5283909489194372</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1290003337617736</v>
+        <v>0.07953923518933953</v>
       </c>
       <c r="N146" t="n">
-        <v>0.647446418915082</v>
+        <v>0.8290202387267983</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1290336145277212</v>
+        <v>0.07951914005654337</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03813872858480781</v>
+        <v>0.1754767083947252</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1300733259854914</v>
+        <v>0.03598769088135943</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1679654279258904</v>
+        <v>0.1754767083947252</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1306354661698786</v>
+        <v>0.03598769088135943</v>
       </c>
       <c r="L147" t="n">
-        <v>0.4115535422415159</v>
+        <v>0.5313397832852412</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1305929304748819</v>
+        <v>0.08052120105587458</v>
       </c>
       <c r="N147" t="n">
-        <v>0.6508920182807352</v>
+        <v>0.8300627673894864</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1306266221144833</v>
+        <v>0.08050085783501922</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03522244537683629</v>
+        <v>0.1756106691968259</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1316595860584852</v>
+        <v>0.0364265651604004</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1678069785819717</v>
+        <v>0.1756106691968259</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1322285816109747</v>
+        <v>0.0364265651604004</v>
       </c>
       <c r="L148" t="n">
-        <v>0.4086917030488549</v>
+        <v>0.5326509297343017</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1321855271879902</v>
+        <v>0.08150316692240964</v>
       </c>
       <c r="N148" t="n">
-        <v>0.6525202183093312</v>
+        <v>0.8302881324996215</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1322196297012452</v>
+        <v>0.08148257561349506</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03831588106722728</v>
+        <v>0.1757343833609175</v>
       </c>
       <c r="G149" t="n">
-        <v>0.133245846131479</v>
+        <v>0.03686543943944137</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1685924969523215</v>
+        <v>0.1757343833609175</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1338216970520708</v>
+        <v>0.03686543943944137</v>
       </c>
       <c r="L149" t="n">
-        <v>0.4096369006558609</v>
+        <v>0.5330068043797136</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1337781239010985</v>
+        <v>0.08248513278894469</v>
       </c>
       <c r="N149" t="n">
-        <v>0.6592191126403498</v>
+        <v>0.8276600522682233</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1338126372880072</v>
+        <v>0.08246429339197091</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03841833665315998</v>
+        <v>0.1758481255315245</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1348321062044728</v>
+        <v>0.03730431371848234</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1693189176489949</v>
+        <v>0.1758481255315245</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1354148124931668</v>
+        <v>0.03730431371848234</v>
       </c>
       <c r="L150" t="n">
-        <v>0.4130816552901796</v>
+        <v>0.5325012681082744</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1353707206142068</v>
+        <v>0.08346709865547976</v>
       </c>
       <c r="N150" t="n">
-        <v>0.654976794913272</v>
+        <v>0.8281604606521004</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1354056448747692</v>
+        <v>0.08344601117044674</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03552911313181357</v>
+        <v>0.1759521703531714</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1364183662774666</v>
+        <v>0.03774318799752331</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1695831752840469</v>
+        <v>0.1759521703531714</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1370079279342629</v>
+        <v>0.03774318799752331</v>
       </c>
       <c r="L151" t="n">
-        <v>0.4142184871794569</v>
+        <v>0.5310363086067703</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1369633173273151</v>
+        <v>0.0844490645220148</v>
       </c>
       <c r="N151" t="n">
-        <v>0.6627813587675777</v>
+        <v>0.8248877215579015</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1369986524615312</v>
+        <v>0.0844277289489226</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03764751150036719</v>
+        <v>0.1760467924703827</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1380046263504604</v>
+        <v>0.03818206227656427</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1705822044695328</v>
+        <v>0.1760467924703827</v>
       </c>
       <c r="K152" t="n">
-        <v>0.138601043375359</v>
+        <v>0.03818206227656427</v>
       </c>
       <c r="L152" t="n">
-        <v>0.4150399165513384</v>
+        <v>0.528213913561988</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1385559140404235</v>
+        <v>0.08543103038854986</v>
       </c>
       <c r="N152" t="n">
-        <v>0.6640208978427474</v>
+        <v>0.8276401988922749</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1385916600482932</v>
+        <v>0.08540944672739843</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03477283275600003</v>
+        <v>0.1761322665276829</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1395908864234542</v>
+        <v>0.03862093655560524</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1697129398175076</v>
+        <v>0.1761322665276829</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1401941588164551</v>
+        <v>0.03862093655560524</v>
       </c>
       <c r="L153" t="n">
-        <v>0.4183384636334704</v>
+        <v>0.5321360706607139</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1401485107535318</v>
+        <v>0.08641299625508492</v>
       </c>
       <c r="N153" t="n">
-        <v>0.6597835057782616</v>
+        <v>0.8237162565618686</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1401846676350552</v>
+        <v>0.08639116450587428</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03994830921625901</v>
+        <v>0.1762088671695965</v>
       </c>
       <c r="G154" t="n">
-        <v>0.141177146496448</v>
+        <v>0.03905981083464621</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1716097147857453</v>
+        <v>0.1762088671695965</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1417872742575512</v>
+        <v>0.03905981083464621</v>
       </c>
       <c r="L154" t="n">
-        <v>0.4178163999015114</v>
+        <v>0.5273047675897343</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1417411074666401</v>
+        <v>0.08739496212161997</v>
       </c>
       <c r="N154" t="n">
-        <v>0.6669084383067559</v>
+        <v>0.8265142584733306</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1417776752218172</v>
+        <v>0.08737288228435013</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03823917311921864</v>
+        <v>0.1762768690406481</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1427634065694418</v>
+        <v>0.03949868511368718</v>
       </c>
       <c r="J155" t="n">
-        <v>0.171545118418589</v>
+        <v>0.1762768690406481</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1433803896986472</v>
+        <v>0.03949868511368718</v>
       </c>
       <c r="L155" t="n">
-        <v>0.4230886050564016</v>
+        <v>0.5310219920358359</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1433337041797484</v>
+        <v>0.08837692798815504</v>
       </c>
       <c r="N155" t="n">
-        <v>0.6732452488021639</v>
+        <v>0.82343256853331</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1433706828085792</v>
+        <v>0.08835460006282596</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03562587163492906</v>
+        <v>0.1763365467853621</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1443496666424356</v>
+        <v>0.03993755939272815</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1742423874905726</v>
+        <v>0.1763365467853621</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1449735051397433</v>
+        <v>0.03993755939272815</v>
       </c>
       <c r="L156" t="n">
-        <v>0.4265801466138888</v>
+        <v>0.5306897316858048</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1449263008928567</v>
+        <v>0.08935889385469009</v>
       </c>
       <c r="N156" t="n">
-        <v>0.6779734729579493</v>
+        <v>0.8266695506484542</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1449636903953412</v>
+        <v>0.08933631784130182</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04008730355533294</v>
+        <v>0.176388175048263</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1459359267154294</v>
+        <v>0.04037643367176912</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1757089853382183</v>
+        <v>0.176388175048263</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1465666205808394</v>
+        <v>0.04037643367176912</v>
       </c>
       <c r="L157" t="n">
-        <v>0.4294652282996758</v>
+        <v>0.5299099742264276</v>
       </c>
       <c r="M157" t="n">
-        <v>0.146518897605965</v>
+        <v>0.09034085972122514</v>
       </c>
       <c r="N157" t="n">
-        <v>0.6803336864870502</v>
+        <v>0.8206235687254116</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1465566979821032</v>
+        <v>0.09031803561977765</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03860236767237298</v>
+        <v>0.1764320284738755</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1475221867884232</v>
+        <v>0.04081530795081009</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1790523752980487</v>
+        <v>0.1764320284738755</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1481597360219355</v>
+        <v>0.04081530795081009</v>
       </c>
       <c r="L158" t="n">
-        <v>0.4362180538394655</v>
+        <v>0.5302847073444908</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1481114943190734</v>
+        <v>0.0913228255877602</v>
       </c>
       <c r="N158" t="n">
-        <v>0.6920664651024044</v>
+        <v>0.8237929866708303</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1481497055688651</v>
+        <v>0.0912997533982535</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04014996277799181</v>
+        <v>0.1764683817067238</v>
       </c>
       <c r="G159" t="n">
-        <v>0.149108446861417</v>
+        <v>0.04125418222985106</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1813800207065863</v>
+        <v>0.1764683817067238</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1497528514630316</v>
+        <v>0.04125418222985106</v>
       </c>
       <c r="L159" t="n">
-        <v>0.4432128269589606</v>
+        <v>0.5302159187267811</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1497040910321817</v>
+        <v>0.09230479145429527</v>
       </c>
       <c r="N159" t="n">
-        <v>0.7047123845169502</v>
+        <v>0.8275761683913588</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1497427131556271</v>
+        <v>0.09228147117672936</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04270898766413211</v>
+        <v>0.1764975093913327</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1506947069344108</v>
+        <v>0.04169305650889202</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1833993849003535</v>
+        <v>0.1764975093913327</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1513459669041277</v>
+        <v>0.04169305650889202</v>
       </c>
       <c r="L160" t="n">
-        <v>0.4455237513838637</v>
+        <v>0.5282055960600844</v>
       </c>
       <c r="M160" t="n">
-        <v>0.15129668774529</v>
+        <v>0.0932867573208303</v>
       </c>
       <c r="N160" t="n">
-        <v>0.7126120204436255</v>
+        <v>0.8256714777936457</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1513357207423891</v>
+        <v>0.09326318895520519</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03925834112273655</v>
+        <v>0.1765196861722266</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1522809670074046</v>
+        <v>0.042131930787933</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1843179312158728</v>
+        <v>0.1765196861722266</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1529390823452237</v>
+        <v>0.042131930787933</v>
       </c>
       <c r="L161" t="n">
-        <v>0.4507250308398779</v>
+        <v>0.5270557270311875</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1528892844583983</v>
+        <v>0.09426872318736537</v>
       </c>
       <c r="N161" t="n">
-        <v>0.7205059485953682</v>
+        <v>0.8282772787843383</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1529287283291511</v>
+        <v>0.09424490673368104</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04177692194574778</v>
+        <v>0.17653518669393</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1538672270803984</v>
+        <v>0.04257080506697396</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1864431229896666</v>
+        <v>0.17653518669393</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1545321977863198</v>
+        <v>0.04257080506697396</v>
       </c>
       <c r="L162" t="n">
-        <v>0.4604908690527055</v>
+        <v>0.5254682993268768</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1544818811715066</v>
+        <v>0.09525068905390043</v>
       </c>
       <c r="N162" t="n">
-        <v>0.7252347446851165</v>
+        <v>0.8230919352700855</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1545217359159131</v>
+        <v>0.09522662451215687</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04024362892510849</v>
+        <v>0.1765442856009674</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1554534871533922</v>
+        <v>0.04300967934601493</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1905824235582574</v>
+        <v>0.1765442856009674</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1561253132274159</v>
+        <v>0.04300967934601493</v>
       </c>
       <c r="L163" t="n">
-        <v>0.4601954697480497</v>
+        <v>0.5223453006339387</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1560744778846149</v>
+        <v>0.09623265492043548</v>
       </c>
       <c r="N163" t="n">
-        <v>0.7356389844258083</v>
+        <v>0.8274138111575352</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1561147435026751</v>
+        <v>0.09620834229063271</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0406478372660445</v>
+        <v>0.1765472575378632</v>
       </c>
       <c r="G164" t="n">
-        <v>0.157039747226386</v>
+        <v>0.0434485536250559</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1914446004848415</v>
+        <v>0.1765472575378632</v>
       </c>
       <c r="K164" t="n">
-        <v>0.157718428668512</v>
+        <v>0.0434485536250559</v>
       </c>
       <c r="L164" t="n">
-        <v>0.4704189590558701</v>
+        <v>0.5212887186391596</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1576670745977233</v>
+        <v>0.09721462078697053</v>
       </c>
       <c r="N164" t="n">
-        <v>0.741565104161198</v>
+        <v>0.8230412703533355</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1577077510894371</v>
+        <v>0.09719006006910857</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04403434131386826</v>
+        <v>0.1765472575378632</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1586260072993798</v>
+        <v>0.0434485536250559</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1924429635495319</v>
+        <v>0.1765472575378632</v>
       </c>
       <c r="K165" t="n">
-        <v>0.159311544109608</v>
+        <v>0.0434485536250559</v>
       </c>
       <c r="L165" t="n">
-        <v>0.4693624269006833</v>
+        <v>0.524400541029326</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1592596713108316</v>
+        <v>0.0981965866535056</v>
       </c>
       <c r="N165" t="n">
-        <v>0.7545615442254522</v>
+        <v>0.8212726767641353</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1593007586761991</v>
+        <v>0.09817177784758441</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04041172090207751</v>
+        <v>0.173952760621131</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1602122673723736</v>
+        <v>0.04344828509659188</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1945002340761742</v>
+        <v>0.173952760621131</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1609046595507041</v>
+        <v>0.04344828509659188</v>
       </c>
       <c r="L166" t="n">
-        <v>0.4772058242398581</v>
+        <v>0.5250827554912244</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1608522680239399</v>
+        <v>0.09917855252004064</v>
       </c>
       <c r="N166" t="n">
-        <v>0.7553984412126359</v>
+        <v>0.8228063942965819</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1608937662629611</v>
+        <v>0.09915349562606025</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04378064542450194</v>
+        <v>0.171384024887864</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1617985274453674</v>
+        <v>0.04344801656812786</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1969193476062489</v>
+        <v>0.171384024887864</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1624977749918002</v>
+        <v>0.04344801656812786</v>
       </c>
       <c r="L167" t="n">
-        <v>0.4780563140108134</v>
+        <v>0.5201373497116413</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1624448647370482</v>
+        <v>0.1001605183865757</v>
       </c>
       <c r="N167" t="n">
-        <v>0.762887197142924</v>
+        <v>0.819640786857324</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1624867738497231</v>
+        <v>0.1001352134045361</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04214178427497114</v>
+        <v>0.1688418695535568</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1633847875183612</v>
+        <v>0.04344774803966385</v>
       </c>
       <c r="J168" t="n">
-        <v>0.197303239681237</v>
+        <v>0.1688418695535568</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1640908904328963</v>
+        <v>0.04344774803966385</v>
       </c>
       <c r="L168" t="n">
-        <v>0.4818210591509675</v>
+        <v>0.5219663113773628</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1640374614501565</v>
+        <v>0.1011424842531108</v>
       </c>
       <c r="N168" t="n">
-        <v>0.7649392140364911</v>
+        <v>0.8225742183530101</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1640797814364851</v>
+        <v>0.1011169311830119</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0454958068473148</v>
+        <v>0.1663271138334815</v>
       </c>
       <c r="G169" t="n">
-        <v>0.164971047591355</v>
+        <v>0.04344747951119983</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1998548458426193</v>
+        <v>0.1663271138334815</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1656840058739924</v>
+        <v>0.04344747951119983</v>
       </c>
       <c r="L169" t="n">
-        <v>0.4851072225977392</v>
+        <v>0.5180716281751757</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1656300581632648</v>
+        <v>0.1021244501196458</v>
       </c>
       <c r="N169" t="n">
-        <v>0.7754658939135129</v>
+        <v>0.8213050526902878</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1656727890232471</v>
+        <v>0.1020986489614878</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04284338253536256</v>
+        <v>0.1638405769431302</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1665573076643488</v>
+        <v>0.04344721098273582</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2014771016318767</v>
+        <v>0.1638405769431302</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1672771213150885</v>
+        <v>0.04344721098273582</v>
       </c>
       <c r="L170" t="n">
-        <v>0.4919219672885473</v>
+        <v>0.5207552877918664</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1672226548763731</v>
+        <v>0.1031064159861809</v>
       </c>
       <c r="N170" t="n">
-        <v>0.7794786387941638</v>
+        <v>0.8178316537758058</v>
       </c>
       <c r="O170" t="n">
-        <v>0.167265796610009</v>
+        <v>0.1030803667399636</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04318518073294406</v>
+        <v>0.1613830780977774</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1681435677373425</v>
+        <v>0.0434469424542718</v>
       </c>
       <c r="J171" t="n">
-        <v>0.20207294259049</v>
+        <v>0.1613830780977774</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1688702367561845</v>
+        <v>0.0434469424542718</v>
       </c>
       <c r="L171" t="n">
-        <v>0.4922724561608103</v>
+        <v>0.5205192779142213</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1688152515894815</v>
+        <v>0.1040883818527159</v>
       </c>
       <c r="N171" t="n">
-        <v>0.7863888506986191</v>
+        <v>0.819252385516212</v>
       </c>
       <c r="O171" t="n">
-        <v>0.168858804196771</v>
+        <v>0.1040620845184395</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04752187083388895</v>
+        <v>0.1589554365129128</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1697298278103364</v>
+        <v>0.04344667392580778</v>
       </c>
       <c r="J172" t="n">
-        <v>0.20374530425994</v>
+        <v>0.1589554365129128</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1704633521972806</v>
+        <v>0.04344667392580778</v>
       </c>
       <c r="L172" t="n">
-        <v>0.4999658521519467</v>
+        <v>0.5160655862290267</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1704078483025898</v>
+        <v>0.105070347719251</v>
       </c>
       <c r="N172" t="n">
-        <v>0.7943079316470533</v>
+        <v>0.823965611818155</v>
       </c>
       <c r="O172" t="n">
-        <v>0.170451811783533</v>
+        <v>0.1050438022969153</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04685412223202691</v>
+        <v>0.1565584714038134</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1713160878833302</v>
+        <v>0.04344640539734376</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2045971221817077</v>
+        <v>0.1565584714038134</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1720564676383767</v>
+        <v>0.04344640539734376</v>
       </c>
       <c r="L173" t="n">
-        <v>0.5004093181993752</v>
+        <v>0.5138962004230693</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1720004450156981</v>
+        <v>0.106052313585786</v>
       </c>
       <c r="N173" t="n">
-        <v>0.8006472836596413</v>
+        <v>0.8225696965882826</v>
       </c>
       <c r="O173" t="n">
-        <v>0.172044819370295</v>
+        <v>0.1060255200753912</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04818260432118755</v>
+        <v>0.1541930019859664</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1729023479563239</v>
+        <v>0.04344613686887975</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2080313318972738</v>
+        <v>0.1541930019859664</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1736495830794728</v>
+        <v>0.04344613686887975</v>
       </c>
       <c r="L174" t="n">
-        <v>0.5058100172405147</v>
+        <v>0.5154131081831352</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1735930417288064</v>
+        <v>0.1070342794523211</v>
       </c>
       <c r="N174" t="n">
-        <v>0.8075183087565588</v>
+        <v>0.8241630037332434</v>
       </c>
       <c r="O174" t="n">
-        <v>0.173637826957057</v>
+        <v>0.107007237853867</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04750798649520054</v>
+        <v>0.1518598474746514</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1744886080293178</v>
+        <v>0.04344586834041573</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2086508689481192</v>
+        <v>0.1518598474746514</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1752426985205689</v>
+        <v>0.04344586834041573</v>
       </c>
       <c r="L175" t="n">
-        <v>0.5100751122127835</v>
+        <v>0.5126182971960113</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1751856384419147</v>
+        <v>0.1080162453188561</v>
       </c>
       <c r="N175" t="n">
-        <v>0.8120324089579799</v>
+        <v>0.8239438971596852</v>
       </c>
       <c r="O175" t="n">
-        <v>0.175230834543819</v>
+        <v>0.1079889556323429</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0478418453319078</v>
+        <v>0.1495598270853527</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1760748681023116</v>
+        <v>0.04344559981195171</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2088751721316929</v>
+        <v>0.1495598270853527</v>
       </c>
       <c r="K176" t="n">
-        <v>0.176835813961665</v>
+        <v>0.04344559981195171</v>
       </c>
       <c r="L176" t="n">
-        <v>0.5139565245171197</v>
+        <v>0.5123137551484835</v>
       </c>
       <c r="M176" t="n">
-        <v>0.176778235155023</v>
+        <v>0.1089982111853912</v>
       </c>
       <c r="N176" t="n">
-        <v>0.8190665436876098</v>
+        <v>0.8232107407742565</v>
       </c>
       <c r="O176" t="n">
-        <v>0.176823842130581</v>
+        <v>0.1089706734108187</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04719373491931214</v>
+        <v>0.1472937600333529</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1776611281753053</v>
+        <v>0.04344533128348769</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2112810199873228</v>
+        <v>0.1472937600333529</v>
       </c>
       <c r="K177" t="n">
-        <v>0.178428929402761</v>
+        <v>0.04344533128348769</v>
       </c>
       <c r="L177" t="n">
-        <v>0.518238355067197</v>
+        <v>0.5113014697273389</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1783708318681314</v>
+        <v>0.1099801770519263</v>
       </c>
       <c r="N177" t="n">
-        <v>0.8220179281211849</v>
+        <v>0.8207618984836055</v>
       </c>
       <c r="O177" t="n">
-        <v>0.178416849717343</v>
+        <v>0.1099523911892945</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0445523282780645</v>
+        <v>0.1450624655341334</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1792473882482991</v>
+        <v>0.04344506275502368</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2137350184649369</v>
+        <v>0.1450624655341334</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1800220448438571</v>
+        <v>0.04344506275502368</v>
       </c>
       <c r="L178" t="n">
-        <v>0.5207342281831551</v>
+        <v>0.5100834286193635</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1799634285812397</v>
+        <v>0.1109621429184613</v>
       </c>
       <c r="N178" t="n">
-        <v>0.8287551947005035</v>
+        <v>0.8182957341943803</v>
       </c>
       <c r="O178" t="n">
-        <v>0.180009857304105</v>
+        <v>0.1109341089677704</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04590612640280037</v>
+        <v>0.1428667628029797</v>
       </c>
       <c r="G179" t="n">
-        <v>0.180833648321293</v>
+        <v>0.04344479422655965</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2146867401393914</v>
+        <v>0.1428667628029797</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1816151602849532</v>
+        <v>0.04344479422655965</v>
       </c>
       <c r="L179" t="n">
-        <v>0.5211210972336169</v>
+        <v>0.5125616195113438</v>
       </c>
       <c r="M179" t="n">
-        <v>0.181556025294348</v>
+        <v>0.1119441087849964</v>
       </c>
       <c r="N179" t="n">
-        <v>0.8351824768290256</v>
+        <v>0.8205106118132296</v>
       </c>
       <c r="O179" t="n">
-        <v>0.181602864890867</v>
+        <v>0.1119158267462462</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04624363028815519</v>
+        <v>0.1407074710553702</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1824199083942867</v>
+        <v>0.04344452569809564</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2156857575855433</v>
+        <v>0.1407074710553702</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1832082757260493</v>
+        <v>0.04344452569809564</v>
       </c>
       <c r="L180" t="n">
-        <v>0.5254759155872057</v>
+        <v>0.5091380300900662</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1831486220074563</v>
+        <v>0.1129260746515314</v>
       </c>
       <c r="N180" t="n">
-        <v>0.8348039079102106</v>
+        <v>0.8225048952468007</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1831958724776289</v>
+        <v>0.1128975445247221</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04855334092876441</v>
+        <v>0.1385854095065935</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1840061684672805</v>
+        <v>0.04344425716963162</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2180816433782491</v>
+        <v>0.1385854095065935</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1848013911671453</v>
+        <v>0.04344425716963162</v>
       </c>
       <c r="L181" t="n">
-        <v>0.5300756366125451</v>
+        <v>0.5052146480423173</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1847412187205646</v>
+        <v>0.1139080405180665</v>
       </c>
       <c r="N181" t="n">
-        <v>0.8411236213475192</v>
+        <v>0.8178769484017426</v>
       </c>
       <c r="O181" t="n">
-        <v>0.184788880064391</v>
+        <v>0.1138792623031979</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0508237593192635</v>
+        <v>0.1365013973721248</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1855924285402744</v>
+        <v>0.04344398864116761</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2179239700923656</v>
+        <v>0.1365013973721248</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1863945066082414</v>
+        <v>0.04344398864116761</v>
       </c>
       <c r="L182" t="n">
-        <v>0.5364972136782572</v>
+        <v>0.5050934610548836</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1863338154336729</v>
+        <v>0.1148900063846015</v>
       </c>
       <c r="N182" t="n">
-        <v>0.8490457505444112</v>
+        <v>0.8211251351847034</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1863818876511529</v>
+        <v>0.1148609800816738</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04704338645428791</v>
+        <v>0.1344562538673001</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1871786886132681</v>
+        <v>0.04344372011270359</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2201623103027494</v>
+        <v>0.1344562538673001</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1879876220493375</v>
+        <v>0.04344372011270359</v>
       </c>
       <c r="L183" t="n">
-        <v>0.5337176001529662</v>
+        <v>0.5044764568145514</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1879264121467813</v>
+        <v>0.1158719722511366</v>
       </c>
       <c r="N183" t="n">
-        <v>0.8513744289043464</v>
+        <v>0.8200478195023307</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1879748952379149</v>
+        <v>0.1158426978601496</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04620128435359536</v>
+        <v>0.132450798207459</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1887649486862619</v>
+        <v>0.04344345158423957</v>
       </c>
       <c r="J184" t="n">
-        <v>0.221046236584257</v>
+        <v>0.132450798207459</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1895807374904336</v>
+        <v>0.04344345158423957</v>
       </c>
       <c r="L184" t="n">
-        <v>0.5409137494052944</v>
+        <v>0.5026656230081071</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1895190088598896</v>
+        <v>0.1168539381176717</v>
       </c>
       <c r="N184" t="n">
-        <v>0.858013789830785</v>
+        <v>0.8208433652612738</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1895679028246769</v>
+        <v>0.1168244156386254</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.05133118797417191</v>
+        <v>0.1304858496080713</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1903512087592557</v>
+        <v>0.04344318305577556</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2201222297241569</v>
+        <v>0.1304858496080713</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1911738529315297</v>
+        <v>0.04344318305577556</v>
       </c>
       <c r="L185" t="n">
-        <v>0.5415154858692693</v>
+        <v>0.5061629473223372</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1911116055729979</v>
+        <v>0.1178359039842067</v>
       </c>
       <c r="N185" t="n">
-        <v>0.8540497242190322</v>
+        <v>0.82101013636818</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1911609104114389</v>
+        <v>0.1178061334171013</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04945835124713963</v>
+        <v>0.1285622272844344</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1919374688322495</v>
+        <v>0.04344291452731154</v>
       </c>
       <c r="J186" t="n">
-        <v>0.22077916158333</v>
+        <v>0.1285622272844344</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1927669683726257</v>
+        <v>0.04344291452731154</v>
       </c>
       <c r="L186" t="n">
-        <v>0.5435745772642986</v>
+        <v>0.5014704174440284</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1927042022861062</v>
+        <v>0.1188178698507418</v>
       </c>
       <c r="N186" t="n">
-        <v>0.8574129643736373</v>
+        <v>0.8165464967296979</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1927539179982009</v>
+        <v>0.1187878511955772</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04658273185460279</v>
+        <v>0.1266807504520145</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1935237289052433</v>
+        <v>0.04344264599884753</v>
       </c>
       <c r="J187" t="n">
-        <v>0.221824005216652</v>
+        <v>0.1266807504520145</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1943600838137218</v>
+        <v>0.04344264599884753</v>
       </c>
       <c r="L187" t="n">
-        <v>0.5410041513863384</v>
+        <v>0.5013194675231544</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1942967989992145</v>
+        <v>0.1197998357172768</v>
       </c>
       <c r="N187" t="n">
-        <v>0.8588292453208287</v>
+        <v>0.8206188437410314</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1943469255849629</v>
+        <v>0.119769568974053</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.05070428747866562</v>
+        <v>0.1248422383261127</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1951099889782371</v>
+        <v>0.04344237747038351</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2222565750443746</v>
+        <v>0.1248422383261127</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1959531992548179</v>
+        <v>0.04344237747038351</v>
       </c>
       <c r="L188" t="n">
-        <v>0.5456037554071352</v>
+        <v>0.5017367129958926</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1958893957123228</v>
+        <v>0.1207818015838119</v>
       </c>
       <c r="N188" t="n">
-        <v>0.8678978462450265</v>
+        <v>0.8182992595898536</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1959399331717249</v>
+        <v>0.1207512867525288</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.05182297580143239</v>
+        <v>0.1230475101221916</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1966962490512309</v>
+        <v>0.04344210894191949</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2221766854867498</v>
+        <v>0.1230475101221916</v>
       </c>
       <c r="K189" t="n">
-        <v>0.197546314695914</v>
+        <v>0.04344210894191949</v>
       </c>
       <c r="L189" t="n">
-        <v>0.5474729364984354</v>
+        <v>0.4981318913130556</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1974819924254312</v>
+        <v>0.1217637674503469</v>
       </c>
       <c r="N189" t="n">
-        <v>0.8655180463306519</v>
+        <v>0.8127060059532235</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1975329407584868</v>
+        <v>0.1217330045310047</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.05193875450500732</v>
+        <v>0.1212940399260764</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1982825091242247</v>
+        <v>0.04344184041345547</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2231841509640292</v>
+        <v>0.1212940399260764</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1991394301370101</v>
+        <v>0.04344184041345547</v>
       </c>
       <c r="L190" t="n">
-        <v>0.545311241831985</v>
+        <v>0.5000148261975822</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1990745891385395</v>
+        <v>0.122745733316882</v>
       </c>
       <c r="N190" t="n">
-        <v>0.8674891247621251</v>
+        <v>0.8093573710017871</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1991259483452489</v>
+        <v>0.1227147223094805</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.05105158127149469</v>
+        <v>0.1195625761763499</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1998687691972185</v>
+        <v>0.04344157188499145</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2246787858964647</v>
+        <v>0.1195625761763499</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2007325455781062</v>
+        <v>0.04344157188499145</v>
       </c>
       <c r="L191" t="n">
-        <v>0.5478182185795303</v>
+        <v>0.4979953413724109</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2006671858516478</v>
+        <v>0.123727699183417</v>
       </c>
       <c r="N191" t="n">
-        <v>0.8720103607238677</v>
+        <v>0.8097716429061906</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2007189559320108</v>
+        <v>0.1236964400879564</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04816141378299871</v>
+        <v>0.1178505929588401</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2014550292702123</v>
+        <v>0.04344130335652743</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2255604047043078</v>
+        <v>0.1178505929588401</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2023256610192022</v>
+        <v>0.04344130335652743</v>
       </c>
       <c r="L192" t="n">
-        <v>0.5458934139128172</v>
+        <v>0.4958832605604806</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2022597825647561</v>
+        <v>0.1247096650499521</v>
       </c>
       <c r="N192" t="n">
-        <v>0.8687810334002991</v>
+        <v>0.8110671098370793</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2023119635187728</v>
+        <v>0.1246781578664322</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04926820972162366</v>
+        <v>0.1161589094890039</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2030412893432061</v>
+        <v>0.04344103482806342</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2238288218078107</v>
+        <v>0.1161589094890039</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2039187764602983</v>
+        <v>0.04344103482806342</v>
       </c>
       <c r="L193" t="n">
-        <v>0.5472363750035922</v>
+        <v>0.4941884074847303</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2038523792778644</v>
+        <v>0.1256916309164872</v>
       </c>
       <c r="N193" t="n">
-        <v>0.8720004219758407</v>
+        <v>0.8060620599651002</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2039049711055348</v>
+        <v>0.125659875644908</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.05037192676947376</v>
+        <v>0.1144883449821506</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2046275494161999</v>
+        <v>0.0434407662995994</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2258838516272249</v>
+        <v>0.1144883449821506</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2055118919013944</v>
+        <v>0.0434407662995994</v>
       </c>
       <c r="L194" t="n">
-        <v>0.5503466490236019</v>
+        <v>0.4920206058680985</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2054449759909727</v>
+        <v>0.1266735967830222</v>
       </c>
       <c r="N194" t="n">
-        <v>0.876067805634913</v>
+        <v>0.8022747814608989</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2054979786922968</v>
+        <v>0.1266415934233839</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.04947252260865329</v>
+        <v>0.1128397186537355</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2062138094891937</v>
+        <v>0.04344049777113539</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2255253085828023</v>
+        <v>0.1128397186537355</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2071050073424905</v>
+        <v>0.04344049777113539</v>
       </c>
       <c r="L195" t="n">
-        <v>0.551123783144592</v>
+        <v>0.4902896794335241</v>
       </c>
       <c r="M195" t="n">
-        <v>0.207037572704081</v>
+        <v>0.1276555626495573</v>
       </c>
       <c r="N195" t="n">
-        <v>0.8787824635619362</v>
+        <v>0.8052235624951211</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2070909862790588</v>
+        <v>0.1276233112018597</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04756995492126646</v>
+        <v>0.1112138497190696</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2078000695621875</v>
+        <v>0.04344022924267137</v>
       </c>
       <c r="J196" t="n">
-        <v>0.2260530070947946</v>
+        <v>0.1112138497190696</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2086981227835865</v>
+        <v>0.04344022924267137</v>
       </c>
       <c r="L196" t="n">
-        <v>0.551067324538309</v>
+        <v>0.4867054519039458</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2086301694171893</v>
+        <v>0.1286375285160923</v>
       </c>
       <c r="N196" t="n">
-        <v>0.8765436749413319</v>
+        <v>0.7969266912384131</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2086839938658208</v>
+        <v>0.1286050289803356</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.05066418138941754</v>
+        <v>0.1096115573936064</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2093863296351813</v>
+        <v>0.04343996071420735</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2265667615834537</v>
+        <v>0.1096115573936064</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2102912382246827</v>
+        <v>0.04343996071420735</v>
       </c>
       <c r="L197" t="n">
-        <v>0.5556768203764989</v>
+        <v>0.4867777470023026</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2102227661302977</v>
+        <v>0.1296194943826274</v>
       </c>
       <c r="N197" t="n">
-        <v>0.8764507189575205</v>
+        <v>0.7979024558614206</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2102770014525828</v>
+        <v>0.1295867467588114</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.04875515969521077</v>
+        <v>0.1080336608926929</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2109725897081751</v>
+        <v>0.04343969218574334</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2272663864690312</v>
+        <v>0.1080336608926929</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2118843536657787</v>
+        <v>0.04343969218574334</v>
       </c>
       <c r="L198" t="n">
-        <v>0.5539518178309081</v>
+        <v>0.484516388451533</v>
       </c>
       <c r="M198" t="n">
-        <v>0.211815362843406</v>
+        <v>0.1306014602491624</v>
       </c>
       <c r="N198" t="n">
-        <v>0.8815028747949215</v>
+        <v>0.7991691445347898</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2118700090393448</v>
+        <v>0.1305684645372873</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.05084284752075041</v>
+        <v>0.1064809794316784</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2125588497811689</v>
+        <v>0.04343942365727932</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2267516961717791</v>
+        <v>0.1064809794316784</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2134774691068748</v>
+        <v>0.04343942365727932</v>
       </c>
       <c r="L199" t="n">
-        <v>0.5554918640732829</v>
+        <v>0.4817311999745761</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2134079595565143</v>
+        <v>0.1315834261156975</v>
       </c>
       <c r="N199" t="n">
-        <v>0.8842994216379566</v>
+        <v>0.7905450454291668</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2134630166261068</v>
+        <v>0.1315501823157631</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.04792720254814067</v>
+        <v>0.1049543322260131</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2141451098541627</v>
+        <v>0.0434391551288153</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2288225051119491</v>
+        <v>0.1049543322260131</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2150705845479709</v>
+        <v>0.0434391551288153</v>
       </c>
       <c r="L200" t="n">
-        <v>0.5576965062753692</v>
+        <v>0.4808320052943703</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2150005562696226</v>
+        <v>0.1325653919822325</v>
       </c>
       <c r="N200" t="n">
-        <v>0.8829396386710465</v>
+        <v>0.7921484467151972</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2150560242128688</v>
+        <v>0.132531900094239</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.05000818245948588</v>
+        <v>0.1034545384910132</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2157313699271565</v>
+        <v>0.04343888660035128</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2281786277097929</v>
+        <v>0.1034545384910132</v>
       </c>
       <c r="K201" t="n">
-        <v>0.216663699989067</v>
+        <v>0.04343888660035128</v>
       </c>
       <c r="L201" t="n">
-        <v>0.5556652916089136</v>
+        <v>0.4782286281338548</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2165931529827309</v>
+        <v>0.1335473578487676</v>
       </c>
       <c r="N201" t="n">
-        <v>0.8886228050786117</v>
+        <v>0.7860976365635276</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2166490317996307</v>
+        <v>0.1335136178727148</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.05108574493689018</v>
+        <v>0.1019824174421268</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2173176300001503</v>
+        <v>0.04343861807188727</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2280198783855624</v>
+        <v>0.1019824174421268</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2182568154301631</v>
+        <v>0.04343861807188727</v>
       </c>
       <c r="L202" t="n">
-        <v>0.5555977672456622</v>
+        <v>0.477130892215968</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2181857496958392</v>
+        <v>0.1345293237153027</v>
       </c>
       <c r="N202" t="n">
-        <v>0.8865482000450723</v>
+        <v>0.7852109031448037</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2182420393863928</v>
+        <v>0.1344953356511907</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0481598476624579</v>
+        <v>0.1005387882946725</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2189038900731441</v>
+        <v>0.04343834954342325</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2298460715595093</v>
+        <v>0.1005387882946725</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2198499308712591</v>
+        <v>0.04343834954342325</v>
       </c>
       <c r="L203" t="n">
-        <v>0.5607934803573611</v>
+        <v>0.4767486212636491</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2197783464089476</v>
+        <v>0.1355112895818377</v>
       </c>
       <c r="N203" t="n">
-        <v>0.8886151027548496</v>
+        <v>0.7801065346296713</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2198350469731547</v>
+        <v>0.1354770534296665</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.05323044831829322</v>
+        <v>0.09912447026409588</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2204901501461379</v>
+        <v>0.04343808101495923</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2296570216518854</v>
+        <v>0.09912447026409588</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2214430463123552</v>
+        <v>0.04343808101495923</v>
       </c>
       <c r="L204" t="n">
-        <v>0.5579519781157567</v>
+        <v>0.4711916389998365</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2213709431220559</v>
+        <v>0.1364932554483728</v>
       </c>
       <c r="N204" t="n">
-        <v>0.8881227923923644</v>
+        <v>0.7737028191887766</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2214280545599168</v>
+        <v>0.1364587712081423</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.04929750458650047</v>
+        <v>0.09774028256571804</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2220764102191317</v>
+        <v>0.04343781248649521</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2300525430829425</v>
+        <v>0.09774028256571804</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2230361617534513</v>
+        <v>0.04343781248649521</v>
       </c>
       <c r="L205" t="n">
-        <v>0.5611728076925953</v>
+        <v>0.4680697691474691</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2229635398351642</v>
+        <v>0.1374752213149078</v>
       </c>
       <c r="N205" t="n">
-        <v>0.8958705481420365</v>
+        <v>0.7689180449927654</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2230210621466787</v>
+        <v>0.1374404889866182</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.05336097414918381</v>
+        <v>0.09638704441498203</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2236626702921255</v>
+        <v>0.0434375439580312</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2300324502729323</v>
+        <v>0.09638704441498203</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2246292771945474</v>
+        <v>0.0434375439580312</v>
       </c>
       <c r="L206" t="n">
-        <v>0.5630555162596228</v>
+        <v>0.4699928354294859</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2245561365482725</v>
+        <v>0.1384571871814429</v>
       </c>
       <c r="N206" t="n">
-        <v>0.8881576491882871</v>
+        <v>0.7736705002122838</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2246140697334407</v>
+        <v>0.138422206765094</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.04842081468844756</v>
+        <v>0.09506557502721155</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2252489303651193</v>
+        <v>0.04343727542956718</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2298965576421068</v>
+        <v>0.09506557502721155</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2262223926356434</v>
+        <v>0.04343727542956718</v>
       </c>
       <c r="L207" t="n">
-        <v>0.5596996509885858</v>
+        <v>0.4668706615688254</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2261487332613808</v>
+        <v>0.1394391530479779</v>
       </c>
       <c r="N207" t="n">
-        <v>0.8929833747155368</v>
+        <v>0.7711784730179781</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2262070773202027</v>
+        <v>0.1394039245435699</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0504769838863959</v>
+        <v>0.09377669361784691</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2268351904381131</v>
+        <v>0.04343700690110316</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2313446796107176</v>
+        <v>0.09377669361784691</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2278155080767395</v>
+        <v>0.04343700690110316</v>
       </c>
       <c r="L208" t="n">
-        <v>0.5611047590512303</v>
+        <v>0.4649130712884265</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2277413299744891</v>
+        <v>0.140421118914513</v>
       </c>
       <c r="N208" t="n">
-        <v>0.8936470039082064</v>
+        <v>0.766460251580494</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2278000849069647</v>
+        <v>0.1403856423220457</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.05252943942513315</v>
+        <v>0.09252121940221475</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2284214505111068</v>
+        <v>0.04343673837263914</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2304766305990165</v>
+        <v>0.09252121940221475</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2294086235178356</v>
+        <v>0.04343673837263914</v>
       </c>
       <c r="L209" t="n">
-        <v>0.5633703876193025</v>
+        <v>0.460729888311228</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2293339266875975</v>
+        <v>0.141403084781048</v>
       </c>
       <c r="N209" t="n">
-        <v>0.8991478159507164</v>
+        <v>0.7573341240704773</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2293930924937267</v>
+        <v>0.1413673601005216</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0535781389867635</v>
+        <v>0.09129997159575234</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2300077105841007</v>
+        <v>0.04343646984417513</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2296922250272554</v>
+        <v>0.09129997159575234</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2310017389589317</v>
+        <v>0.04343646984417513</v>
       </c>
       <c r="L210" t="n">
-        <v>0.5613960838645488</v>
+        <v>0.4586309363601685</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2309265234007058</v>
+        <v>0.1423850506475831</v>
       </c>
       <c r="N210" t="n">
-        <v>0.8972850900274872</v>
+        <v>0.7581183786585742</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2309861000804887</v>
+        <v>0.1423490778789974</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.05362304025339122</v>
+        <v>0.09011376941378932</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2315939706570945</v>
+        <v>0.04343620131571111</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2300912773156858</v>
+        <v>0.09011376941378932</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2325948544000278</v>
+        <v>0.04343620131571111</v>
       </c>
       <c r="L211" t="n">
-        <v>0.5629813949587152</v>
+        <v>0.4604260391581873</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2325191201138141</v>
+        <v>0.1433670165141182</v>
       </c>
       <c r="N211" t="n">
-        <v>0.8979581053229398</v>
+        <v>0.755831303515431</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2325791076672507</v>
+        <v>0.1433307956574732</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.05366410090712055</v>
+        <v>0.08896343207176002</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2331802307300883</v>
+        <v>0.04343593278724709</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2313736018845599</v>
+        <v>0.08896343207176002</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2341879698411239</v>
+        <v>0.04343593278724709</v>
       </c>
       <c r="L212" t="n">
-        <v>0.5664258680735482</v>
+        <v>0.4607250204282224</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2341117168269224</v>
+        <v>0.1443489823806532</v>
       </c>
       <c r="N212" t="n">
-        <v>0.8969661410214947</v>
+        <v>0.7493911868116935</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2341721152540127</v>
+        <v>0.1443125134359491</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.05270127863005576</v>
+        <v>0.08784977878499706</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2347664908030821</v>
+        <v>0.04343566425878307</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2314390131541292</v>
+        <v>0.08784977878499706</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2357810852822199</v>
+        <v>0.04343566425878307</v>
       </c>
       <c r="L213" t="n">
-        <v>0.5671290503807938</v>
+        <v>0.4576377038932132</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2357043135400307</v>
+        <v>0.1453309482471883</v>
       </c>
       <c r="N213" t="n">
-        <v>0.9005084763075727</v>
+        <v>0.752716316718007</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2357651228407747</v>
+        <v>0.1452942312144249</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.05173453110430105</v>
+        <v>0.08677362876893163</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2363527508760759</v>
+        <v>0.04343539573031906</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2314873255446456</v>
+        <v>0.08677362876893163</v>
       </c>
       <c r="K214" t="n">
-        <v>0.237374200723316</v>
+        <v>0.04343539573031906</v>
       </c>
       <c r="L214" t="n">
-        <v>0.5674904890521983</v>
+        <v>0.4587739132760983</v>
       </c>
       <c r="M214" t="n">
-        <v>0.237296910253139</v>
+        <v>0.1463129141137233</v>
       </c>
       <c r="N214" t="n">
-        <v>0.9010843903655942</v>
+        <v>0.7531249814050186</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2373581304275366</v>
+        <v>0.1462759489929008</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.05076381601196073</v>
+        <v>0.08677362876893163</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2379390109490697</v>
+        <v>0.04343539573031906</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2315183534763608</v>
+        <v>0.08677362876893163</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2389673161644121</v>
+        <v>0.04343539573031906</v>
       </c>
       <c r="L215" t="n">
-        <v>0.5628097312595082</v>
+        <v>0.4542434722998167</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2388895069662473</v>
+        <v>0.1472948799802584</v>
       </c>
       <c r="N215" t="n">
-        <v>0.8970931623799799</v>
+        <v>0.7482354690433736</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2389511380142987</v>
+        <v>0.1472576667713766</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.04978909103513898</v>
+        <v>0.08468749856074842</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2395252710220635</v>
+        <v>0.04342232959940467</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2328319113695265</v>
+        <v>0.08468749856074842</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2405604316055082</v>
+        <v>0.04342232959940467</v>
       </c>
       <c r="L216" t="n">
-        <v>0.5662863241744694</v>
+        <v>0.4535562046873067</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2404821036793557</v>
+        <v>0.1482768458467935</v>
       </c>
       <c r="N216" t="n">
-        <v>0.8978340715351508</v>
+        <v>0.7456660678037182</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2405441456010606</v>
+        <v>0.1482393845498524</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.05081031385594011</v>
+        <v>0.08261677353242444</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2411115310950573</v>
+        <v>0.04340926346849028</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2312278136443948</v>
+        <v>0.08261677353242444</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2421535470466042</v>
+        <v>0.04340926346849028</v>
       </c>
       <c r="L217" t="n">
-        <v>0.5688198149688282</v>
+        <v>0.4516219341615074</v>
       </c>
       <c r="M217" t="n">
-        <v>0.242074700392464</v>
+        <v>0.1492588117133285</v>
       </c>
       <c r="N217" t="n">
-        <v>0.8983063970155268</v>
+        <v>0.7479350658566982</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2421371531878226</v>
+        <v>0.1492211023283283</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.05282744215646834</v>
+        <v>0.0805617240183501</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2426977911680511</v>
+        <v>0.0433961973375759</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2319058747212171</v>
+        <v>0.0805617240183501</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2437466624877003</v>
+        <v>0.0433961973375759</v>
       </c>
       <c r="L218" t="n">
-        <v>0.5648097508143309</v>
+        <v>0.4555504844453575</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2436672971055723</v>
+        <v>0.1502407775798635</v>
       </c>
       <c r="N218" t="n">
-        <v>0.899909418005529</v>
+        <v>0.7478607513729602</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2437301607745846</v>
+        <v>0.1502028201068042</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.04884043361882788</v>
+        <v>0.07852262035291582</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2442840512410449</v>
+        <v>0.04338313120666151</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2328659090202454</v>
+        <v>0.07852262035291582</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2453397779287964</v>
+        <v>0.04338313120666151</v>
       </c>
       <c r="L219" t="n">
-        <v>0.5688556788827236</v>
+        <v>0.4530516792617958</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2452598938186806</v>
+        <v>0.1512227434463986</v>
       </c>
       <c r="N219" t="n">
-        <v>0.9049424136895784</v>
+        <v>0.7431614125231493</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2453231683613466</v>
+        <v>0.15118453788528</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04984924592512303</v>
+        <v>0.07649973287051118</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2458703113140386</v>
+        <v>0.04337006507574712</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2316077309617315</v>
+        <v>0.07649973287051118</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2469328933698925</v>
+        <v>0.04337006507574712</v>
       </c>
       <c r="L220" t="n">
-        <v>0.5656571463457524</v>
+        <v>0.4518353423337612</v>
       </c>
       <c r="M220" t="n">
-        <v>0.246852490531789</v>
+        <v>0.1522047093129337</v>
       </c>
       <c r="N220" t="n">
-        <v>0.9036046632520952</v>
+        <v>0.7448553374779122</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2469161759481086</v>
+        <v>0.1521662556637558</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.04985383675745805</v>
+        <v>0.0744933319055284</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2474565713870324</v>
+        <v>0.04335699894483273</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2315311549659271</v>
+        <v>0.0744933319055284</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2485260088109885</v>
+        <v>0.04335699894483273</v>
       </c>
       <c r="L221" t="n">
-        <v>0.5653137003751642</v>
+        <v>0.4548971631712875</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2484450872448973</v>
+        <v>0.1531866751794687</v>
       </c>
       <c r="N221" t="n">
-        <v>0.8977954458775</v>
+        <v>0.7403368398495317</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2485091835348706</v>
+        <v>0.1531479734422317</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.04884255813453528</v>
+        <v>0.07250368779235691</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2490428314600262</v>
+        <v>0.04334393281391834</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2327195025093926</v>
+        <v>0.07250368779235691</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2501191242520847</v>
+        <v>0.04334393281391834</v>
       </c>
       <c r="L222" t="n">
-        <v>0.5663799191086085</v>
+        <v>0.449997494243958</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2500376839580056</v>
+        <v>0.1541686410460038</v>
       </c>
       <c r="N222" t="n">
-        <v>0.9013484508739414</v>
+        <v>0.7376827070496382</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2501021911216326</v>
+        <v>0.1541296912207075</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.05172344090567789</v>
+        <v>0.07053107086538724</v>
       </c>
       <c r="G223" t="n">
-        <v>0.25062909153302</v>
+        <v>0.04333086668300395</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2323988739147603</v>
+        <v>0.07053107086538724</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2517122396931807</v>
+        <v>0.04333086668300395</v>
       </c>
       <c r="L223" t="n">
-        <v>0.5637347591066938</v>
+        <v>0.4516988957834309</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2516302806711139</v>
+        <v>0.1551506069125388</v>
       </c>
       <c r="N223" t="n">
-        <v>0.8996084545209077</v>
+        <v>0.7364341214860239</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2516951987083946</v>
+        <v>0.1551114089991834</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.05348740143941742</v>
+        <v>0.06857575145900976</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2522153516060138</v>
+        <v>0.04331780055208957</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2300574972056422</v>
+        <v>0.06857575145900976</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2533053551342768</v>
+        <v>0.04331780055208957</v>
       </c>
       <c r="L224" t="n">
-        <v>0.5629204066424677</v>
+        <v>0.453102145532926</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2532228773842222</v>
+        <v>0.1561325727790739</v>
       </c>
       <c r="N224" t="n">
-        <v>0.895346292429741</v>
+        <v>0.7367911039962526</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2532882062951566</v>
+        <v>0.1560931267776592</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.05014763205971641</v>
+        <v>0.0666379999076149</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2538016116790076</v>
+        <v>0.04330473442117518</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2303532256404719</v>
+        <v>0.0666379999076149</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2548984705753729</v>
+        <v>0.04330473442117518</v>
       </c>
       <c r="L225" t="n">
-        <v>0.5620780279274551</v>
+        <v>0.4493080212356632</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2548154740973305</v>
+        <v>0.1571145386456089</v>
       </c>
       <c r="N225" t="n">
-        <v>0.8897866740873127</v>
+        <v>0.7435536754178872</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2548812138819185</v>
+        <v>0.157074844556135</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.04971732509053742</v>
+        <v>0.06471808654559308</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2553878717520014</v>
+        <v>0.04329166829026079</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2275439124776834</v>
+        <v>0.06471808654559308</v>
       </c>
       <c r="K226" t="n">
-        <v>0.256491586016469</v>
+        <v>0.04329166829026079</v>
       </c>
       <c r="L226" t="n">
-        <v>0.5558487891731817</v>
+        <v>0.4520173006348622</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2564080708104388</v>
+        <v>0.158096504512144</v>
       </c>
       <c r="N226" t="n">
-        <v>0.8876543089804937</v>
+        <v>0.7407218565884911</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2564742214686805</v>
+        <v>0.1580565623346109</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.05020967285584296</v>
+        <v>0.06281628170733475</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2569741318249952</v>
+        <v>0.0432786021593464</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2244874109757107</v>
+        <v>0.06281628170733475</v>
       </c>
       <c r="K227" t="n">
-        <v>0.258084701457565</v>
+        <v>0.0432786021593464</v>
       </c>
       <c r="L227" t="n">
-        <v>0.5482738565911727</v>
+        <v>0.4507307614737428</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2580006675235471</v>
+        <v>0.1590784703786791</v>
       </c>
       <c r="N227" t="n">
-        <v>0.8714739065961553</v>
+        <v>0.7420956683456287</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2580672290554425</v>
+        <v>0.1590382801130867</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.04663786767959555</v>
+        <v>0.06093285572723036</v>
       </c>
       <c r="G228" t="n">
-        <v>0.258560391897989</v>
+        <v>0.04326553602843201</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2233415743929875</v>
+        <v>0.06093285572723036</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2596778168986611</v>
+        <v>0.04326553602843201</v>
       </c>
       <c r="L228" t="n">
-        <v>0.5439943963929537</v>
+        <v>0.4525491814955247</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2595932642366555</v>
+        <v>0.1600604362452141</v>
       </c>
       <c r="N228" t="n">
-        <v>0.8632701764211689</v>
+        <v>0.7425751315268624</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2596602366422045</v>
+        <v>0.1600199978915626</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.04601510188575776</v>
+        <v>0.05906807893967025</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2601466519709829</v>
+        <v>0.04325246989751762</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2206642559879477</v>
+        <v>0.05906807893967025</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2612709323397572</v>
+        <v>0.04325246989751762</v>
       </c>
       <c r="L229" t="n">
-        <v>0.5395515747900499</v>
+        <v>0.4506733384434277</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2611858609497638</v>
+        <v>0.1610424021117492</v>
       </c>
       <c r="N229" t="n">
-        <v>0.8567678279424048</v>
+        <v>0.7368602669697562</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2612532442289665</v>
+        <v>0.1610017156700384</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0493545677982921</v>
+        <v>0.05722222167904407</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2617329120439766</v>
+        <v>0.04323940376660323</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2170133090190251</v>
+        <v>0.05722222167904407</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2628640477808533</v>
+        <v>0.04323940376660323</v>
       </c>
       <c r="L230" t="n">
-        <v>0.5318865579939867</v>
+        <v>0.4546040100606717</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2627784576628721</v>
+        <v>0.1620243679782842</v>
       </c>
       <c r="N230" t="n">
-        <v>0.8464915706467352</v>
+        <v>0.7421510955118732</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2628462518157285</v>
+        <v>0.1619834334485143</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0476694577411611</v>
+        <v>0.0553955542797439</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2633191721169704</v>
+        <v>0.04322633763568885</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2154465867446537</v>
+        <v>0.0553955542797439</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2644571632219494</v>
+        <v>0.04322633763568885</v>
       </c>
       <c r="L231" t="n">
-        <v>0.5246405122162894</v>
+        <v>0.4536419740904765</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2643710543759804</v>
+        <v>0.1630063338448193</v>
       </c>
       <c r="N231" t="n">
-        <v>0.8279661140210305</v>
+        <v>0.743047637990777</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2644392594024905</v>
+        <v>0.1629651512269901</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.04897296403832732</v>
+        <v>0.05358834707615933</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2649054321899643</v>
+        <v>0.04321327150477446</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2118219424232673</v>
+        <v>0.05358834707615933</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2660502786630455</v>
+        <v>0.04321327150477446</v>
       </c>
       <c r="L232" t="n">
-        <v>0.5143546036684834</v>
+        <v>0.4548880082760617</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2659636510890888</v>
+        <v>0.1639882997113543</v>
       </c>
       <c r="N232" t="n">
-        <v>0.8163161675521623</v>
+        <v>0.7432499152440309</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2660322669892525</v>
+        <v>0.163946869005466</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.04827827901375327</v>
+        <v>0.05180087040268078</v>
       </c>
       <c r="G233" t="n">
-        <v>0.266491692262958</v>
+        <v>0.04320020537386007</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2084972293132998</v>
+        <v>0.05180087040268078</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2676433941041415</v>
+        <v>0.04320020537386007</v>
       </c>
       <c r="L233" t="n">
-        <v>0.5064699985620941</v>
+        <v>0.4542428903606472</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2675562478021971</v>
+        <v>0.1649702655778894</v>
       </c>
       <c r="N233" t="n">
-        <v>0.8056664407270012</v>
+        <v>0.7373579481091989</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2676252745760145</v>
+        <v>0.1649285867839418</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.04259859499140152</v>
+        <v>0.0500333945936987</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2680779523359518</v>
+        <v>0.04318713924294568</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2050303006731851</v>
+        <v>0.0500333945936987</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2692365095452376</v>
+        <v>0.04318713924294568</v>
       </c>
       <c r="L234" t="n">
-        <v>0.5011278631086471</v>
+        <v>0.4531073980874529</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2691488445153054</v>
+        <v>0.1659522314444244</v>
       </c>
       <c r="N234" t="n">
-        <v>0.7997416430324192</v>
+        <v>0.7345717574238433</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2692182821627764</v>
+        <v>0.1659103045624176</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.04394710429523455</v>
+        <v>0.04828618998360346</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2696642124089456</v>
+        <v>0.04317407311203129</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2022790097613569</v>
+        <v>0.04828618998360346</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2708296249863337</v>
+        <v>0.04317407311203129</v>
       </c>
       <c r="L235" t="n">
-        <v>0.4965693635196673</v>
+        <v>0.4538823091996984</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2707414412284136</v>
+        <v>0.1669341973109595</v>
       </c>
       <c r="N235" t="n">
-        <v>0.7878664839552868</v>
+        <v>0.7354913640255289</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2708112897495384</v>
+        <v>0.1668920223408935</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.04533699924921493</v>
+        <v>0.04655952690678555</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2712504724819394</v>
+        <v>0.0431610069811169</v>
       </c>
       <c r="J236" t="n">
-        <v>0.2004012098362493</v>
+        <v>0.04655952690678555</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2724227404274298</v>
+        <v>0.0431610069811169</v>
       </c>
       <c r="L236" t="n">
-        <v>0.4860356660066801</v>
+        <v>0.4496684014406036</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2723340379415219</v>
+        <v>0.1679161631774946</v>
       </c>
       <c r="N236" t="n">
-        <v>0.7798656729824754</v>
+        <v>0.7383167887518179</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2724042973363004</v>
+        <v>0.1678737401193693</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.04477756872176039</v>
+        <v>0.04485367569763533</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2728367325549332</v>
+        <v>0.04314794085020252</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1970474760320291</v>
+        <v>0.04485367569763533</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2740158558685259</v>
+        <v>0.04314794085020252</v>
       </c>
       <c r="L237" t="n">
-        <v>0.4799487285634488</v>
+        <v>0.4505664525533882</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2739266346546303</v>
+        <v>0.1688981290440296</v>
       </c>
       <c r="N237" t="n">
-        <v>0.7637351785753695</v>
+        <v>0.7354480524402749</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2739973049230625</v>
+        <v>0.1688554578978452</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.04322964617218079</v>
+        <v>0.04316890669054326</v>
       </c>
       <c r="G238" t="n">
-        <v>0.274422992627927</v>
+        <v>0.04313487471928813</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1953662617395617</v>
+        <v>0.04316890669054326</v>
       </c>
       <c r="K238" t="n">
-        <v>0.275608971309622</v>
+        <v>0.04313487471928813</v>
       </c>
       <c r="L238" t="n">
-        <v>0.4739344209523806</v>
+        <v>0.4502772402812721</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2755192313677386</v>
+        <v>0.1698800949105647</v>
       </c>
       <c r="N238" t="n">
-        <v>0.7616849231829516</v>
+        <v>0.7340851759284622</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2755903125098244</v>
+        <v>0.169837175676321</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.04367970705809175</v>
+        <v>0.04150549021989978</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2760092527009208</v>
+        <v>0.04312180858837374</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1918762574481833</v>
+        <v>0.04150549021989978</v>
       </c>
       <c r="K239" t="n">
-        <v>0.277202086750718</v>
+        <v>0.04312180858837374</v>
       </c>
       <c r="L239" t="n">
-        <v>0.4677986552785174</v>
+        <v>0.4543015423674751</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2771118280808469</v>
+        <v>0.1708620607770997</v>
       </c>
       <c r="N239" t="n">
-        <v>0.7504005230570635</v>
+        <v>0.7405281800539442</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2771833200965864</v>
+        <v>0.1708188934547969</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.04412772012638853</v>
+        <v>0.03986259275466698</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2775955127739146</v>
+        <v>0.04310874245745935</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1904773261013792</v>
+        <v>0.03986259275466698</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2787952021918141</v>
+        <v>0.04310874245745935</v>
       </c>
       <c r="L240" t="n">
-        <v>0.4620410971138691</v>
+        <v>0.4528401365552167</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2787044247939552</v>
+        <v>0.1718440266436348</v>
       </c>
       <c r="N240" t="n">
-        <v>0.7345814458525987</v>
+        <v>0.7384770856542834</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2787763276833484</v>
+        <v>0.1718006112332727</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.04157365412396649</v>
+        <v>0.03823386143667138</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2791817728469084</v>
+        <v>0.04309567632654496</v>
       </c>
       <c r="J241" t="n">
-        <v>0.186569330642635</v>
+        <v>0.03823386143667138</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2803883176329102</v>
+        <v>0.04309567632654496</v>
       </c>
       <c r="L241" t="n">
-        <v>0.4571614120304458</v>
+        <v>0.4543938005877171</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2802970215070635</v>
+        <v>0.1728259925101698</v>
       </c>
       <c r="N241" t="n">
-        <v>0.7305271592244492</v>
+        <v>0.738031913567044</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2803693352701104</v>
+        <v>0.1727823290117486</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.04201747779772094</v>
+        <v>0.03661846273487509</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2807680329199022</v>
+        <v>0.04308261019563057</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1856521340154357</v>
+        <v>0.03661846273487509</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2819814330740062</v>
+        <v>0.04308261019563057</v>
       </c>
       <c r="L242" t="n">
-        <v>0.4526592656002572</v>
+        <v>0.4550633122081958</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2818896182201719</v>
+        <v>0.1738079583767049</v>
       </c>
       <c r="N242" t="n">
-        <v>0.7236371308275075</v>
+        <v>0.7355926846297897</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2819623428568724</v>
+        <v>0.1737640467902244</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03745915989454716</v>
+        <v>0.03501666698366852</v>
       </c>
       <c r="G243" t="n">
-        <v>0.282354292992896</v>
+        <v>0.04306954406471619</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1817255991632671</v>
+        <v>0.03501666698366852</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2835745485151023</v>
+        <v>0.04306954406471619</v>
       </c>
       <c r="L243" t="n">
-        <v>0.4455343233953136</v>
+        <v>0.4527494491598726</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2834822149332802</v>
+        <v>0.1747899242432399</v>
       </c>
       <c r="N243" t="n">
-        <v>0.7138108283166666</v>
+        <v>0.7383594196800827</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2835553504436343</v>
+        <v>0.1747457645687003</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03689866916134051</v>
+        <v>0.03342874451744211</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2839405530658898</v>
+        <v>0.0430564779338018</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1804895890296142</v>
+        <v>0.03342874451744211</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2851676639561984</v>
+        <v>0.0430564779338018</v>
       </c>
       <c r="L244" t="n">
-        <v>0.4378862509876246</v>
+        <v>0.4544529891859675</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2850748116463885</v>
+        <v>0.175771890109775</v>
       </c>
       <c r="N244" t="n">
-        <v>0.7040477193468189</v>
+        <v>0.7368321395554873</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2851483580303964</v>
+        <v>0.1757274823471761</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03733597434499629</v>
+        <v>0.0318549656705863</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2855268131388836</v>
+        <v>0.04304341180288741</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1789439665579627</v>
+        <v>0.0318549656705863</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2867607793972945</v>
+        <v>0.04304341180288741</v>
       </c>
       <c r="L245" t="n">
-        <v>0.4366147139492005</v>
+        <v>0.4540747100297001</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2866674083594968</v>
+        <v>0.1767538559763101</v>
       </c>
       <c r="N245" t="n">
-        <v>0.6876472715728569</v>
+        <v>0.7415108650935669</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2867413656171584</v>
+        <v>0.1767092001256519</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0377710441924098</v>
+        <v>0.03029560077749149</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2871130732118774</v>
+        <v>0.04303034567197302</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1746885946917976</v>
+        <v>0.03029560077749149</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2883538948383906</v>
+        <v>0.04303034567197302</v>
       </c>
       <c r="L246" t="n">
-        <v>0.4313193778520512</v>
+        <v>0.4518153894342902</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2882600050726051</v>
+        <v>0.1777358218428451</v>
       </c>
       <c r="N246" t="n">
-        <v>0.6777089526496732</v>
+        <v>0.7353956171318849</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2883343732039204</v>
+        <v>0.1776909179041278</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03920384745047639</v>
+        <v>0.02875092017254811</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2886993332848712</v>
+        <v>0.04301727954105863</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1734233363746046</v>
+        <v>0.02875092017254811</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2899470102794867</v>
+        <v>0.04301727954105863</v>
       </c>
       <c r="L247" t="n">
-        <v>0.4214999082681865</v>
+        <v>0.4565758051429577</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2898526017857134</v>
+        <v>0.1787177877093802</v>
       </c>
       <c r="N247" t="n">
-        <v>0.6687322302321608</v>
+        <v>0.7381864165080045</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2899273807906823</v>
+        <v>0.1786726356826036</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03463435286609136</v>
+        <v>0.02722119419014659</v>
       </c>
       <c r="G248" t="n">
-        <v>0.290285593357865</v>
+        <v>0.04300421341014424</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1697480545498688</v>
+        <v>0.02722119419014659</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2915401257205827</v>
+        <v>0.04300421341014424</v>
       </c>
       <c r="L248" t="n">
-        <v>0.4158559707696162</v>
+        <v>0.4566567348989223</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2914451984988218</v>
+        <v>0.1796997535759152</v>
       </c>
       <c r="N248" t="n">
-        <v>0.6629165719752116</v>
+        <v>0.7394832840594895</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2915203883774444</v>
+        <v>0.1796543534610795</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03806252918614998</v>
+        <v>0.02570669316467735</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2918718534308588</v>
+        <v>0.04299114727922986</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1679626121610759</v>
+        <v>0.02570669316467735</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2931332411616788</v>
+        <v>0.04299114727922986</v>
       </c>
       <c r="L249" t="n">
-        <v>0.4119872309283507</v>
+        <v>0.4570589564454037</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2930377952119301</v>
+        <v>0.1806817194424503</v>
       </c>
       <c r="N249" t="n">
-        <v>0.6529614455337188</v>
+        <v>0.7364862406239029</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2931133959642063</v>
+        <v>0.1806360712395553</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03648834515754763</v>
+        <v>0.02420768743053014</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2934581135038526</v>
+        <v>0.04297808114831547</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1648668721517109</v>
+        <v>0.02420768743053014</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2947263566027749</v>
+        <v>0.04297808114831547</v>
       </c>
       <c r="L250" t="n">
-        <v>0.4066933543163996</v>
+        <v>0.4542832475256219</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2946303919250384</v>
+        <v>0.1816636853089854</v>
       </c>
       <c r="N250" t="n">
-        <v>0.6453663185625745</v>
+        <v>0.7349953070388086</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2947064035509683</v>
+        <v>0.1816177890180312</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03591176952717959</v>
+        <v>0.02272444732209674</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2950443735768464</v>
+        <v>0.04296501501740108</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1631606974652595</v>
+        <v>0.02272444732209674</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2963194720438709</v>
+        <v>0.04296501501740108</v>
       </c>
       <c r="L251" t="n">
-        <v>0.4007740065057731</v>
+        <v>0.4534303858827966</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2962229886381467</v>
+        <v>0.1826456511755204</v>
       </c>
       <c r="N251" t="n">
-        <v>0.6311306587166718</v>
+        <v>0.7380105041417696</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2962994111377303</v>
+        <v>0.182599506796507</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0373327710419412</v>
+        <v>0.02125724317376691</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2966306336498402</v>
+        <v>0.04295194888648669</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1600439510452068</v>
+        <v>0.02125724317376691</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2979125874849671</v>
+        <v>0.04295194888648669</v>
       </c>
       <c r="L252" t="n">
-        <v>0.3911288530684811</v>
+        <v>0.4570011492601475</v>
       </c>
       <c r="M252" t="n">
-        <v>0.297815585351255</v>
+        <v>0.1836276170420554</v>
       </c>
       <c r="N252" t="n">
-        <v>0.6255539336509033</v>
+        <v>0.7396318527703498</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2978924187244923</v>
+        <v>0.1835812245749829</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03375131844872774</v>
+        <v>0.01980634531993104</v>
       </c>
       <c r="G253" t="n">
-        <v>0.298216893722834</v>
+        <v>0.0429388827555723</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1588164958350383</v>
+        <v>0.01980634531993104</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2995057029260632</v>
+        <v>0.0429388827555723</v>
       </c>
       <c r="L253" t="n">
-        <v>0.3835575595765337</v>
+        <v>0.4564963154008943</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2994081820643634</v>
+        <v>0.1846095829085905</v>
       </c>
       <c r="N253" t="n">
-        <v>0.6119356110201608</v>
+        <v>0.7348593737621121</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2994854263112543</v>
+        <v>0.1845629423534587</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03216738049443456</v>
+        <v>0.01837202409497957</v>
       </c>
       <c r="G254" t="n">
-        <v>0.2998031537958278</v>
+        <v>0.04292581662465791</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1559781947782394</v>
+        <v>0.01837202409497957</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3010988183671592</v>
+        <v>0.04292581662465791</v>
       </c>
       <c r="L254" t="n">
-        <v>0.3798597916019404</v>
+        <v>0.4558166620482571</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3010007787774717</v>
+        <v>0.1855915487751256</v>
       </c>
       <c r="N254" t="n">
-        <v>0.6014751584793379</v>
+        <v>0.7377930879546205</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3010784338980163</v>
+        <v>0.1855446601319345</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03458092592595695</v>
+        <v>0.01695454983330293</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3013894138688216</v>
+        <v>0.04291275049374352</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1537289108182954</v>
+        <v>0.01695454983330293</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3026919338082553</v>
+        <v>0.04291275049374352</v>
       </c>
       <c r="L255" t="n">
-        <v>0.3753352147167117</v>
+        <v>0.4588629669454556</v>
       </c>
       <c r="M255" t="n">
-        <v>0.30259337549058</v>
+        <v>0.1865735146416606</v>
       </c>
       <c r="N255" t="n">
-        <v>0.5985720436833262</v>
+        <v>0.740633016185438</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3026714414847783</v>
+        <v>0.1865263779104104</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02999192349019025</v>
+        <v>0.01555419286929156</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3029756739418154</v>
+        <v>0.04289968436282914</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1512685068986917</v>
+        <v>0.01555419286929156</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3042850492493514</v>
+        <v>0.04289968436282914</v>
       </c>
       <c r="L256" t="n">
-        <v>0.3655834944928571</v>
+        <v>0.4580360078357093</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3041859722036883</v>
+        <v>0.1875554805081957</v>
       </c>
       <c r="N256" t="n">
-        <v>0.5879257342870191</v>
+        <v>0.7372791792921282</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3042644490715403</v>
+        <v>0.1875080956888862</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03140034193402975</v>
+        <v>0.01417122353733586</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3045619340148092</v>
+        <v>0.04288661823191475</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1483968459629137</v>
+        <v>0.01417122353733586</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3058781646904474</v>
+        <v>0.04288661823191475</v>
       </c>
       <c r="L257" t="n">
-        <v>0.3602042965023868</v>
+        <v>0.4594365624622383</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3057785689167966</v>
+        <v>0.1885374463747307</v>
       </c>
       <c r="N257" t="n">
-        <v>0.5740356979453087</v>
+        <v>0.7380315981122546</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3058574566583023</v>
+        <v>0.1884898134673621</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02980615000437078</v>
+        <v>0.01280591217182626</v>
       </c>
       <c r="G258" t="n">
-        <v>0.306148194087803</v>
+        <v>0.04287355210100036</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1450137909544467</v>
+        <v>0.01280591217182626</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3074712801315435</v>
+        <v>0.04287355210100036</v>
       </c>
       <c r="L258" t="n">
-        <v>0.3546972863173111</v>
+        <v>0.4607654085682623</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3073711656299049</v>
+        <v>0.1895194122412658</v>
       </c>
       <c r="N258" t="n">
-        <v>0.563001402313088</v>
+        <v>0.7317902934833803</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3074504642450642</v>
+        <v>0.1894715312458379</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03220931644810868</v>
+        <v>0.01145852910715318</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3077344541607968</v>
+        <v>0.04286048597008598</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1435192048167761</v>
+        <v>0.01145852910715318</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3090643955726396</v>
+        <v>0.04286048597008598</v>
       </c>
       <c r="L259" t="n">
-        <v>0.3488621295096394</v>
+        <v>0.4568233238970011</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3089637623430132</v>
+        <v>0.1905013781078009</v>
       </c>
       <c r="N259" t="n">
-        <v>0.5515223150452493</v>
+        <v>0.7360552862430694</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3090434718318262</v>
+        <v>0.1904532490243137</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0306098100121387</v>
+        <v>0.01012934467770648</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3093207142337906</v>
+        <v>0.04284741983917158</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1402129504933873</v>
+        <v>0.01012934467770648</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3106575110137357</v>
+        <v>0.04284741983917158</v>
       </c>
       <c r="L260" t="n">
-        <v>0.3427984916513819</v>
+        <v>0.4616110861916743</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3105563590561216</v>
+        <v>0.1914833439743359</v>
       </c>
       <c r="N260" t="n">
-        <v>0.5405979037966854</v>
+        <v>0.7363265972288846</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3106364794185882</v>
+        <v>0.1914349668027896</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02800759944335623</v>
+        <v>0.008818629217877717</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3109069743067843</v>
+        <v>0.04283435370825719</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1371948909277656</v>
+        <v>0.008818629217877717</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3122506264548318</v>
+        <v>0.04283435370825719</v>
       </c>
       <c r="L261" t="n">
-        <v>0.3339060383145483</v>
+        <v>0.4628294731955019</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3121489557692299</v>
+        <v>0.192465309840871</v>
       </c>
       <c r="N261" t="n">
-        <v>0.5311276362222884</v>
+        <v>0.7379042472783899</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3122294870053502</v>
+        <v>0.1924166845812654</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02940265348865654</v>
+        <v>0.007526653062056778</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3124932343797782</v>
+        <v>0.04282128757734281</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1338648890633965</v>
+        <v>0.007526653062056778</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3138437418959279</v>
+        <v>0.04282128757734281</v>
       </c>
       <c r="L262" t="n">
-        <v>0.3289844350711491</v>
+        <v>0.4629792626517037</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3137415524823382</v>
+        <v>0.193447275707406</v>
       </c>
       <c r="N262" t="n">
-        <v>0.5255109799769516</v>
+        <v>0.7375882572291482</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3138224945921122</v>
+        <v>0.1933984023597413</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03079494089493495</v>
+        <v>0.006253686544634061</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3140794944527719</v>
+        <v>0.04280822144642842</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1328228078437652</v>
+        <v>0.006253686544634061</v>
       </c>
       <c r="K263" t="n">
-        <v>0.315436857337024</v>
+        <v>0.04280822144642842</v>
       </c>
       <c r="L263" t="n">
-        <v>0.3231333474931938</v>
+        <v>0.4625612323034994</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3153341491954465</v>
+        <v>0.1944292415739411</v>
       </c>
       <c r="N263" t="n">
-        <v>0.5132474027155673</v>
+        <v>0.7316786479187235</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3154155021788742</v>
+        <v>0.1943801201382171</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02618443040908677</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3156657545257657</v>
+        <v>0.04279515531551403</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1299685102123572</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>0.31702997277812</v>
+        <v>0.04279515531551403</v>
       </c>
       <c r="L264" t="n">
-        <v>0.3144524411526926</v>
+        <v>0.4598761598941088</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3169267459085548</v>
+        <v>0.1954112074404761</v>
       </c>
       <c r="N264" t="n">
-        <v>0.5014363720930279</v>
+        <v>0.7356754401846789</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3170085097656362</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.195361837916693</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04278199742077719</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04278199742077719</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.007005167339723305</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04278226594924121</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.007005167339723305</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04278226594924121</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.009003435569502442</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04278253447770523</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.009003435569502442</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04278253447770523</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01099476220420712</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04278280300616924</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01099476220420712</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04278280300616924</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01297910475888072</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04278307153463326</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01297910475888072</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04278307153463326</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.0149564207483935</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04278334006309727</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.0149564207483935</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04278334006309727</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.0169266676877883</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04278360859156129</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.0169266676877883</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.04278360859156129</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01888980309193596</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04278387712002531</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01888980309193596</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04278387712002531</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.02084578447587866</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04278414564848933</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.02084578447587866</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04278414564848933</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02279456935448795</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04278441417695335</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.02279456935448795</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04278441417695335</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02473611524280531</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04278468270541737</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.02473611524280531</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04278468270541737</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.02667037965570294</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04278495123388138</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.02667037965570294</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04278495123388138</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.0285973201082217</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0427852197623454</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.0285973201082217</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.0427852197623454</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.03051689411523439</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04278548829080941</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.03051689411523439</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04278548829080941</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.03242905919178129</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04278575681927343</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.03242905919178129</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04278575681927343</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.03433377285273583</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04278602534773745</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.03433377285273583</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04278602534773745</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03623099261313759</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04278629387620147</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.03623099261313759</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04278629387620147</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0381206759878607</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04278656240466548</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.0381206759878607</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04278656240466548</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.04000278049190319</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0427868309331295</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.04000278049190319</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.0427868309331295</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.04187726364026249</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04278709946159352</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.04187726364026249</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04278709946159352</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.04374408294781366</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04278736799005754</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.04374408294781366</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04278736799005754</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.04560319592959467</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04278763651852156</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.04560319592959467</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04278763651852156</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.04745456010048128</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04278790504698557</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.04745456010048128</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04278790504698557</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0492981329755107</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04278817357544959</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.0492981329755107</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04278817357544959</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.05113387206955946</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0427884421039136</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.05113387206955946</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.0427884421039136</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.05296190837825764</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04278871063237762</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.05296190837825764</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04278871063237762</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.05478324030004362</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04278897916084164</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.05478324030004362</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04278897916084164</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.05659799883054682</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04278924768930566</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.05659799883054682</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04278924768930566</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.05840614148464498</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04278951621776967</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.05840614148464498</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04278951621776967</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.06020762577737348</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04278978474623369</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.06020762577737348</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04278978474623369</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.06200240922361059</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0427900532746977</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.06200240922361059</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.0427900532746977</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.06379044933839112</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04279032180316172</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.06379044933839112</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04279032180316172</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.06557170363659393</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04279059033162574</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.06557170363659393</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04279059033162574</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.06734612963321468</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04279085886008976</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.06734612963321468</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04279085886008976</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.06911368484324845</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04279112738855378</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.06911368484324845</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04279112738855378</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.07087432678157501</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04279139591701779</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.07087432678157501</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04279139591701779</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.07262801296322766</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04279166444548181</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.07262801296322766</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04279166444548181</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.07437470090308676</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04279193297394582</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.07437470090308676</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04279193297394582</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.076114348116185</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04279220150240984</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.076114348116185</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04279220150240984</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.07784691211740338</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04279247003087386</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.07784691211740338</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04279247003087386</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.07957235042177396</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04279273855933788</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.07957235042177396</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04279273855933788</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0812906205441784</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04279300708780189</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.0812906205441784</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04279300708780189</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.08300167999964805</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04279327561626591</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.08300167999964805</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04279327561626591</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.08470548630306521</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04279354414472993</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.08470548630306521</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04279354414472993</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.08640199696946071</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04279381267319395</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.08640199696946071</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04279381267319395</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0880911695137174</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04279408120165797</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.0880911695137174</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04279408120165797</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.08977296145086544</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04279434973012199</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.08977296145086544</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04279434973012199</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.09144733029578836</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.042794618258586</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.09144733029578836</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.042794618258586</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.09311423356351572</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04279488678705002</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.09311423356351572</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04279488678705002</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.09477362876893164</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04279515531551403</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.09477362876893164</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04279515531551403</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.09477362876893164</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04278199742077719</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.09477362876893164</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04278199742077719</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.09673192902589153</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04279560060861962</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.09673192902589153</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04279560060861962</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.09867842603444299</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04280920379646204</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.09867842603444299</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04280920379646204</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.1006129686952489</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04282280698430446</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.1006129686952489</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04282280698430446</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.1025354059089723</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04283641017214688</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.1025354059089723</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04283641017214688</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.1044455865762761</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0428500133599893</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.1044455865762761</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.0428500133599893</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.1063433595978233</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04286361654783172</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.1063433595978233</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04286361654783172</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.1082285738742767</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04287721973567415</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.1082285738742767</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04287721973567415</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.1101010783062994</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04289082292351657</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.1101010783062994</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.04289082292351657</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.1119607217945542</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04290442611135899</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.1119607217945542</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04290442611135899</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.1138073532397043</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04291802929920142</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.1138073532397043</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04291802929920142</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.1156408215424124</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04293163248704384</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1156408215424124</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04293163248704384</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.1174609756033416</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04294523567488626</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.1174609756033416</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04294523567488626</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.1192676643231555</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04295883886272869</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.1192676643231555</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04295883886272869</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.1210607366025155</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04297244205057111</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.1210607366025155</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04297244205057111</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1228400413420855</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04298604523841353</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.1228400413420855</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04298604523841353</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1246054274425283</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04299964842625596</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.1246054274425283</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04299964842625596</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1263567438045069</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04301325161409838</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1263567438045069</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04301325161409838</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1280938393286842</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0430268548019408</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.1280938393286842</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.0430268548019408</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1298165629157232</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04304045798978322</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1298165629157232</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04304045798978322</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1315247634662868</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04305406117762565</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1315247634662868</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04305406117762565</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.133218289881038</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04306766436546807</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.133218289881038</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04306766436546807</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.1348969910606397</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04308126755331049</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.1348969910606397</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04308126755331049</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1365607159057549</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04309487074115291</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1365607159057549</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04309487074115291</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1382093133170466</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04310847392899533</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1382093133170466</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04310847392899533</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1398432491841372</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04312207711683776</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1398432491841372</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04312207711683776</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1414660743414476</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04313568030468018</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1414660743414476</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04313568030468018</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1430782546786002</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0431492834925226</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1430782546786002</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.0431492834925226</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1446796390962581</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04316288668036503</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1446796390962581</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.04316288668036503</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1462700764950841</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04317648986820745</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1462700764950841</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04317648986820745</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1478494157757412</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04319009305604987</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.1478494157757412</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04319009305604987</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.1494175058388924</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04320369624389229</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.1494175058388924</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04320369624389229</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.1509741955852007</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04321729943173471</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.1509741955852007</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04321729943173471</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.1525193339153289</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04323090261957713</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.1525193339153289</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04323090261957713</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1540527697299401</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04324450580741956</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.1540527697299401</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04324450580741956</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1555743519296971</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04325810899526198</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.1555743519296971</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04325810899526198</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1570839294152629</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0432717121831044</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1570839294152629</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.0432717121831044</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.1585813510873011</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04328531537094683</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.1585813510873011</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04328531537094683</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.1600664658464734</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04329891855878926</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.1600664658464734</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04329891855878926</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1615391225934434</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04331252174663167</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.1615391225934434</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04331252174663167</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.162999170228874</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0433261249344741</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.162999170228874</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.0433261249344741</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1644464576534281</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04333972812231652</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1644464576534281</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04333972812231652</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1658808337677687</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04335333131015894</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.1658808337677687</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04335333131015894</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1673021474725588</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04336693449800137</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1673021474725588</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04336693449800137</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1687102476684613</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04338053768584379</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1687102476684613</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04338053768584379</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1701049832561393</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04339414087368621</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1701049832561393</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04339414087368621</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1714862031362554</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04340774406152863</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1714862031362554</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04340774406152863</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1728537562094729</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04342134724937106</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1728537562094729</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04342134724937106</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1742074913764545</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04343495043721348</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1742074913764545</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.04343495043721348</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1755472575378633</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.0434485536250559</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1755472575378633</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.0434485536250559</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1755472575378633</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0434485536250559</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1755472575378633</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.0434485536250559</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.172456963302951</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.046628979973715</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.172456963302951</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.046628979973715</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1697199725924155</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04980940632237409</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1697199725924155</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.04980940632237409</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1673162776773081</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05298983267103319</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.1673162776773081</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05298983267103319</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1652258708286802</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05617025901969228</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.1652258708286802</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.05617025901969228</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1634287443175829</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05935068536835138</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.1634287443175829</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.05935068536835138</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1619048904150675</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06253111171701048</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.1619048904150675</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06253111171701048</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1606343013921854</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06571153806566957</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.1606343013921854</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06571153806566957</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1595969695199878</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06889196441432867</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1595969695199878</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.06889196441432867</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1587728870695259</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07207239076298777</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1587728870695259</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07207239076298777</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.1581420463118511</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07525281711164684</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.1581420463118511</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07525281711164684</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1576844395180147</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07843324346030595</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1576844395180147</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.07843324346030595</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1573800589590679</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08161366980896505</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1573800589590679</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08161366980896505</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.157208896906062</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08479409615762415</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.157208896906062</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.08479409615762415</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1571509456300482</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08797452250628324</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1571509456300482</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.08797452250628324</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.1576653506759213</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09115494885494234</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.1576653506759213</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09115494885494234</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.1592051394217086</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09433537520360144</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.1592051394217086</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09433537520360144</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.1614392631167723</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09751580155226054</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.1614392631167723</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09751580155226054</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1640319469363993</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1006962279009196</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1640319469363993</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1006962279009196</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.1666474160558763</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1038766542495787</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.1666474160558763</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1038766542495787</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1689498956504902</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1070570805982378</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1689498956504902</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1070570805982378</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.1706036108955277</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1102375069468969</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.1706036108955277</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1102375069468969</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.1712727869662756</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.113417933295556</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.1712727869662756</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.113417933295556</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1709746725298646</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1165983596442151</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1709746725298646</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1165983596442151</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1700496331132816</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1197787859928742</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1700496331132816</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1197787859928742</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.1685560181063928</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1229592123415333</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.1685560181063928</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1229592123415333</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.1665514000520041</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1261396386901924</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.1665514000520041</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1261396386901924</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1640933514929211</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1293200650388515</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1640933514929211</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1293200650388515</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.1612394449719497</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1325004913875106</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.1612394449719497</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1325004913875106</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.1580472530318956</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1356809177361697</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.1580472530318956</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1356809177361697</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.1545743482155646</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1388613440848288</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.1545743482155646</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1388613440848288</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1508783030657626</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1420417704334879</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.1508783030657626</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1420417704334879</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1470166901252953</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.145222196782147</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.1470166901252953</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.145222196782147</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1430470819369684</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1484026231308061</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1430470819369684</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1484026231308061</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1386764824510985</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1386764824510985</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1311491076977251</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1547634758281242</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1311491076977251</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1547634758281242</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1227421214316403</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1579439021767834</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.1227421214316403</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1579439021767834</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1170622813316647</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1611243285254425</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.1170622813316647</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1611243285254425</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.116362537194949</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1643047548741015</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.116362537194949</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1643047548741015</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1164048238588783</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1674851812227606</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1164048238588783</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1674851812227606</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1164897842840669</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1706656075714197</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.1164897842840669</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1706656075714197</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1166203263722911</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1738460339200788</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.1166203263722911</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1738460339200788</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1167993580253266</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1770264602687379</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.1167993580253266</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1770264602687379</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1170297871449497</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.180206886617397</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.1170297871449497</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.180206886617397</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1173145216329364</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1833873129660561</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.1173145216329364</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1833873129660561</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1176564693910627</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1865677393147152</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.1176564693910627</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1865677393147152</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.118286996001219</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1897481656633743</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.118286996001219</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1897481656633743</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1212654163468043</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1929285920120334</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.1212654163468043</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1929285920120334</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1254446327139999</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1961090183606925</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.1254446327139999</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.1961090183606925</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.128780128612403</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1992894447093516</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.128780128612403</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.1992894447093516</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1311709975120147</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2024698710580107</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1311709975120147</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2024698710580107</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1333272306948577</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2056502974066698</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1333272306948577</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2056502974066698</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1353140315371176</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2088307237553289</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.1353140315371176</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2088307237553289</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1371966034149801</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.212011150103988</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1371966034149801</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.212011150103988</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.139040149704631</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2151915764526471</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.139040149704631</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2151915764526471</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1408852835570789</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2183720028013062</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.1408852835570789</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2183720028013062</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1425305136891881</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2215524291499653</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.1425305136891881</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2215524291499653</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.144090437426164</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2247328554986244</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.144090437426164</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2247328554986244</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1457861894014935</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2279132818472835</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.1457861894014935</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2279132818472835</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1478389042486637</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2310937081959425</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1478389042486637</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2310937081959425</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1506107926200072</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2342741345446017</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1506107926200072</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2342741345446017</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1542663130439164</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2374545608932608</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.1542663130439164</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2374545608932608</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.158685734531546</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2406349872419199</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.158685734531546</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2406349872419199</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1637490502940442</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.243815413590579</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.1637490502940442</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.243815413590579</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.169336253542559</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.246995839939238</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.169336253542559</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.246995839939238</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1753273374882387</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2501762662878971</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1753273374882387</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2501762662878971</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1816022953422315</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2533566926365562</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1816022953422315</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2533566926365562</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1880411203156853</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2565371189852154</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1880411203156853</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2565371189852154</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1945238056197485</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2597175453338744</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1945238056197485</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2597175453338744</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.2009303444655692</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2628979716825335</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.2009303444655692</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2628979716825335</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.2071407300642955</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2660783980311927</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.2071407300642955</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2660783980311927</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.2130349556270756</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2692588243798517</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.2130349556270756</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2692588243798517</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.2184930143650576</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2724392507285108</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.2184930143650576</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2724392507285108</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.2233948994893897</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2756196770771699</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.2233948994893897</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2756196770771699</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.22762060421122</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.278800103425829</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.22762060421122</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.278800103425829</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.2310501217416968</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2819805297744881</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.2310501217416968</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2819805297744881</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.2335634452919682</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2851609561231472</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.2335634452919682</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2851609561231472</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.2353963433838177</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2883413824718063</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.2353963433838177</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2883413824718063</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.2351471479645957</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2915218088204654</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.2351471479645957</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2915218088204654</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.2290998960955152</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2947022351691245</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.2290998960955152</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2947022351691245</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.2166266988103554</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2978826615177836</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.2166266988103554</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2978826615177836</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1999422211168134</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3010630878664426</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1999422211168134</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3010630878664426</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1812611280225861</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3042435142151018</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1812611280225861</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3042435142151018</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1627980845353706</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3074239405637609</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1627980845353706</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3074239405637609</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.1467677556628639</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3106043669124199</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.1467677556628639</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3106043669124199</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1353848064127629</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3137847932610791</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1353848064127629</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3137847932610791</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1292542895267327</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3169652196097382</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.1292542895267327</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3169652196097382</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1238153014223566</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3201456459583973</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.1238153014223566</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3201456459583973</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1186255142014045</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3233260723070563</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.1186255142014045</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3233260723070563</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1137172802127616</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3265064986557155</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.1137172802127616</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3265064986557155</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.109122951805313</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3296869250043746</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.109122951805313</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3296869250043746</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1048748813279435</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3328673513530336</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.1048748813279435</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3328673513530336</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.1010054211295382</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3360477777016928</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.1010054211295382</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3360477777016928</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09754692355898226</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3392282040503519</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.09754692355898226</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3392282040503519</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.09453174096516062</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3424086303990109</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.09453174096516062</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3424086303990109</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.09199222569695828</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.34558905674767</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.09199222569695828</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.34558905674767</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.08996073010326031</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3487694830963292</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.08996073010326031</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3487694830963292</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.08846960653295174</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3519499094449882</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.08846960653295174</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3519499094449882</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.08755120733491756</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3551303357936473</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.08755120733491756</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3551303357936473</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.08723788485804285</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3583107621423064</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.08723788485804285</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3583107621423064</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
